--- a/data/hotels_by_city/Dallas/Dallas_shard_625.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_625.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="831">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,2374 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r580233675-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>55557</t>
+  </si>
+  <si>
+    <t>107310</t>
+  </si>
+  <si>
+    <t>580233675</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Four Night Stay was very Nice</t>
+  </si>
+  <si>
+    <t>Stayed four nights; accommodations were good, rooms were comfortable and clean.  Maids were fast and efficient; Front Desk Staff was very good, addressing a simple need that I had very quickly.  The breakfast is your standard fare but it was tasty and there were several options.  Great job.   MoreShow less</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Stayed four nights; accommodations were good, rooms were comfortable and clean.  Maids were fast and efficient; Front Desk Staff was very good, addressing a simple need that I had very quickly.  The breakfast is your standard fare but it was tasty and there were several options.  Great job.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r579946372-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>579946372</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>great price</t>
+  </si>
+  <si>
+    <t>customer service was really good and attentive ! Room was huge and clean with comfortable beds with pillows. Morning complimentary breakfast was very good and hotwe love this place and will be back againMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>customer service was really good and attentive ! Room was huge and clean with comfortable beds with pillows. Morning complimentary breakfast was very good and hotwe love this place and will be back againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r578559743-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>578559743</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Horrible and filthy</t>
+  </si>
+  <si>
+    <t>Do not stay at this hotel! There are ripped curtains in the front of the hotel, cigarette butts and weeds in the area in front, the carpet is filthy, there was dirty toilet paper on the roll in our bathroom, there was a pair of undies or a tag on top of the curtains, a plastic bag over the smoke detector, terrible Wi-Fi, etc.  This was our first stay in a "Quality" Suites and it was our last!!!  Oh, and there was a crowded loud beer drinking rock party until 11 pm at a business next door too!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Do not stay at this hotel! There are ripped curtains in the front of the hotel, cigarette butts and weeds in the area in front, the carpet is filthy, there was dirty toilet paper on the roll in our bathroom, there was a pair of undies or a tag on top of the curtains, a plastic bag over the smoke detector, terrible Wi-Fi, etc.  This was our first stay in a "Quality" Suites and it was our last!!!  Oh, and there was a crowded loud beer drinking rock party until 11 pm at a business next door too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r575735284-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>575735284</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Receptionist at the front desk - Janet</t>
+  </si>
+  <si>
+    <t>Janet has been the best front desk receptionist by far. With travelling for work, i have been to many hotels and she has stood out drastically. She's extremely kind and has a heart of gold! She treats all her guests as her family which is very comforting when travelling away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Janet has been the best front desk receptionist by far. With travelling for work, i have been to many hotels and she has stood out drastically. She's extremely kind and has a heart of gold! She treats all her guests as her family which is very comforting when travelling away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r574827651-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>574827651</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>turned a bad experience into a great one!</t>
+  </si>
+  <si>
+    <t>I had made a reservation at another area motel.  When I tried to check-in they would  not allow my 3 dogs.  I had called this other motel a week prior clearly asking to be sure my 3 dogs would be allowed.Long story short...here I was 10 hours from home...not place to stay &amp; started calling any motel in the area.  I called both LaQuinta's was told they would call me back which they never did.Called this motel &amp; Janet was so wonderful.  She was so understanding of my problem,   She called her manager &amp; he allowed us to stay.  Great room...great breakfast both days of my stay.  This motel saved my trip after my 10 hour drive.  Thanks so muchMoreShow less</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>I had made a reservation at another area motel.  When I tried to check-in they would  not allow my 3 dogs.  I had called this other motel a week prior clearly asking to be sure my 3 dogs would be allowed.Long story short...here I was 10 hours from home...not place to stay &amp; started calling any motel in the area.  I called both LaQuinta's was told they would call me back which they never did.Called this motel &amp; Janet was so wonderful.  She was so understanding of my problem,   She called her manager &amp; he allowed us to stay.  Great room...great breakfast both days of my stay.  This motel saved my trip after my 10 hour drive.  Thanks so muchMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r567570480-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>567570480</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Perfect place for Indoor pool &amp; Spa</t>
+  </si>
+  <si>
+    <t>I was last week with my family during spring break. I must say It was one of the best stay I have ever enjoyed with my family. My kinds loved indoor pool and spa. Rooms were spacious and clean. last but not least we enjoyed delicious breakfast before leave. Definitely we will be back..MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>I was last week with my family during spring break. I must say It was one of the best stay I have ever enjoyed with my family. My kinds loved indoor pool and spa. Rooms were spacious and clean. last but not least we enjoyed delicious breakfast before leave. Definitely we will be back..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r549974244-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>549974244</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overnight </t>
+  </si>
+  <si>
+    <t>Very disappointing. 4th visit in a year.  Each time was worse. Room dirtier each time and last visit there was a dirty towel hung in the bathroom and hair in the shower. No one around at breakfast and we had to heat the,sausage &amp; eggs. Very poor breakfast. Told girl to behind desk but she either didn't care or couldn't comprehend. Will never stay there again since it has new owners. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Very disappointing. 4th visit in a year.  Each time was worse. Room dirtier each time and last visit there was a dirty towel hung in the bathroom and hair in the shower. No one around at breakfast and we had to heat the,sausage &amp; eggs. Very poor breakfast. Told girl to behind desk but she either didn't care or couldn't comprehend. Will never stay there again since it has new owners. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r549732336-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>549732336</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Disgusting hotel with Staff that doesn't car.</t>
+  </si>
+  <si>
+    <t>Most Disgusting hotel I have ever stayed in . I used points while traveling for the Holiday. This was the first and only time I will stay there. At check in I stood outside for several minutes because the front doors would not open. After a while I looked in a side window to the office and saw the front desk agent watching a movie. When I banged on the window and told him I could not get in he let me know both front doors were broken and you had to slide them open.  After check in we went to the room and had to bring towels and sheets several times to the front desk due to them being dirty. Not stained from use but actually dirty. I then took my son to the "heated" pool. It was clearly not heated as it was too cold to swim in and was filthy. The hot tub was warm but was a horrible yellow color. I used the pool test kit that was in the unlocked pool room and there was no chlorine in the pool at all.  Back in the room the a/c was moldy, there were bugs in the room, the fridge was dirty, 3 out of 4 of the coffee  cups were unwrapped and dirty, there was paint falling from the ceiling in the bathroom from the exhaust not working, the toilet had mildew around the rim, Mildew...Most Disgusting hotel I have ever stayed in . I used points while traveling for the Holiday. This was the first and only time I will stay there. At check in I stood outside for several minutes because the front doors would not open. After a while I looked in a side window to the office and saw the front desk agent watching a movie. When I banged on the window and told him I could not get in he let me know both front doors were broken and you had to slide them open.  After check in we went to the room and had to bring towels and sheets several times to the front desk due to them being dirty. Not stained from use but actually dirty. I then took my son to the "heated" pool. It was clearly not heated as it was too cold to swim in and was filthy. The hot tub was warm but was a horrible yellow color. I used the pool test kit that was in the unlocked pool room and there was no chlorine in the pool at all.  Back in the room the a/c was moldy, there were bugs in the room, the fridge was dirty, 3 out of 4 of the coffee  cups were unwrapped and dirty, there was paint falling from the ceiling in the bathroom from the exhaust not working, the toilet had mildew around the rim, Mildew around the soap holder and the drain stop for the shower was in the bathroom floor broken when we checked in. After several attempts to get clean sheets I purchased two queen sets so we could use the beds. In the morning we went to the lobby to get breakfast. It would have been nice if there was actually food there. We sat for 15 minutes to see if staff would come and put out more food but no one came. The fridge only had packets of butter and the eggs were all gone. We were literally the only people in the breakfast area or lobby. Guess the staff was too busy watching movies in the back. On the way out there were two gentlemen in leather jackets behind the front desk. I assumed they worked there as they were behind the front desk. None of the staff members were dressed in uniforms or anything that would identify them as staff. They all looked like they just rolled out of bed and put on clothes that were laying in the floor. When I explained the issues to the guys in the leather jackets at the front desk it was obvious they just didn't care.  It was also obvious that the condition of this hotel is acceptable to them. After check out I contacted choice hotels to be reimbursed reward points since I stayed on a free night I had earned from my frequent travels. Choice hotels contacted the hotel to see if they would refund the points but the hotel declined and said the hotel should be acceptable in this condition. From speaking to another guest I was told that the hotel was a Comfort but had changed to a quality. He said that when it changed to a Quality inn it almost immediately became dirtier and dirtier and he would no longer use that hotel. It is really sad that the owner find this acceptable. Let this be a warning to anyone looking to book here. It is filthy and the staff doesn't car.MoreShow less</t>
+  </si>
+  <si>
+    <t>Most Disgusting hotel I have ever stayed in . I used points while traveling for the Holiday. This was the first and only time I will stay there. At check in I stood outside for several minutes because the front doors would not open. After a while I looked in a side window to the office and saw the front desk agent watching a movie. When I banged on the window and told him I could not get in he let me know both front doors were broken and you had to slide them open.  After check in we went to the room and had to bring towels and sheets several times to the front desk due to them being dirty. Not stained from use but actually dirty. I then took my son to the "heated" pool. It was clearly not heated as it was too cold to swim in and was filthy. The hot tub was warm but was a horrible yellow color. I used the pool test kit that was in the unlocked pool room and there was no chlorine in the pool at all.  Back in the room the a/c was moldy, there were bugs in the room, the fridge was dirty, 3 out of 4 of the coffee  cups were unwrapped and dirty, there was paint falling from the ceiling in the bathroom from the exhaust not working, the toilet had mildew around the rim, Mildew...Most Disgusting hotel I have ever stayed in . I used points while traveling for the Holiday. This was the first and only time I will stay there. At check in I stood outside for several minutes because the front doors would not open. After a while I looked in a side window to the office and saw the front desk agent watching a movie. When I banged on the window and told him I could not get in he let me know both front doors were broken and you had to slide them open.  After check in we went to the room and had to bring towels and sheets several times to the front desk due to them being dirty. Not stained from use but actually dirty. I then took my son to the "heated" pool. It was clearly not heated as it was too cold to swim in and was filthy. The hot tub was warm but was a horrible yellow color. I used the pool test kit that was in the unlocked pool room and there was no chlorine in the pool at all.  Back in the room the a/c was moldy, there were bugs in the room, the fridge was dirty, 3 out of 4 of the coffee  cups were unwrapped and dirty, there was paint falling from the ceiling in the bathroom from the exhaust not working, the toilet had mildew around the rim, Mildew around the soap holder and the drain stop for the shower was in the bathroom floor broken when we checked in. After several attempts to get clean sheets I purchased two queen sets so we could use the beds. In the morning we went to the lobby to get breakfast. It would have been nice if there was actually food there. We sat for 15 minutes to see if staff would come and put out more food but no one came. The fridge only had packets of butter and the eggs were all gone. We were literally the only people in the breakfast area or lobby. Guess the staff was too busy watching movies in the back. On the way out there were two gentlemen in leather jackets behind the front desk. I assumed they worked there as they were behind the front desk. None of the staff members were dressed in uniforms or anything that would identify them as staff. They all looked like they just rolled out of bed and put on clothes that were laying in the floor. When I explained the issues to the guys in the leather jackets at the front desk it was obvious they just didn't care.  It was also obvious that the condition of this hotel is acceptable to them. After check out I contacted choice hotels to be reimbursed reward points since I stayed on a free night I had earned from my frequent travels. Choice hotels contacted the hotel to see if they would refund the points but the hotel declined and said the hotel should be acceptable in this condition. From speaking to another guest I was told that the hotel was a Comfort but had changed to a quality. He said that when it changed to a Quality inn it almost immediately became dirtier and dirtier and he would no longer use that hotel. It is really sad that the owner find this acceptable. Let this be a warning to anyone looking to book here. It is filthy and the staff doesn't car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r547415642-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>547415642</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>Awesome stay!!</t>
+  </si>
+  <si>
+    <t>Bed was so comfortable. Breakfast had very good meals. Staff were helpful and friendly. Cheapest rate and worth to stay there. Everything was awesome. I would definitely go there again and suggest to all to go there and take experience!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Bed was so comfortable. Breakfast had very good meals. Staff were helpful and friendly. Cheapest rate and worth to stay there. Everything was awesome. I would definitely go there again and suggest to all to go there and take experience!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r539983713-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>539983713</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maid service </t>
+  </si>
+  <si>
+    <t>People at the front desk is amazing. but the maid service is not so good. They put the bath towel that's on the floor back on the side of the tub, claim that they couldn't make the bed cause something was on it. No toilet paper, no face towels in the room. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>People at the front desk is amazing. but the maid service is not so good. They put the bath towel that's on the floor back on the side of the tub, claim that they couldn't make the bed cause something was on it. No toilet paper, no face towels in the room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r537722218-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>537722218</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Not your typical Choice Property!!</t>
+  </si>
+  <si>
+    <t>We arrived and were greeted by a friendly staff member!!  We arrived a little early but was accommodated by our requested ground floor room!!Room was clean but bathroom fixtures including shower was needing replaced!!  Shower sprayed everywhere but down!!TV didn’t work but was fixed by maintenance!!  He told us the setting had been changed by the previous guests??????Turned on heat because temperature was in 30’s  — terrible smell — filter needed cleaned!!Breakfast was mediocre — we chose not to eat there the second morning!!  When leaving at 5:50 am — was told coffee wouldn’t be available until 6.  I have not ever stayed at a Choice Property that didn’t have coffee available around the clock!!Waffle machine always a hit.Staff member that checked us out was having difficulty with the process!! Seemed angry about something!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>We arrived and were greeted by a friendly staff member!!  We arrived a little early but was accommodated by our requested ground floor room!!Room was clean but bathroom fixtures including shower was needing replaced!!  Shower sprayed everywhere but down!!TV didn’t work but was fixed by maintenance!!  He told us the setting had been changed by the previous guests??????Turned on heat because temperature was in 30’s  — terrible smell — filter needed cleaned!!Breakfast was mediocre — we chose not to eat there the second morning!!  When leaving at 5:50 am — was told coffee wouldn’t be available until 6.  I have not ever stayed at a Choice Property that didn’t have coffee available around the clock!!Waffle machine always a hit.Staff member that checked us out was having difficulty with the process!! Seemed angry about something!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r531498943-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>531498943</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>A little disappointed</t>
+  </si>
+  <si>
+    <t>I wasn't sure whether to book a room here or not based on reviews, but did. Doesn't look bad from the outside, nor in the lobby when you walk in. I had requested ground floor but was told there wasn't a room available, no big deal since the elevator works. Front desk told me he was putting me on the third floor and that the rooms are a bit nicer since they don't get used as much. Room seems nice, bed comfortable with decent pillows and good carpet. I don't know if the carpet on the ground floor is wore out of the way it is made, makes it look that way. I walked past the breakfast area when I was returning the luggage cart. They serve a hot breakfast here. This is at 2pm, I noticed that the cover was open on the steam table. There were scrambled eggs and sausage still in it. I would like to think it will be tossed, but think I will stay with cereal in the morning. Also noticed that bread and muffins were still out in their serving container, in bulk, and not individually wrapped. I don't know that this Inn is necessarily up to Choice Hotel standards, and not sure I would stay again due to what I saw in the dining area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wasn't sure whether to book a room here or not based on reviews, but did. Doesn't look bad from the outside, nor in the lobby when you walk in. I had requested ground floor but was told there wasn't a room available, no big deal since the elevator works. Front desk told me he was putting me on the third floor and that the rooms are a bit nicer since they don't get used as much. Room seems nice, bed comfortable with decent pillows and good carpet. I don't know if the carpet on the ground floor is wore out of the way it is made, makes it look that way. I walked past the breakfast area when I was returning the luggage cart. They serve a hot breakfast here. This is at 2pm, I noticed that the cover was open on the steam table. There were scrambled eggs and sausage still in it. I would like to think it will be tossed, but think I will stay with cereal in the morning. Also noticed that bread and muffins were still out in their serving container, in bulk, and not individually wrapped. I don't know that this Inn is necessarily up to Choice Hotel standards, and not sure I would stay again due to what I saw in the dining area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r523140860-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>523140860</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>Poor upkeep, damaged walls/floors, moldy caulking</t>
+  </si>
+  <si>
+    <t>I stayed here 2 separate times over 2 weeks and I will look elsewhere next time I am in town for business.The first stay, my room on the first floor had no electricity on the outlet side of the room.No TV, ref, lamps, outlets. I used the outlet in the far corner to charge my phone. The bathroom had several patches on the walls and ceiling, same with the room.My second stay was on 3rd floor, better condition but still not what I would expect for paying 80.00 a night!!!!The elevator (Otis) needs calibrating, it was a jerky, noisy, clunky mess. The elevator is one of my phobias and this one sets my teeth on edge every time I had to use it. The breakfast buffet was run by 2 ladies, I thought the food was barely adequate, the ladies did not ever find OJ as I requested, so I just grabbed some poor quality scrambled eggs, puffy fake sausage links. For 80 bux, I think someone is cutting corners on food and service and hotel upkeep.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here 2 separate times over 2 weeks and I will look elsewhere next time I am in town for business.The first stay, my room on the first floor had no electricity on the outlet side of the room.No TV, ref, lamps, outlets. I used the outlet in the far corner to charge my phone. The bathroom had several patches on the walls and ceiling, same with the room.My second stay was on 3rd floor, better condition but still not what I would expect for paying 80.00 a night!!!!The elevator (Otis) needs calibrating, it was a jerky, noisy, clunky mess. The elevator is one of my phobias and this one sets my teeth on edge every time I had to use it. The breakfast buffet was run by 2 ladies, I thought the food was barely adequate, the ladies did not ever find OJ as I requested, so I just grabbed some poor quality scrambled eggs, puffy fake sausage links. For 80 bux, I think someone is cutting corners on food and service and hotel upkeep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r517694319-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>517694319</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>The hotel is conveniently located right off 35. The rooms were quiet but the hotel Is in need of a major facelift. We found a live cricket in our bedroom on the second floor. They allow pets and it smells like it. Not impressed. MoreShow less</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded August 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is conveniently located right off 35. The rooms were quiet but the hotel Is in need of a major facelift. We found a live cricket in our bedroom on the second floor. They allow pets and it smells like it. Not impressed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r516658988-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>516658988</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We came to Burleson so my wife could take care of her mother during cancer </t>
+  </si>
+  <si>
+    <t>Perry at Quality Suites in Burleson took great care of us, we felt bad that we didnt know exactly how long our stay would take, Perry was so understanding each day that we had to extend and program our keys. Perry even really went the extra mile one morning at 10 minutes before 9 am and fixed me some eggs even though breakfast was pretty much over. We will be back to stay again instead of looking for other hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Perry at Quality Suites in Burleson took great care of us, we felt bad that we didnt know exactly how long our stay would take, Perry was so understanding each day that we had to extend and program our keys. Perry even really went the extra mile one morning at 10 minutes before 9 am and fixed me some eggs even though breakfast was pretty much over. We will be back to stay again instead of looking for other hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r496241462-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>496241462</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Seeing Family</t>
+  </si>
+  <si>
+    <t>Very clean and inviting room.  The staff was very pleasant and service was good.  We will definitely be back when we are this way again. We had a good experience from start to finish.  From booking online, to check-in, to great room, to check-out.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Very clean and inviting room.  The staff was very pleasant and service was good.  We will definitely be back when we are this way again. We had a good experience from start to finish.  From booking online, to check-in, to great room, to check-out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r496152024-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>496152024</t>
+  </si>
+  <si>
+    <t>Troubling Check-in</t>
+  </si>
+  <si>
+    <t>We made an unexpected trip to Cleburne, TX that turned in to and unexpected stay at the Quality Suites.  We made reservations via Trip Advisor.  As soon as I received our confirmation email we headed on over, which was about a 8-12 min drive from the restaurant were we had dinner.  Upon our arrival we headed to the front desk, give the clerk our confirmation number and verification of id, only for him to say that we don't have reservations.  I looked at the email, double, triple and quadruple checked our information and says "I'm sorry, but we don't have your reservation.  Then I ask well, can we just get a room, with a deer in headlights look, he says, I don't know.  WTH... You don't know.  At this point my husband and I are very upset.  It was a full blown thunderstorm taking place and all of a sudden we see water pouring down the wall in the lobby of the hotel. GEESH Louise, really... There's no way we could leave because of the weather, so we are stuck and at the mercy of this incompetent clerk.  Anyway, the clerk then tells me you need to call trip advisor, I told him, "you are kidding, right?"  I then asked why would I need to call them and it clearly states in the email, if any questions with this reservations contact Quality Suites with your hotel's phone number listed. Clerk,...We made an unexpected trip to Cleburne, TX that turned in to and unexpected stay at the Quality Suites.  We made reservations via Trip Advisor.  As soon as I received our confirmation email we headed on over, which was about a 8-12 min drive from the restaurant were we had dinner.  Upon our arrival we headed to the front desk, give the clerk our confirmation number and verification of id, only for him to say that we don't have reservations.  I looked at the email, double, triple and quadruple checked our information and says "I'm sorry, but we don't have your reservation.  Then I ask well, can we just get a room, with a deer in headlights look, he says, I don't know.  WTH... You don't know.  At this point my husband and I are very upset.  It was a full blown thunderstorm taking place and all of a sudden we see water pouring down the wall in the lobby of the hotel. GEESH Louise, really... There's no way we could leave because of the weather, so we are stuck and at the mercy of this incompetent clerk.  Anyway, the clerk then tells me you need to call trip advisor, I told him, "you are kidding, right?"  I then asked why would I need to call them and it clearly states in the email, if any questions with this reservations contact Quality Suites with your hotel's phone number listed. Clerk, "ma'am I don't know,  but all I can tell you is to call trip advisor".  We are waiting, waiting, waiting... then he tells me "oh your confirmation is validated sorry for the inconvenience".MoreShow less</t>
+  </si>
+  <si>
+    <t>We made an unexpected trip to Cleburne, TX that turned in to and unexpected stay at the Quality Suites.  We made reservations via Trip Advisor.  As soon as I received our confirmation email we headed on over, which was about a 8-12 min drive from the restaurant were we had dinner.  Upon our arrival we headed to the front desk, give the clerk our confirmation number and verification of id, only for him to say that we don't have reservations.  I looked at the email, double, triple and quadruple checked our information and says "I'm sorry, but we don't have your reservation.  Then I ask well, can we just get a room, with a deer in headlights look, he says, I don't know.  WTH... You don't know.  At this point my husband and I are very upset.  It was a full blown thunderstorm taking place and all of a sudden we see water pouring down the wall in the lobby of the hotel. GEESH Louise, really... There's no way we could leave because of the weather, so we are stuck and at the mercy of this incompetent clerk.  Anyway, the clerk then tells me you need to call trip advisor, I told him, "you are kidding, right?"  I then asked why would I need to call them and it clearly states in the email, if any questions with this reservations contact Quality Suites with your hotel's phone number listed. Clerk,...We made an unexpected trip to Cleburne, TX that turned in to and unexpected stay at the Quality Suites.  We made reservations via Trip Advisor.  As soon as I received our confirmation email we headed on over, which was about a 8-12 min drive from the restaurant were we had dinner.  Upon our arrival we headed to the front desk, give the clerk our confirmation number and verification of id, only for him to say that we don't have reservations.  I looked at the email, double, triple and quadruple checked our information and says "I'm sorry, but we don't have your reservation.  Then I ask well, can we just get a room, with a deer in headlights look, he says, I don't know.  WTH... You don't know.  At this point my husband and I are very upset.  It was a full blown thunderstorm taking place and all of a sudden we see water pouring down the wall in the lobby of the hotel. GEESH Louise, really... There's no way we could leave because of the weather, so we are stuck and at the mercy of this incompetent clerk.  Anyway, the clerk then tells me you need to call trip advisor, I told him, "you are kidding, right?"  I then asked why would I need to call them and it clearly states in the email, if any questions with this reservations contact Quality Suites with your hotel's phone number listed. Clerk, "ma'am I don't know,  but all I can tell you is to call trip advisor".  We are waiting, waiting, waiting... then he tells me "oh your confirmation is validated sorry for the inconvenience".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r494917500-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>494917500</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Horrible Place!1</t>
+  </si>
+  <si>
+    <t>Upon arrival, bathroom smelled like smoke.  Smell eventually went away.  Tub had rust in the botton and bath mat was glued down but one end was peeling off.  It is as if they were trying to cover up rust.  Shower curtain had mildew on it. Both bed comforters had stains. Couch outdated and had a hole in it. Mattress of couch was severely stained.  Upon returning to hotel after dinner and shopping at 10:30 pm, bathroom smelled like someone was smoking week in it.  Filled the whole room.  Went to complain, but there was a long line and it was taking forever.  Finally shut the bathroom door to help keep smell out of room.  Got up the next day, the iron didn't work! Ugh! I like ironed clothes.  Breakfast was minimal.  Front desk lady had to cook it, so she was back and forth frantically.  Not good for families with small children.  People walking up and down hall with beer in their hand. Will never stay here.  Best Western next door is nice.  Stayed there once and will stay there next time in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Upon arrival, bathroom smelled like smoke.  Smell eventually went away.  Tub had rust in the botton and bath mat was glued down but one end was peeling off.  It is as if they were trying to cover up rust.  Shower curtain had mildew on it. Both bed comforters had stains. Couch outdated and had a hole in it. Mattress of couch was severely stained.  Upon returning to hotel after dinner and shopping at 10:30 pm, bathroom smelled like someone was smoking week in it.  Filled the whole room.  Went to complain, but there was a long line and it was taking forever.  Finally shut the bathroom door to help keep smell out of room.  Got up the next day, the iron didn't work! Ugh! I like ironed clothes.  Breakfast was minimal.  Front desk lady had to cook it, so she was back and forth frantically.  Not good for families with small children.  People walking up and down hall with beer in their hand. Will never stay here.  Best Western next door is nice.  Stayed there once and will stay there next time in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r492288780-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>492288780</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Great hospitality and service</t>
+  </si>
+  <si>
+    <t>I usually stay here at Quality suits twice a month for a business purpose and I will keep staying here coz I feel satisfied being here and decent location, facility and of course great breakfast with decent staff here. They treat me well so I enjoy my stay here than going to other unknown place. Thank you JD and Sam for great service.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>I usually stay here at Quality suits twice a month for a business purpose and I will keep staying here coz I feel satisfied being here and decent location, facility and of course great breakfast with decent staff here. They treat me well so I enjoy my stay here than going to other unknown place. Thank you JD and Sam for great service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r490227284-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>490227284</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Mr and Mrs Gonzales</t>
+  </si>
+  <si>
+    <t>Was a great place.  JD at the front desk was very cordial, polite, friendly, and hospitable.  He went out of his way to make sure we were taken care of.  Room was spacious, lobby clean and nice indoor swimming pool.  JD is awesome everywhere I turned JD was there.  From providing towels for pool to prepping for breakfast. His commitment to service is amazing.  If Quality hotel employees are all like JD, this is a brand I will visit again.  Also breakfast was great.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Was a great place.  JD at the front desk was very cordial, polite, friendly, and hospitable.  He went out of his way to make sure we were taken care of.  Room was spacious, lobby clean and nice indoor swimming pool.  JD is awesome everywhere I turned JD was there.  From providing towels for pool to prepping for breakfast. His commitment to service is amazing.  If Quality hotel employees are all like JD, this is a brand I will visit again.  Also breakfast was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r489582636-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>489582636</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Felt like home</t>
+  </si>
+  <si>
+    <t>We couldn't have picked a better place to be. We sold our home 12 hrs after putting it on the market. It all happened so fast we hadn't​ had time to find a new home. We checked in to quality suites in burleson tx and felt like home from day one. Everyone is AMAZING here. My kids love it. They always make sure you are comfortable and have everything you need. I love how they pull together and help all around. The counter staff is not afraid of helping the house keepers when the hotel is so full of families. Im so glad we stopped in and are able to call this place home til we find our own home. We have been here for almost 20 days and it's been an awesome experience. I don't know what we will do when we find a home and lose our keys.. we won't be able to go ask for new ones  lol they laugh with us when we lose the keys or leave them in the room or when I still place it by my phone and it deactivates the key Thank you Quality suites. You have become part of our family  We  Y'allThe Hurd FamilyMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>We couldn't have picked a better place to be. We sold our home 12 hrs after putting it on the market. It all happened so fast we hadn't​ had time to find a new home. We checked in to quality suites in burleson tx and felt like home from day one. Everyone is AMAZING here. My kids love it. They always make sure you are comfortable and have everything you need. I love how they pull together and help all around. The counter staff is not afraid of helping the house keepers when the hotel is so full of families. Im so glad we stopped in and are able to call this place home til we find our own home. We have been here for almost 20 days and it's been an awesome experience. I don't know what we will do when we find a home and lose our keys.. we won't be able to go ask for new ones  lol they laugh with us when we lose the keys or leave them in the room or when I still place it by my phone and it deactivates the key Thank you Quality suites. You have become part of our family  We  Y'allThe Hurd FamilyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r430402571-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>430402571</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Great night's rest</t>
+  </si>
+  <si>
+    <t>The Quality Suites have a nice but small living area to go along with the comfortable bed.  Rooms are clean but not many amenities.  Bathrooms are small and the shower had plenty of hot water.  This is a good place with no frills.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>The Quality Suites have a nice but small living area to go along with the comfortable bed.  Rooms are clean but not many amenities.  Bathrooms are small and the shower had plenty of hot water.  This is a good place with no frills.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r423972472-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>423972472</t>
+  </si>
+  <si>
+    <t>09/30/2016</t>
+  </si>
+  <si>
+    <t>Shocked by the hospitality!</t>
+  </si>
+  <si>
+    <t>I have stayed in many hotels through the years, but none can compare to the hospitality at this hotel.  As soon as you walk in the door you feel like your at home.  Levita at the front desk made our stay great.  We go to Burleson every August, and after this past trip, with the hospitality of Levita, we will be staying at the same place again. No more hotel searching.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I have stayed in many hotels through the years, but none can compare to the hospitality at this hotel.  As soon as you walk in the door you feel like your at home.  Levita at the front desk made our stay great.  We go to Burleson every August, and after this past trip, with the hospitality of Levita, we will be staying at the same place again. No more hotel searching.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r405726372-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>405726372</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Superb Service</t>
+  </si>
+  <si>
+    <t>I don't think I can recall a time where I felt so welcomed at a hotel. From the time I walked in to check-in, until I walked out after checking out, I was certain the front desk personnel made me feel like they appreciated my business. I arrived several hours early before checkin time. I was checking in for 4 rooms, and not one time did Rachel mention that I was there before checkin time. She got my rooms checked in and explained everything throughly and happily completed the checkin process. My last morning during my stay, I had the pleasure of being serviced be Levita, who was not only running the breakfast room, but also the front desk. She went out of her way to provide us with a request we had during breakfast, and at checkout, she made the process seamless. I cannot say enough what good hospitality means today. I can deal with a lot things, but unpleasant staff that doesn't make me feel appreciated is not one of them. I was a little upset that the exercise room was closed. I liked the spacious rooms and the queen size beds were one of the reasons I chose this hotel. One of the phones in the room wasn't working, but after advising Levita, she said they would get that taken care of asap. The location was spot on for the 2 events I attended while we were...I don't think I can recall a time where I felt so welcomed at a hotel. From the time I walked in to check-in, until I walked out after checking out, I was certain the front desk personnel made me feel like they appreciated my business. I arrived several hours early before checkin time. I was checking in for 4 rooms, and not one time did Rachel mention that I was there before checkin time. She got my rooms checked in and explained everything throughly and happily completed the checkin process. My last morning during my stay, I had the pleasure of being serviced be Levita, who was not only running the breakfast room, but also the front desk. She went out of her way to provide us with a request we had during breakfast, and at checkout, she made the process seamless. I cannot say enough what good hospitality means today. I can deal with a lot things, but unpleasant staff that doesn't make me feel appreciated is not one of them. I was a little upset that the exercise room was closed. I liked the spacious rooms and the queen size beds were one of the reasons I chose this hotel. One of the phones in the room wasn't working, but after advising Levita, she said they would get that taken care of asap. The location was spot on for the 2 events I attended while we were there. Whenever I'm back in the area, I'd definitely rebook at this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2016</t>
+  </si>
+  <si>
+    <t>I don't think I can recall a time where I felt so welcomed at a hotel. From the time I walked in to check-in, until I walked out after checking out, I was certain the front desk personnel made me feel like they appreciated my business. I arrived several hours early before checkin time. I was checking in for 4 rooms, and not one time did Rachel mention that I was there before checkin time. She got my rooms checked in and explained everything throughly and happily completed the checkin process. My last morning during my stay, I had the pleasure of being serviced be Levita, who was not only running the breakfast room, but also the front desk. She went out of her way to provide us with a request we had during breakfast, and at checkout, she made the process seamless. I cannot say enough what good hospitality means today. I can deal with a lot things, but unpleasant staff that doesn't make me feel appreciated is not one of them. I was a little upset that the exercise room was closed. I liked the spacious rooms and the queen size beds were one of the reasons I chose this hotel. One of the phones in the room wasn't working, but after advising Levita, she said they would get that taken care of asap. The location was spot on for the 2 events I attended while we were...I don't think I can recall a time where I felt so welcomed at a hotel. From the time I walked in to check-in, until I walked out after checking out, I was certain the front desk personnel made me feel like they appreciated my business. I arrived several hours early before checkin time. I was checking in for 4 rooms, and not one time did Rachel mention that I was there before checkin time. She got my rooms checked in and explained everything throughly and happily completed the checkin process. My last morning during my stay, I had the pleasure of being serviced be Levita, who was not only running the breakfast room, but also the front desk. She went out of her way to provide us with a request we had during breakfast, and at checkout, she made the process seamless. I cannot say enough what good hospitality means today. I can deal with a lot things, but unpleasant staff that doesn't make me feel appreciated is not one of them. I was a little upset that the exercise room was closed. I liked the spacious rooms and the queen size beds were one of the reasons I chose this hotel. One of the phones in the room wasn't working, but after advising Levita, she said they would get that taken care of asap. The location was spot on for the 2 events I attended while we were there. Whenever I'm back in the area, I'd definitely rebook at this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r397568637-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>397568637</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name change needs more than that! </t>
+  </si>
+  <si>
+    <t>My daughter and I stayed there for one night while in town for a funeral.  We were so emotional drained all we wanted was a comfortable space and stay. Upon checking in it was fair. The clerk was less than enthused. The room was warm and a/c wouldn't go any lower.  The bath needs to be redone.  The bath tub had some sort of bath mat inside. So it was gunky and completely unsanitary.  Needless to say we weren't able to have a warm bath as you couldn't sit in the tub it was nasty.  My daughter didn't even want to shower.  When we returned from dinner and visitation we both needed a hot run soak.  It was 10 after 10 pm on a Sunday and the pool was closed.  So disappointed.  Breakfast the next morning was very poor.  The eggs were cold and rubber like.  Bacon cold and soggy.  I'm a choice privilege member so I have to say I was very disappointed.  I've stayed at many locations.  I requested a late check out while waiting to go to the funeral.  That was OK and hassle free.  I was shocked to see upon check out the hotel name changed to Quality Inn. So weird. The hotel definitely needs an overhaul.  Nasty bathroom.  Gross breakfast. Couldn't use pool area. Again I'm a choice member and was very disappointed considering this was a comfort suites at booking. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>GMTX387, Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2016</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed there for one night while in town for a funeral.  We were so emotional drained all we wanted was a comfortable space and stay. Upon checking in it was fair. The clerk was less than enthused. The room was warm and a/c wouldn't go any lower.  The bath needs to be redone.  The bath tub had some sort of bath mat inside. So it was gunky and completely unsanitary.  Needless to say we weren't able to have a warm bath as you couldn't sit in the tub it was nasty.  My daughter didn't even want to shower.  When we returned from dinner and visitation we both needed a hot run soak.  It was 10 after 10 pm on a Sunday and the pool was closed.  So disappointed.  Breakfast the next morning was very poor.  The eggs were cold and rubber like.  Bacon cold and soggy.  I'm a choice privilege member so I have to say I was very disappointed.  I've stayed at many locations.  I requested a late check out while waiting to go to the funeral.  That was OK and hassle free.  I was shocked to see upon check out the hotel name changed to Quality Inn. So weird. The hotel definitely needs an overhaul.  Nasty bathroom.  Gross breakfast. Couldn't use pool area. Again I'm a choice member and was very disappointed considering this was a comfort suites at booking. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r395792138-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>395792138</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>We stayed here for one night and this hotel was ok. There was still food in the mini fridge from the previous occupant, also the workout room was closed for no reason. The breakfast was decent but no fruit. Overall, ok place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for one night and this hotel was ok. There was still food in the mini fridge from the previous occupant, also the workout room was closed for no reason. The breakfast was decent but no fruit. Overall, ok place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r382579310-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>382579310</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Double dipping,no a/c,no phone,roaches</t>
+  </si>
+  <si>
+    <t>I paid with cash and the hit my card not once but twice(once was done by auditor-:(). I had to close my card and go to the bank and get a new one. Spent countless hours on the phone with the bank,hotel, and Choice corporate. The general manager lied and said he would credit back my account including the cash for the experience this didn't happen. The a/c didn't work neither did the phone I had to ask for the maids to clean the room. Customer service was terrible. Plus roaches everywhere!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I paid with cash and the hit my card not once but twice(once was done by auditor-:(). I had to close my card and go to the bank and get a new one. Spent countless hours on the phone with the bank,hotel, and Choice corporate. The general manager lied and said he would credit back my account including the cash for the experience this didn't happen. The a/c didn't work neither did the phone I had to ask for the maids to clean the room. Customer service was terrible. Plus roaches everywhere!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r369985296-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>369985296</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Nice and friendly staff</t>
+  </si>
+  <si>
+    <t>The staff was very nice and cordial. The only things that I was not too happy about was that there was a whitish stain on one of the cushions of the sofa in the suite part and when the toilet was flushed, it was loud enough to scare the average person, not to mention it lasted so long; almost continuous. Other than those couple things, all was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>The staff was very nice and cordial. The only things that I was not too happy about was that there was a whitish stain on one of the cushions of the sofa in the suite part and when the toilet was flushed, it was loud enough to scare the average person, not to mention it lasted so long; almost continuous. Other than those couple things, all was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r368200914-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>368200914</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place to stay! </t>
+  </si>
+  <si>
+    <t>Excellent hotel of this class...newly renovated property and kept extremely clean. Front desk staff is very friendly and welcoming. Breakfast area is spacious and one of the best I have experienced. Fresh fruit (apples, and bananas)in addition to all the other items. This stay was during a event in town. Parking facility was well maintained. I actually stayed here for 4 nights and it was one of the best experience I had. The rooms were very nice and spacious with microwave and refreshing fragrance. I'll be back to this place and highly recommend to others!MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent hotel of this class...newly renovated property and kept extremely clean. Front desk staff is very friendly and welcoming. Breakfast area is spacious and one of the best I have experienced. Fresh fruit (apples, and bananas)in addition to all the other items. This stay was during a event in town. Parking facility was well maintained. I actually stayed here for 4 nights and it was one of the best experience I had. The rooms were very nice and spacious with microwave and refreshing fragrance. I'll be back to this place and highly recommend to others!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r368131713-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>368131713</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Stay here spring and fall travelling from Canada to south Texas l. Never been disappointed. Staff is  helpful. Breakfast is very good. excellent access to Interstate. Lots of eating establishments in the immediate area. All in all, good value for your dollar.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stay here spring and fall travelling from Canada to south Texas l. Never been disappointed. Staff is  helpful. Breakfast is very good. excellent access to Interstate. Lots of eating establishments in the immediate area. All in all, good value for your dollar.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r357437237-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>357437237</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Nice place, reasonable Price!</t>
+  </si>
+  <si>
+    <t>Nice rooms with a good standard, and perfect if you bring your pet. Nice breakfast, fast wi-fi and cable tv.Only bad thing to say, is that the place is kind of noisy (thin walls), and the bathroom could use some maintenance. It is clean though.The service is good, from both receptionist and House keeping.We asked if we could keep the room till 2pm on our Day of departue, because of a late flight (normally check out is 11am) and it was not a problem - nor did they charge us for it.I would defintely go again, especially if i had my dog with me.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Nice rooms with a good standard, and perfect if you bring your pet. Nice breakfast, fast wi-fi and cable tv.Only bad thing to say, is that the place is kind of noisy (thin walls), and the bathroom could use some maintenance. It is clean though.The service is good, from both receptionist and House keeping.We asked if we could keep the room till 2pm on our Day of departue, because of a late flight (normally check out is 11am) and it was not a problem - nor did they charge us for it.I would defintely go again, especially if i had my dog with me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r357388280-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>357388280</t>
+  </si>
+  <si>
+    <t>Bad experience</t>
+  </si>
+  <si>
+    <t>The walls in the rooms must be pretty thin because I could hear the people need to me talking. The bed was too hard and uncomfortable that it caused me to wake up each morning with a backache. The sofa in the room was hard and uncomfortable as well. Couldn't get Internet access in my room at all. Cut my stay short by two days because of all the problems I encountered. Will not stay at this hotel ever again!MoreShow less</t>
+  </si>
+  <si>
+    <t>The walls in the rooms must be pretty thin because I could hear the people need to me talking. The bed was too hard and uncomfortable that it caused me to wake up each morning with a backache. The sofa in the room was hard and uncomfortable as well. Couldn't get Internet access in my room at all. Cut my stay short by two days because of all the problems I encountered. Will not stay at this hotel ever again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r354646697-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>354646697</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>A great place to rest when I was just too tired to continue my drive...</t>
+  </si>
+  <si>
+    <t>Car problems in south Texas made for a long and stressful drive for me as I was heading to Oklahoma.  When it started to get dark I looked for the closest Comfort Suites and found the Burleson location.  They were accommodating and friendly even gave me directions to the restaurant I was looking for after I checked in. This Comfort Suites stay was a bright spot in a tough day and I appreciated their hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>Car problems in south Texas made for a long and stressful drive for me as I was heading to Oklahoma.  When it started to get dark I looked for the closest Comfort Suites and found the Burleson location.  They were accommodating and friendly even gave me directions to the restaurant I was looking for after I checked in. This Comfort Suites stay was a bright spot in a tough day and I appreciated their hospitality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r345140199-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>345140199</t>
+  </si>
+  <si>
+    <t>02/05/2016</t>
+  </si>
+  <si>
+    <t>Stayed for gymnastic Metroplex Challengee Fort Worth Convention Center</t>
+  </si>
+  <si>
+    <t>The staff was great willing to answer any question very professinal . The hotel and rooms very clean and the kids enjoyed the pool .The breakfast was very good enjoyed the omelets . We will diffenly be back when my son has another gymnastic meet up in the Fort Worth areaMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2016</t>
+  </si>
+  <si>
+    <t>The staff was great willing to answer any question very professinal . The hotel and rooms very clean and the kids enjoyed the pool .The breakfast was very good enjoyed the omelets . We will diffenly be back when my son has another gymnastic meet up in the Fort Worth areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r339598050-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>339598050</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>after 5 nights, the room was large and clean. they have all the standard amenities, like frig and microwave. the bed I did find to be on the firm side.  I did like their breakfast 4 mornings that had omelets and bacon. the waffle maker is in the shape of TX.  The staff was friendly and helpful.I did not care for the hotel being on a one way street.MoreShow less</t>
+  </si>
+  <si>
+    <t>after 5 nights, the room was large and clean. they have all the standard amenities, like frig and microwave. the bed I did find to be on the firm side.  I did like their breakfast 4 mornings that had omelets and bacon. the waffle maker is in the shape of TX.  The staff was friendly and helpful.I did not care for the hotel being on a one way street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r336394133-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>336394133</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>Clean comfortable cheap</t>
+  </si>
+  <si>
+    <t>Keep in mind that you're in Burleson not Beverly Hills.  Other than that, this hotel is clean,  comfortable, and definitely affordable. The rooms are huge, the beds are comfortable and the breakfast is included... other than that what can you ask for?!Across the parking lot is an amazing Mexican restaurant that has great margaritas. Its a pity their hours are quite limited in the evenings. We typically stay at this hotel or the other one on the same property.  Neither one are better than the other and amenities are nearly identical. We choose one or the other based on price. Check online for good pricing deals.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Keep in mind that you're in Burleson not Beverly Hills.  Other than that, this hotel is clean,  comfortable, and definitely affordable. The rooms are huge, the beds are comfortable and the breakfast is included... other than that what can you ask for?!Across the parking lot is an amazing Mexican restaurant that has great margaritas. Its a pity their hours are quite limited in the evenings. We typically stay at this hotel or the other one on the same property.  Neither one are better than the other and amenities are nearly identical. We choose one or the other based on price. Check online for good pricing deals.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r330313625-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>330313625</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Thankgiving Holiday</t>
+  </si>
+  <si>
+    <t>Our son and his family live in Burleson, We visit them four or five times a year. We have stayed in other motels but we always come back to this one. Staff is very friendly and helpful. Most of the time we have our oldest grandson spend a night or two with us and his Nana makes him smores. We are building great memories.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r325975076-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>325975076</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excellent accommodation </t>
+  </si>
+  <si>
+    <t>My daughter and I went to the wine festival last weekend and stayed here. Your housekeeping staff is amazing- the room was spotless. Beds were comfortable, sheets very soft. Lobby was inviting and your front desk staff really nice. Thank you for such a lovely stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r322608225-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>322608225</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>Friendly and Comfortable</t>
+  </si>
+  <si>
+    <t>Wife and I stayed a few days at this motel. Our room was a suite type room with 2 double beds and a sitting area with desk.  Room was very clean.  Bathroom was very clean.  TV accessed many cable stations and many on demand movies.  The complimentary breakfast was hot and very good.  Every morning they served up hot eggs. sausage, and/or waffles.   Coffee, juice, cereal, toast, were all available.   ALL staffers were very friendly and helpful with any questions we had.  Would stay there again in a heartbeat.  Were almost sad to leave.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r312635475-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>312635475</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel. </t>
+  </si>
+  <si>
+    <t>I stayed here one night and was happy to find a non smoking suite was available with no reservation. The price was reasonable for the room size and accommodations. The room was clean and it was a quiet hotel. I liked the different pillow options and that the towels were large and plentiful. My only complaint was breakfast was a little scarce, not too many options out and the dining area was very crowded. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded September 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here one night and was happy to find a non smoking suite was available with no reservation. The price was reasonable for the room size and accommodations. The room was clean and it was a quiet hotel. I liked the different pillow options and that the towels were large and plentiful. My only complaint was breakfast was a little scarce, not too many options out and the dining area was very crowded. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r311157021-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>311157021</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Good to be back in Burleson, and good to see all the happy faces</t>
+  </si>
+  <si>
+    <t>Clean room, great breakfest, good sites to see, Julie and Levita very friendly, and helpful. Great rates, lots to do in town. Easy to get to very clean, nice people to deal with. Will stay there again when in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Clean room, great breakfest, good sites to see, Julie and Levita very friendly, and helpful. Great rates, lots to do in town. Easy to get to very clean, nice people to deal with. Will stay there again when in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r310344076-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>310344076</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>The hotel is very nice, and well furnished.  The whole staff was very friendly and nice.  I got a room with a spa, and I was a little disappointed with it, maybe it was just me.  The room was great, and it was very quite.  Easy to get to, right off I35W.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>The hotel is very nice, and well furnished.  The whole staff was very friendly and nice.  I got a room with a spa, and I was a little disappointed with it, maybe it was just me.  The room was great, and it was very quite.  Easy to get to, right off I35W.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r307640128-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>307640128</t>
+  </si>
+  <si>
+    <t>09/06/2015</t>
+  </si>
+  <si>
+    <t>Warm Welcomes &amp; Happiness</t>
+  </si>
+  <si>
+    <t>You can tell the people at this job #LOVE they job,.. from the time i walked in Julie &amp; Levita was beyond helpful with my business stay as was helpful with giving me great recommendations on where to go around the area. You can tell they love they city, and the people that visit they city,... I will definitely will continue to stay in comfort suites whenever I have business around the area....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r306729295-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>306729295</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>No Surprises</t>
+  </si>
+  <si>
+    <t>Got what I expected - no surprises!  Easy to find, plenty of parking, friendly staff, FREE breakfast, FREE Wi-Fi, comfy bed, nice flat-panel television and it was quiet.The staff even went out of their way to tell me about good, nearby restaurants.  That's what I call service!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r303046157-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>303046157</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Clean quiet rooms</t>
+  </si>
+  <si>
+    <t>The hotel staff was very nice, the rooms were clean, beds very comfortable, nicely decorated with mini fridge. Coffee maker very small and the Television did not have any channels you could only order movies. That is the only reason I did not give it 5 stars.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r297874006-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>297874006</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>family wedding</t>
+  </si>
+  <si>
+    <t>The room was very clean and the service great. We were in town for a wedding. The king size bed was very comfortable. Lobby was kept clean, someone was always at the desk if you needed anything. Coffee was always ready and the breakfast exceptional. A computer was available to print our boarding pass.Thank you so muchVicki P</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r296023891-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>296023891</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseball Tournament </t>
+  </si>
+  <si>
+    <t>We enjoyed our stay. We stayed here for a youth baseball tournament. Kids enjoyed the pool and breakfast was great.Staff was friendly and rooms were clean! Air was cold and beds were comfortable! I would definitely come back if we were playing in this area again! I highly recommend this place!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r295321364-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>295321364</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Need to clean better??</t>
+  </si>
+  <si>
+    <t>Need to have cleaning staff to maybe open there eyes when cleaning, there was dog poop left on the floor??? When I was leaving to the Course, door would not lock? That went on for a couple of days? They would change lock it would work, come back it would not work??   Took a very long time for water to get hot in shower, don't be in a hurry!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r293012455-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>293012455</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Texas trip</t>
+  </si>
+  <si>
+    <t>Room was comfortable. No smoking room so that was a plus since there were no cigarette smells. The staff were so nice. Loved the shower but had to run water for awhile so it would get hot. Breakfast was good. Would gladly stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r292202165-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>292202165</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Visiting Family in Texas</t>
+  </si>
+  <si>
+    <t>Great place to stay. Awesome room. Great breakfast. Great staff. Only problem, elevator was broken and hot tub had no water. I would stay there again and look forward to returning to a repaired property.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r290154165-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>290154165</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointed </t>
+  </si>
+  <si>
+    <t>We stayed at this hotel June 30-July 5th for a track meet.  The floors in our. Room were dirty, after showering and olacing a towel.i. the floor the get the water up the towel was black.  The light in the bathroom kept.flickering even though it was turned off all.night long.  The biggest disappointment was when we took our son to the pool to rest his legs jn the hot tub on July 4th, when we thought most other guests would be out enjoying fireworks, to have the pool filled with 15-20 family members and their kids of a employee.  The pool area was so loud and crowded we could not get jn the hot tub or enjoy the pool.without getting our 1 year old splashed around.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel June 30-July 5th for a track meet.  The floors in our. Room were dirty, after showering and olacing a towel.i. the floor the get the water up the towel was black.  The light in the bathroom kept.flickering even though it was turned off all.night long.  The biggest disappointment was when we took our son to the pool to rest his legs jn the hot tub on July 4th, when we thought most other guests would be out enjoying fireworks, to have the pool filled with 15-20 family members and their kids of a employee.  The pool area was so loud and crowded we could not get jn the hot tub or enjoy the pool.without getting our 1 year old splashed around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r282881928-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>282881928</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Great trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After driving 10 hours due to interstate ridiculousness and closures in pouring rain ..we arrived to another hotel to find their pool was not working. We scrambled and found the Comfort Suites nearby, available for same days and cheaper. The room was large &amp; cool, comfortable beds and plenty of pillows. The facilities were clean and the staff were all very friendly and helpful. The pool was large and we had the pleasure of swimming by ourselves several times. Would definitely visit again. Was a nice location and easy to find after a terribly long day of traffic headaches and wrong turns. </t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r282375411-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>282375411</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>I am staying here for a week while husband does some training and after 3 days, can say this place is really awesome.  Came in on a Saturday night and staff (Danira, sp?) was very helpful getting us settled in.  We like cold rooms and ours is perfect.  Breakfast available, pool/hot tub, morning paper, room fridge/microwave, ....everything we could need is available.  Staff knows where the nearest ANYTHING is and actually take the time to visit/small talk when they aren't busy working.  Rooms, lobby, lobby bathroom, dining area are all very clean.  Have to come back in a few months for additional training and will be staying here. Note: The only place to eat within walking distance is a Tex-Mex style restuarant called Miranda's, and it's closed on Mondays.  Highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am staying here for a week while husband does some training and after 3 days, can say this place is really awesome.  Came in on a Saturday night and staff (Danira, sp?) was very helpful getting us settled in.  We like cold rooms and ours is perfect.  Breakfast available, pool/hot tub, morning paper, room fridge/microwave, ....everything we could need is available.  Staff knows where the nearest ANYTHING is and actually take the time to visit/small talk when they aren't busy working.  Rooms, lobby, lobby bathroom, dining area are all very clean.  Have to come back in a few months for additional training and will be staying here. Note: The only place to eat within walking distance is a Tex-Mex style restuarant called Miranda's, and it's closed on Mondays.  Highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r282246407-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>282246407</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>My two daughters and I aged 18 and 21 stayed at this hotel in order to attend my sister's wedding. We really enjoyed the hotel, the indoor swimming pool, and the fact that they allow pets. The room was very clean and well kept. The free breakfast was also very good: waffles, eggs, bacon along with various cereals, muffins, and danishes! We would  definately stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r279708303-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>279708303</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Customer Care and Assistance</t>
+  </si>
+  <si>
+    <t>I have never had a more pleasurable stay at any hotel other than Comfort Suites than the one in Burleson, TX. Miss Levita went out of her way to help us find places we needed to be without second thought and help us with our stay to make us want to come back and hopefully we shall and we sincerely hope she will be still there when and if we do decide to in the near future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r278761974-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>278761974</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights for a family wedding with my wife and daughter.  The room was clean, spacious and comfortable.  The staff were all very helpful and friendly.  The hot breakfasts were delicious.  Highly recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r278708891-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>278708891</t>
+  </si>
+  <si>
+    <t>The best thing was the price</t>
+  </si>
+  <si>
+    <t>I was very disappointed with this hotel.  You can tell it's an older hotel but even with the age, there were problems that should have been addressed.  The room has bugs in it. The bed was uncomfortable and the AC unit was very loud and couldn't hold a set temperature.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r273296964-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>273296964</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Exceptionally CLEAN</t>
+  </si>
+  <si>
+    <t>Front desk was very helpful, the lady in the dinning area made sure we had everything we needed. As soon as we entered the hotel lobby, the smell of clean freshness hit your nose! Would definitely stay again, the price was more than great for the cleanness of this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Mit P, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Front desk was very helpful, the lady in the dinning area made sure we had everything we needed. As soon as we entered the hotel lobby, the smell of clean freshness hit your nose! Would definitely stay again, the price was more than great for the cleanness of this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r273233269-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>273233269</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Surprisingly Good Hotel</t>
+  </si>
+  <si>
+    <t>I have been a little disappointed by the Comfort brand lately but was totally surprised with my two day stay here. The accommodations are roomy, comfortable and well-kept. There isn't much public space but I found myself happy with my room.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been a little disappointed by the Comfort brand lately but was totally surprised with my two day stay here. The accommodations are roomy, comfortable and well-kept. There isn't much public space but I found myself happy with my room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r273205868-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>273205868</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>I arrived late, after midnight, and left at 11am.  The female that worked at checkout on Mother's Day was a very positive person and was extremely easy to talk to.  I thoroughly enjoyed having a conversation with her and sharing stories.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived late, after midnight, and left at 11am.  The female that worked at checkout on Mother's Day was a very positive person and was extremely easy to talk to.  I thoroughly enjoyed having a conversation with her and sharing stories.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r271456628-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>271456628</t>
+  </si>
+  <si>
+    <t>05/11/2015</t>
+  </si>
+  <si>
+    <t>Burleson Comfort Suites</t>
+  </si>
+  <si>
+    <t>We came all the way from Australia to visit a friend, we stayed 2 nights the room was very nice! And the help from the front desk was outstanding! Thanks Levita For all your help! we definitely would recommend the Burleson comfort suites to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>We came all the way from Australia to visit a friend, we stayed 2 nights the room was very nice! And the help from the front desk was outstanding! Thanks Levita For all your help! we definitely would recommend the Burleson comfort suites to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r269820670-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>269820670</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Extremely clean, very friendly</t>
+  </si>
+  <si>
+    <t>We received excellent check in service from the clerk, Levita, and the breakfast staff. The hotel was exceptionally clean. I'm usually a little uncomfortable in hotels because of cleanliness issues, but this hotel looked, smelled, and felt clean from the linens to the tub. It's a little dated and could use minor repairs (broken tile and slow tub drain). There isn't much in the surrounding area but it was a perfect spot off the highway on the way to Ft Worth. Breakfast was limited but good. We were just there for a quick overnight but we would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We received excellent check in service from the clerk, Levita, and the breakfast staff. The hotel was exceptionally clean. I'm usually a little uncomfortable in hotels because of cleanliness issues, but this hotel looked, smelled, and felt clean from the linens to the tub. It's a little dated and could use minor repairs (broken tile and slow tub drain). There isn't much in the surrounding area but it was a perfect spot off the highway on the way to Ft Worth. Breakfast was limited but good. We were just there for a quick overnight but we would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r268416760-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>268416760</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Levita Levita Levita</t>
+  </si>
+  <si>
+    <t>The best guest service I ever received in my entire life. I am an ex-US Marine and have traveled the entire world. The service provided by Ms. Levita cannot be compared to any one I have come across in my career for over 39 years. I know great service when I experienced one.I will tell the world about you!As a Marine, I will recommend the place to marines and be Semper fi.MoreShow less</t>
+  </si>
+  <si>
+    <t>The best guest service I ever received in my entire life. I am an ex-US Marine and have traveled the entire world. The service provided by Ms. Levita cannot be compared to any one I have come across in my career for over 39 years. I know great service when I experienced one.I will tell the world about you!As a Marine, I will recommend the place to marines and be Semper fi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r266710350-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>266710350</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Perfect weekend stay</t>
+  </si>
+  <si>
+    <t>Everything was perfect.  Staff pleasant, room clean and quiet, lovely breakfast. I was traveling from out of state for a wedding and found this the perfect place to stay. I didn't utilize the workout area or pool, so I can't speak about them...MoreShow less</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Everything was perfect.  Staff pleasant, room clean and quiet, lovely breakfast. I was traveling from out of state for a wedding and found this the perfect place to stay. I didn't utilize the workout area or pool, so I can't speak about them...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r266590444-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>266590444</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>The room was very spacious and comfortable along with the friendly front desk clerk,I have to say this although the stay the breakfast was Excellent.The Front desk guy had the hotel under due to heavy severe weather.He was very concerned about our safety. So kudos to the front desk guy great job!MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was very spacious and comfortable along with the friendly front desk clerk,I have to say this although the stay the breakfast was Excellent.The Front desk guy had the hotel under due to heavy severe weather.He was very concerned about our safety. So kudos to the front desk guy great job!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r264462487-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>264462487</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>Exceeds Expectations</t>
+  </si>
+  <si>
+    <t>It is a joy to experience a lodging place that exceeds your expectations.  This particular Comfort Suite is spotless, friendly and provides excellent amenities.  Good breakfast, fast internet and everything is clean, clean, clean.  Would heartily recommend to others who travel through the Dallas/Ft. Worth area.MoreShow less</t>
+  </si>
+  <si>
+    <t>It is a joy to experience a lodging place that exceeds your expectations.  This particular Comfort Suite is spotless, friendly and provides excellent amenities.  Good breakfast, fast internet and everything is clean, clean, clean.  Would heartily recommend to others who travel through the Dallas/Ft. Worth area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r261321269-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>261321269</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>An amazing hotel.</t>
+  </si>
+  <si>
+    <t>Stayed there on Sunday March 15 on our way to San Antonio. The beds were comfortable the staff was very friendly and the hotel was very clean. The breakfast that was served the next morning was outstanding. On the way home from San Antonio we stayed there again due to a thunderstorm and enjoyed being greeted with a smile and the staff chatted with us in the hotel lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>GMTX387, Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Stayed there on Sunday March 15 on our way to San Antonio. The beds were comfortable the staff was very friendly and the hotel was very clean. The breakfast that was served the next morning was outstanding. On the way home from San Antonio we stayed there again due to a thunderstorm and enjoyed being greeted with a smile and the staff chatted with us in the hotel lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r261158051-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>261158051</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel!!</t>
+  </si>
+  <si>
+    <t>The hotel room was great more than I expected. Hotel services was awesome. The staff was more than willing to assist in whatever we needed. The indoor pool was a plus. The complimentary breakfast was actually good. Plenty of staff making sure that the food bar had plenty of food. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel room was great more than I expected. Hotel services was awesome. The staff was more than willing to assist in whatever we needed. The indoor pool was a plus. The complimentary breakfast was actually good. Plenty of staff making sure that the food bar had plenty of food. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r260179160-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>260179160</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>A Host to Remember</t>
+  </si>
+  <si>
+    <t>Despite of its appearance and seclusion, all that is overshadowed by Denira's leadership and customer service. She went far and beyond to meet my family's needs during our stay. The cleaning staff was courteous and helpful as well. At one time, an annoying and unreasonable client complained about unrealistic needs, and we witnessed her in action putting all of her efforts to meet their expectations. She deserves a praise. Thanks again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Despite of its appearance and seclusion, all that is overshadowed by Denira's leadership and customer service. She went far and beyond to meet my family's needs during our stay. The cleaning staff was courteous and helpful as well. At one time, an annoying and unreasonable client complained about unrealistic needs, and we witnessed her in action putting all of her efforts to meet their expectations. She deserves a praise. Thanks again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r256779758-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>256779758</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>Troubled stay...</t>
+  </si>
+  <si>
+    <t>First, let me say that the staff we encountered were all very kind!  Nevertheless, we were at the mercy of a series of unfortunate things.  Our stay was for 3 nights. I had read a few reviews &amp;, I think, on the hotels website it mentions the recent remodeling of this hotel. Anyway, on the first day we informed the front desk that our TV did not work. We had troubleshooted to no avail. Monday evening after we returned from our meeting one of the front desk men came to our room &amp; tried himself to troubleshoot it - still didn't work so he said he'd put a work order in for it to be fixed. Tuesday afternoon we returned &amp; it still wasn't working. After our meeting that night still wasn't fixed - two ladies from the front desk came to try &amp; fix it - said they'd write up a work order for it to be fixed. Evidently there is no maintenance man there on Mondays &amp; Tuesdays....??!!  Ok....so we resolved we would never have TV. 
+Then on Wednesday afternoon we returned to the hotel to rest, &amp; when we went to get ready for our evening meeting....we had no water..... No. Water. After calling downstairs we learned it was being worked on but we'd be without water for an hour to an hour &amp; a half. Wow. Unbelievable.  I understand "things happen" but.....
+To be fair &amp;...First, let me say that the staff we encountered were all very kind!  Nevertheless, we were at the mercy of a series of unfortunate things.  Our stay was for 3 nights. I had read a few reviews &amp;, I think, on the hotels website it mentions the recent remodeling of this hotel. Anyway, on the first day we informed the front desk that our TV did not work. We had troubleshooted to no avail. Monday evening after we returned from our meeting one of the front desk men came to our room &amp; tried himself to troubleshoot it - still didn't work so he said he'd put a work order in for it to be fixed. Tuesday afternoon we returned &amp; it still wasn't working. After our meeting that night still wasn't fixed - two ladies from the front desk came to try &amp; fix it - said they'd write up a work order for it to be fixed. Evidently there is no maintenance man there on Mondays &amp; Tuesdays....??!!  Ok....so we resolved we would never have TV. Then on Wednesday afternoon we returned to the hotel to rest, &amp; when we went to get ready for our evening meeting....we had no water..... No. Water. After calling downstairs we learned it was being worked on but we'd be without water for an hour to an hour &amp; a half. Wow. Unbelievable.  I understand "things happen" but.....To be fair &amp; balanced, the room was nice &amp; clean. The bed was comfortable. The breakfast was decent. However, I'm not so sure I would stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2015</t>
+  </si>
+  <si>
+    <t>First, let me say that the staff we encountered were all very kind!  Nevertheless, we were at the mercy of a series of unfortunate things.  Our stay was for 3 nights. I had read a few reviews &amp;, I think, on the hotels website it mentions the recent remodeling of this hotel. Anyway, on the first day we informed the front desk that our TV did not work. We had troubleshooted to no avail. Monday evening after we returned from our meeting one of the front desk men came to our room &amp; tried himself to troubleshoot it - still didn't work so he said he'd put a work order in for it to be fixed. Tuesday afternoon we returned &amp; it still wasn't working. After our meeting that night still wasn't fixed - two ladies from the front desk came to try &amp; fix it - said they'd write up a work order for it to be fixed. Evidently there is no maintenance man there on Mondays &amp; Tuesdays....??!!  Ok....so we resolved we would never have TV. 
+Then on Wednesday afternoon we returned to the hotel to rest, &amp; when we went to get ready for our evening meeting....we had no water..... No. Water. After calling downstairs we learned it was being worked on but we'd be without water for an hour to an hour &amp; a half. Wow. Unbelievable.  I understand "things happen" but.....
+To be fair &amp;...First, let me say that the staff we encountered were all very kind!  Nevertheless, we were at the mercy of a series of unfortunate things.  Our stay was for 3 nights. I had read a few reviews &amp;, I think, on the hotels website it mentions the recent remodeling of this hotel. Anyway, on the first day we informed the front desk that our TV did not work. We had troubleshooted to no avail. Monday evening after we returned from our meeting one of the front desk men came to our room &amp; tried himself to troubleshoot it - still didn't work so he said he'd put a work order in for it to be fixed. Tuesday afternoon we returned &amp; it still wasn't working. After our meeting that night still wasn't fixed - two ladies from the front desk came to try &amp; fix it - said they'd write up a work order for it to be fixed. Evidently there is no maintenance man there on Mondays &amp; Tuesdays....??!!  Ok....so we resolved we would never have TV. Then on Wednesday afternoon we returned to the hotel to rest, &amp; when we went to get ready for our evening meeting....we had no water..... No. Water. After calling downstairs we learned it was being worked on but we'd be without water for an hour to an hour &amp; a half. Wow. Unbelievable.  I understand "things happen" but.....To be fair &amp; balanced, the room was nice &amp; clean. The bed was comfortable. The breakfast was decent. However, I'm not so sure I would stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r255675851-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>255675851</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>Comfort Suites was a very nice place, Julie, Danira, and Levita are all very helpful, and super nice people. Will stay there again. They have a great breakfest, pool, work out room. You can do your laundry too.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Comfort Suites was a very nice place, Julie, Danira, and Levita are all very helpful, and super nice people. Will stay there again. They have a great breakfest, pool, work out room. You can do your laundry too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r255490881-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>255490881</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>This was a wonderful place to stay for our family. We got the jacuzzi suite, and it was clean and very comfortable. Our five year old and us loved the jacuzzi as our own personal hot tub. The partial wall divider made a great division for the "boys room" and the parents' room. The breakfast area was nice and the breakfast was a good start for the morning. If we ever have to stay in Burleson again, we will definitely consider Comfort Suites!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a wonderful place to stay for our family. We got the jacuzzi suite, and it was clean and very comfortable. Our five year old and us loved the jacuzzi as our own personal hot tub. The partial wall divider made a great division for the "boys room" and the parents' room. The breakfast area was nice and the breakfast was a good start for the morning. If we ever have to stay in Burleson again, we will definitely consider Comfort Suites!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r252146191-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>252146191</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Checked in quickly. Was accommodated by staff. Very comfortable. All rooms were clean and neat. The breakfast was worth the stay. All breakfast items werefresh and the quality was terrific. None of those powdered eggs. :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Checked in quickly. Was accommodated by staff. Very comfortable. All rooms were clean and neat. The breakfast was worth the stay. All breakfast items werefresh and the quality was terrific. None of those powdered eggs. :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r252129602-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>252129602</t>
+  </si>
+  <si>
+    <t>Relaxing</t>
+  </si>
+  <si>
+    <t>Even with 3 whole basketball teams in the building the hotel was very quite. Hot tub was excellent. Indoor pool is nice. Will return. Will recommend to anyone needing to stay in ft.worth /burleson area.   MoreShow less</t>
+  </si>
+  <si>
+    <t>Even with 3 whole basketball teams in the building the hotel was very quite. Hot tub was excellent. Indoor pool is nice. Will return. Will recommend to anyone needing to stay in ft.worth /burleson area.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r250809243-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>250809243</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Rooms are very clean and comfortable, very close to lots a good restaurants and fun things to do in the area. We enjoyed the free hot breakfast, the staff is very friendly and we enjoyed the pool and hot tub!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms are very clean and comfortable, very close to lots a good restaurants and fun things to do in the area. We enjoyed the free hot breakfast, the staff is very friendly and we enjoyed the pool and hot tub!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r246453999-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>246453999</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Great Staff!</t>
+  </si>
+  <si>
+    <t>The female staff member went above and beyond on her customer service skills on the evening of Dec. 26, 2014. My room was clean and comfortable. The breakfast was hot and plenty- my kids enjoyed the variety of choices (different each day of our stay).MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>The female staff member went above and beyond on her customer service skills on the evening of Dec. 26, 2014. My room was clean and comfortable. The breakfast was hot and plenty- my kids enjoyed the variety of choices (different each day of our stay).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r246417686-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>246417686</t>
+  </si>
+  <si>
+    <t>Stayed on the way to Austin for Christmas and again on the way back.</t>
+  </si>
+  <si>
+    <t>The front desk person was very nice and even called our room  to check to see if everything was ok. Nice price and even lower with AAA. Overall a very nice experience and will definately stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk person was very nice and even called our room  to check to see if everything was ok. Nice price and even lower with AAA. Overall a very nice experience and will definately stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r246416308-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>246416308</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Stopped here on our way from Minnesota to Corpus Christi for the winter.  Lovely property, very friendly and helpful service people.  Good breakfast.  Property is very well maintained.  My wife and I would recommend this hotel to our best friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stopped here on our way from Minnesota to Corpus Christi for the winter.  Lovely property, very friendly and helpful service people.  Good breakfast.  Property is very well maintained.  My wife and I would recommend this hotel to our best friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r243584751-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>243584751</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>PAY CLOSE ATTENTION TO THE 2.2 STARS BESIDE THE HOTEL NAME!</t>
+  </si>
+  <si>
+    <t>ABSOLUTE DUMP worst Choice Hotels property I've had to endure. dirty carpet, bugs, scary linens, bedbugs, soap scum buildup in tub-deplorable. GM EXTREMELY RUDE STAY AWAY! 5 stars?SEE INTEGRITY POLICY</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r243519479-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>243519479</t>
+  </si>
+  <si>
+    <t>Star Employee :)</t>
+  </si>
+  <si>
+    <t>My family and I stayed at comfort Suites 12/7/2014. We were able to meet the night shift employee Levita. I must say from management expierence that comfort suites has a rock star for a employee. She was the most helpful front desk employee and very sweet. Took excellent care of my family and I with any questions or concerns we had during our stay. I can honestly say that this employee goes ABOVE &amp; BEYOND her job duties! YOU ROCK LEVITA!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r242092749-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>242092749</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>late night find</t>
+  </si>
+  <si>
+    <t>We got into DFW late and didn't want to drive all the way to San Antonio. Saw the sign for Comfort Suites and pulled in. Got a good rate - made better with a AAA card - and an excellent quiet room, with a good breakfast the next morning.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r239577407-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>239577407</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>For the price it was okay.</t>
+  </si>
+  <si>
+    <t>Front desk very helpful. Breakfast was average. Get room on back of building. Front side very noisy traffic. Building needs some maintenance. On the low end of what you would expect for a Comfort Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Front desk very helpful. Breakfast was average. Get room on back of building. Front side very noisy traffic. Building needs some maintenance. On the low end of what you would expect for a Comfort Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r235341424-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>235341424</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>I'd stay here again</t>
+  </si>
+  <si>
+    <t>Good hotel for the price. Plenty of room for work in the king suite. Very quiet with interstate frontage. Internal noise tolerable. Friendly staff. Arrived late but was taken care of promptly. Did not have breakfast there so I can not comment on that.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded October 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2014</t>
+  </si>
+  <si>
+    <t>Good hotel for the price. Plenty of room for work in the king suite. Very quiet with interstate frontage. Internal noise tolerable. Friendly staff. Arrived late but was taken care of promptly. Did not have breakfast there so I can not comment on that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r233510787-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>233510787</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Business Stay</t>
+  </si>
+  <si>
+    <t>Good 3-star hotel for excellent price. Plenty of room for work in the king suite. Very quiet with interstate frontage. Internal noise tolerable. Good fitness equipment. Pool a bit small. Very friendly staff. Very good Mexican restaurant right next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good 3-star hotel for excellent price. Plenty of room for work in the king suite. Very quiet with interstate frontage. Internal noise tolerable. Good fitness equipment. Pool a bit small. Very friendly staff. Very good Mexican restaurant right next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r229277591-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>229277591</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Front desk was very helpful with my issues with my rewards program.  Very nice.  Easy check-in.    Room was clean.  A/C worked great.  Very comfortable rooms and we all slept great!  Breakfast was pretty standard but the lady working in there was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded September 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2014</t>
+  </si>
+  <si>
+    <t>Front desk was very helpful with my issues with my rewards program.  Very nice.  Easy check-in.    Room was clean.  A/C worked great.  Very comfortable rooms and we all slept great!  Breakfast was pretty standard but the lady working in there was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r225748660-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>225748660</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>Front desk was very friendly. Room was clean and smelled fresh. A/C was cold. Good nights sleep in a comfortable king bed. Best lighting in bath area I have seen in a while. Breakfast was good and service was great even though they had a lot of guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Front desk was very friendly. Room was clean and smelled fresh. A/C was cold. Good nights sleep in a comfortable king bed. Best lighting in bath area I have seen in a while. Breakfast was good and service was great even though they had a lot of guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r218320397-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>218320397</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed here with our family. We were in town for a family reunion. Honestly we were skeptical on this hotel when we booked. We chose this hotel because our whole group chose this hotel considering we wanted to be close to family and friends. Rooms were better than I expected, clean, beds were comfortable. The staff was always smiling! Breakfast attendant was very friendly. We will be returning to this hotel next year for our next family reunion in Burleson.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here with our family. We were in town for a family reunion. Honestly we were skeptical on this hotel when we booked. We chose this hotel because our whole group chose this hotel considering we wanted to be close to family and friends. Rooms were better than I expected, clean, beds were comfortable. The staff was always smiling! Breakfast attendant was very friendly. We will be returning to this hotel next year for our next family reunion in Burleson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r209636535-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>209636535</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Comfort Inn Burleson, Texas</t>
+  </si>
+  <si>
+    <t>This property is old and in need of updating.  The biggest problem I had with my room was the bathtub.  A non-slip mat was used to replace the existing one and the adhesive did not adhere to the tub.  When taking a shower the mat floated around my feet because the tub didn't drain properly.  Under the mat were particles of dirt, hair etc.  There was no possible way the staff could have adequately cleaned that tub.  The staff was nice enough and bed comfortable but just couldn't get past the gross tub.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>This property is old and in need of updating.  The biggest problem I had with my room was the bathtub.  A non-slip mat was used to replace the existing one and the adhesive did not adhere to the tub.  When taking a shower the mat floated around my feet because the tub didn't drain properly.  Under the mat were particles of dirt, hair etc.  There was no possible way the staff could have adequately cleaned that tub.  The staff was nice enough and bed comfortable but just couldn't get past the gross tub.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r207362599-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>207362599</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>GREAT VALUE</t>
+  </si>
+  <si>
+    <t>Overall it was a great stay &amp; value as most all of the Comfort Inn &amp; Suites have been.  Very nice and helpful staff and the room was very clean and appeared to be more updated more so than the hallways.  Breakfast was included and wonderful as always.  We were traveling as just 2 ladies and I felt safe in both the well lit parking lot and my room!  The hotel is right on the highway...easy to find.  Only drawback is the hotel is supposed to be NO SMOKING but the hallways smelled of it as we were coming and going to our rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Overall it was a great stay &amp; value as most all of the Comfort Inn &amp; Suites have been.  Very nice and helpful staff and the room was very clean and appeared to be more updated more so than the hallways.  Breakfast was included and wonderful as always.  We were traveling as just 2 ladies and I felt safe in both the well lit parking lot and my room!  The hotel is right on the highway...easy to find.  Only drawback is the hotel is supposed to be NO SMOKING but the hallways smelled of it as we were coming and going to our rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r205009086-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>205009086</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Excellent staff!</t>
+  </si>
+  <si>
+    <t>Stayed here for my son's wedding weekend. Everyone working here was friendly and eager to help. Rooms were clean and large sized. Breakfast was basic but good. Would stay here again if I was in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for my son's wedding weekend. Everyone working here was friendly and eager to help. Rooms were clean and large sized. Breakfast was basic but good. Would stay here again if I was in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r198847624-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>198847624</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Quick stop on way to San Antonio</t>
+  </si>
+  <si>
+    <t>checked in late on our way to San Antonio. Wife and kids were ready for a comfortable bed. This hotel was off of the highway so we chose it. Didn't get to check out indoor pool since we arrived right at closing time but it looked very nice. The room was nice and the beds were very comfortable. A with most comfort suites, the room had lots of space.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r197967362-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>197967362</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>BEWARE - Tried to Charge a Deposit to my Credit Card</t>
+  </si>
+  <si>
+    <t>When I checked in, the desk clerk informed me that they had a new policy requiring that they charge a deposit on any reservations made through a 3rd Party website.  I called the site I booked through, and they called the desk clerk and convinced him to waive the deposit.  Otherwise, the hotel is fine.  There were kids wandering the halls at 10pm, apparently coming and going from the indoor pool.  The room was spacious and clean, and the breakfast was above average.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>When I checked in, the desk clerk informed me that they had a new policy requiring that they charge a deposit on any reservations made through a 3rd Party website.  I called the site I booked through, and they called the desk clerk and convinced him to waive the deposit.  Otherwise, the hotel is fine.  There were kids wandering the halls at 10pm, apparently coming and going from the indoor pool.  The room was spacious and clean, and the breakfast was above average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r197023479-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>197023479</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>16 hour drive from Savannah to this</t>
+  </si>
+  <si>
+    <t>Where to start? We booked through Priceline and found this hotel. It looked to be an average priced hotel for the area. Have spent many nights in similar quality, inns and hotels, most of which were clean and comfortable. This one leaves much to be desired. The over all maintenance in the hotel is horrible. The window in my room was hanging out of the frame leaving an opening to the outside so the traffic on the interstate was very loud and the draft from the wind was very uncomfortable. This not only was annoying but the glass is dangerous if bumped could fall and critically injure someone. The smell of the room was poor. Maintenance placed cut up pieces of the aromatic rubber mats that are found at the bottom of a men's urinal in the output vent of the A/C unit of my room to cover the smell. Found cockroach fecal matter in various areas of my room. The door to my room has no striker plate on the locking mechanism so the use of any credit card will get you right into the room. The elevator has no inspection information posted in it. Morning breakfast was at least better than I expected the only thing I would suggest is that tongs be available to the guests. Children and adults reaching into the sweet roll and bagel area with unclean hands was just plain gross.MoreShow less</t>
+  </si>
+  <si>
+    <t>Where to start? We booked through Priceline and found this hotel. It looked to be an average priced hotel for the area. Have spent many nights in similar quality, inns and hotels, most of which were clean and comfortable. This one leaves much to be desired. The over all maintenance in the hotel is horrible. The window in my room was hanging out of the frame leaving an opening to the outside so the traffic on the interstate was very loud and the draft from the wind was very uncomfortable. This not only was annoying but the glass is dangerous if bumped could fall and critically injure someone. The smell of the room was poor. Maintenance placed cut up pieces of the aromatic rubber mats that are found at the bottom of a men's urinal in the output vent of the A/C unit of my room to cover the smell. Found cockroach fecal matter in various areas of my room. The door to my room has no striker plate on the locking mechanism so the use of any credit card will get you right into the room. The elevator has no inspection information posted in it. Morning breakfast was at least better than I expected the only thing I would suggest is that tongs be available to the guests. Children and adults reaching into the sweet roll and bagel area with unclean hands was just plain gross.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r187914699-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>187914699</t>
+  </si>
+  <si>
+    <t>12/17/2013</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Very much enjoyed our stay. Staff was wonderful, she made a point to visit and ask about us.  The breakfast was good. We stayed here for location only, didn't know the area previous to booking online.  Was pleased with the location and will plan to stay here yearly.  We were in Ft Worth for the Cutting Horse Futurity.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r180747297-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>180747297</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>Good for the dollars</t>
+  </si>
+  <si>
+    <t>My family of 5 stayed here for 3 nights.  It is a pet friendly hotel which is great Room was nice but breakfast was a little lame.  Rubber eggs and undercooked bacon is not my thing.  Overall a nice place and great value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r178465762-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>178465762</t>
+  </si>
+  <si>
+    <t>09/24/2013</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>The United States Army Company I was with in Viet Nam had a reunion in Burleson Texas from September 11 through September 15 and we all stayed at the Comfort Suites in Burleson.  The rooms were very nice, extra clean and the beds were very comfortable.  The accommodations at this establishment are outstanding.   We used their meeting room and the staff seemed to go out of their way to make sure everything we needed was available.  Everyone seemed to enjoy the breakfasts and the food was very good.  Housekeeping kept our rooms clean and neat and the desk staff was always checking to see if we needed anything.  I would highly recommend this Comfort Suites and its staff to anyone traveling to Fort Worth Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded September 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2013</t>
+  </si>
+  <si>
+    <t>The United States Army Company I was with in Viet Nam had a reunion in Burleson Texas from September 11 through September 15 and we all stayed at the Comfort Suites in Burleson.  The rooms were very nice, extra clean and the beds were very comfortable.  The accommodations at this establishment are outstanding.   We used their meeting room and the staff seemed to go out of their way to make sure everything we needed was available.  Everyone seemed to enjoy the breakfasts and the food was very good.  Housekeeping kept our rooms clean and neat and the desk staff was always checking to see if we needed anything.  I would highly recommend this Comfort Suites and its staff to anyone traveling to Fort Worth Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r170921315-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>170921315</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>cockroaches on the walls</t>
+  </si>
+  <si>
+    <t>Disgusting, people eating and drinking while sitting against my room door !!!!   The entire 3rd floor hallway was blocked in all directions with about 50-60 people sitting down in the hallway, they even had a banquet table set up in the middle of the hallway and bowls of food set up on the floor.  Most of the room doors were propped open 24/7, I didn't feel safe walking to my room.  No sleep possible, no front clerk available to check in, waited 20 minutes with another guest at 6pm. Large spills on the first third stories that were wet for the 2 nights I was there, cockroaches were crawling on the walls of my room. The Best Western next door was $26 dollars cheaper with a higher star rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded August 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2013</t>
+  </si>
+  <si>
+    <t>Disgusting, people eating and drinking while sitting against my room door !!!!   The entire 3rd floor hallway was blocked in all directions with about 50-60 people sitting down in the hallway, they even had a banquet table set up in the middle of the hallway and bowls of food set up on the floor.  Most of the room doors were propped open 24/7, I didn't feel safe walking to my room.  No sleep possible, no front clerk available to check in, waited 20 minutes with another guest at 6pm. Large spills on the first third stories that were wet for the 2 nights I was there, cockroaches were crawling on the walls of my room. The Best Western next door was $26 dollars cheaper with a higher star rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r165899084-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>165899084</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>Great night!</t>
+  </si>
+  <si>
+    <t>We had plans that fell through and needed a room around midnight - tried to book one through Expedia (won't make THAT mistake again), got to the hotel and the reservation was wrong.  The young man at the front desk was VERY cordial, patient, and helpful, he made everything right, and we thoroughly enjoyed our stay in our perfectly clean King Suite.  We thought breakfast was delicious, too - the waffles are great!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We had plans that fell through and needed a room around midnight - tried to book one through Expedia (won't make THAT mistake again), got to the hotel and the reservation was wrong.  The young man at the front desk was VERY cordial, patient, and helpful, he made everything right, and we thoroughly enjoyed our stay in our perfectly clean King Suite.  We thought breakfast was delicious, too - the waffles are great!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r165243197-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>165243197</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>Big comfy rooms..just off I35 W</t>
+  </si>
+  <si>
+    <t>Very please with the size, comfort and setup of the room.  We had two queen beds with a sofa sitting area.  There was a microwave and a fridge. Got a great rate online, breakfast was excellent..eggs,sausage,cereal, waffles, muffins...plenty of coffee. Also near some great eateries..that are reasonably priced if you are traveling with kids. This is a good choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very please with the size, comfort and setup of the room.  We had two queen beds with a sofa sitting area.  There was a microwave and a fridge. Got a great rate online, breakfast was excellent..eggs,sausage,cereal, waffles, muffins...plenty of coffee. Also near some great eateries..that are reasonably priced if you are traveling with kids. This is a good choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r156967250-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>156967250</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Great, comfy beds.  Helpful staff.  Quiet, convenient place.</t>
+  </si>
+  <si>
+    <t>We had a great experience at this place.  The breakfast was hot and plentiful.  The rooms were so clean, there were no worries.  Work out room was in great shape.  Staff was very welcoming and efficient.  I would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r155341867-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>155341867</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>Wasn't  what we had anticipated.....</t>
+  </si>
+  <si>
+    <t>We had stayed there on a couple of other occasions. This time the hot tub was down{one thing we really were looking forward to and spring breakers were very noisy.} I spoke w/manager who offered us a discount on our next visit which was nice.  Overall a nice clean place to stay and  very  convenient to meet our kids half way.....MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>GMTX387, Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2013</t>
+  </si>
+  <si>
+    <t>We had stayed there on a couple of other occasions. This time the hot tub was down{one thing we really were looking forward to and spring breakers were very noisy.} I spoke w/manager who offered us a discount on our next visit which was nice.  Overall a nice clean place to stay and  very  convenient to meet our kids half way.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r154630167-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>154630167</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>Had an okay time here...</t>
+  </si>
+  <si>
+    <t>Spent a couple of nights here with family. Good things: Price seemed reasonable for what you get. Rooms are big and in good condition. Free movies as well as pay-per-view on TV. Indoor pool with jacuzzi. Good (Not great!) breakfast. Close to Fort Worth.So-so things: Found previous occupant's dirty socks by bed. Juices in breakfast bar tasted watered down. Swimming pool was too deep for younger kids(4+ feet in shallows).800-pound gorilla bad things: A/C would not run in manual mode. Seemed to have its own mind and would not let you change it.  Parking was problem because some company was staying here and their vehicles, big trucks included, took up most the parking lot. One side benefit of staying in area we found out was in Burleson itself, gas prices were about 10-15 cents cheaper than in DFW area once you got away from I-35.MoreShow less</t>
+  </si>
+  <si>
+    <t>Spent a couple of nights here with family. Good things: Price seemed reasonable for what you get. Rooms are big and in good condition. Free movies as well as pay-per-view on TV. Indoor pool with jacuzzi. Good (Not great!) breakfast. Close to Fort Worth.So-so things: Found previous occupant's dirty socks by bed. Juices in breakfast bar tasted watered down. Swimming pool was too deep for younger kids(4+ feet in shallows).800-pound gorilla bad things: A/C would not run in manual mode. Seemed to have its own mind and would not let you change it.  Parking was problem because some company was staying here and their vehicles, big trucks included, took up most the parking lot. One side benefit of staying in area we found out was in Burleson itself, gas prices were about 10-15 cents cheaper than in DFW area once you got away from I-35.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r140617254-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>140617254</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>Great rest hotel</t>
+  </si>
+  <si>
+    <t>The receptionist was very friendly and helpful. The room clean the beds comfortable. Breakfast was better than some other chains it was edible and filling. There hotel area is quiet, we felt safe and left refreshed. We would use this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>GMTX387, General Manager at Quality Suites Burleson - Ft. Worth, responded to this reviewResponded September 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2012</t>
+  </si>
+  <si>
+    <t>The receptionist was very friendly and helpful. The room clean the beds comfortable. Breakfast was better than some other chains it was edible and filling. There hotel area is quiet, we felt safe and left refreshed. We would use this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r133320681-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>133320681</t>
+  </si>
+  <si>
+    <t>07/02/2012</t>
+  </si>
+  <si>
+    <t>My go to place when I'm in the Fort Worth area</t>
+  </si>
+  <si>
+    <t>The rooms are spacious and clean.  I usually get a King suite, it has a pull out couch that sleeps two that meets the needs of our family.  The staff is WONDERFUL, they go above and beyond to make sure you have a fabulous stay.  Anytime that I've run into problems (and there were only a few times I did) they were fixed immediately. My only complaint (and oh, so minor) is the indoor pool is kind of cold although they advertise it as heated.  Breakfast is ok, unless we are in a huge hurry, we usually hit the IHOP down the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2012</t>
+  </si>
+  <si>
+    <t>The rooms are spacious and clean.  I usually get a King suite, it has a pull out couch that sleeps two that meets the needs of our family.  The staff is WONDERFUL, they go above and beyond to make sure you have a fabulous stay.  Anytime that I've run into problems (and there were only a few times I did) they were fixed immediately. My only complaint (and oh, so minor) is the indoor pool is kind of cold although they advertise it as heated.  Breakfast is ok, unless we are in a huge hurry, we usually hit the IHOP down the road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r130363925-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>130363925</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>20125118nite</t>
+  </si>
+  <si>
+    <t>The standard 2 queen room was spacious, clean, and comfortable.  The staff was warm and friendly.  Management was extremely intelligent, helpful, and genuinely courteous.  The room price was very reasonable.  The location was convenient to many attractions.  This was a great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>The standard 2 queen room was spacious, clean, and comfortable.  The staff was warm and friendly.  Management was extremely intelligent, helpful, and genuinely courteous.  The room price was very reasonable.  The location was convenient to many attractions.  This was a great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r126658284-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>126658284</t>
+  </si>
+  <si>
+    <t>03/25/2012</t>
+  </si>
+  <si>
+    <t>nice overnight stay</t>
+  </si>
+  <si>
+    <t>The room was very comfortable and the staff was very friendly and accomodating.  The price was very reasonable. The breakfast was very nice try the blueberry or sometimes strawberry waffles in the shape of texas  We stayed 2 different nights on the way to Port A and back.  The pool had very strong chlorine which burned our eyes but kids still liked to swim in it.  I would definitely stay again If you are heading south on 35 kind of a pain to get to have to do a turnaround but that is the way it is in texas. There is a great mexican restaurant next door cant remember name of it but worth going there.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>The room was very comfortable and the staff was very friendly and accomodating.  The price was very reasonable. The breakfast was very nice try the blueberry or sometimes strawberry waffles in the shape of texas  We stayed 2 different nights on the way to Port A and back.  The pool had very strong chlorine which burned our eyes but kids still liked to swim in it.  I would definitely stay again If you are heading south on 35 kind of a pain to get to have to do a turnaround but that is the way it is in texas. There is a great mexican restaurant next door cant remember name of it but worth going there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r125898309-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>125898309</t>
+  </si>
+  <si>
+    <t>03/10/2012</t>
+  </si>
+  <si>
+    <t>Better than we expected</t>
+  </si>
+  <si>
+    <t>Its not a four star hotel but if you are looking for clean comfortable and inexpensive this is the place for youMoreShow less</t>
+  </si>
+  <si>
+    <t>Its not a four star hotel but if you are looking for clean comfortable and inexpensive this is the place for youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r124223261-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>124223261</t>
+  </si>
+  <si>
+    <t>02/06/2012</t>
+  </si>
+  <si>
+    <t>I went out to buy sheets to use while we were there.</t>
+  </si>
+  <si>
+    <t>It isn't in a pleasing location to begin with. Driveway seems to be washing out. Although we had a confirmed reservation, desk clerk was fairly intent on changing that reservation to a different kind of room. The elevator was really slow and when the door opened, the tile was broken and cracked. Elevator inspection certificate displayed was more than one year old. Beds were made but sheets very very wrinkled.  Closet door wouldn't slide as one side was totally off the track. We notified the front desk but this was on Friday and no one had come to look at it by check out on Sunday. We wore socks in the room but when I got in shower, my feet initially left very dirty footprints on tub bottom. We started watching for this and realized carpeting was unclean in our room. We didn't eat breakfast at the hotel as there were several youth basketball teams staying at the hotel. The breakfast room was very disorganized and we heard parents refusing children to eat the ripe fruit. I did not see the fruit, but could hear more than one person talking about it. The room was spacious, but drab. . I put my own new sheets on the beds and took them off when we left the room. The same wrinkled ones were put back on the beds when the room was 'cleaned'. Trash wasn't emptied first day. We wouldn't stay...It isn't in a pleasing location to begin with. Driveway seems to be washing out. Although we had a confirmed reservation, desk clerk was fairly intent on changing that reservation to a different kind of room. The elevator was really slow and when the door opened, the tile was broken and cracked. Elevator inspection certificate displayed was more than one year old. Beds were made but sheets very very wrinkled.  Closet door wouldn't slide as one side was totally off the track. We notified the front desk but this was on Friday and no one had come to look at it by check out on Sunday. We wore socks in the room but when I got in shower, my feet initially left very dirty footprints on tub bottom. We started watching for this and realized carpeting was unclean in our room. We didn't eat breakfast at the hotel as there were several youth basketball teams staying at the hotel. The breakfast room was very disorganized and we heard parents refusing children to eat the ripe fruit. I did not see the fruit, but could hear more than one person talking about it. The room was spacious, but drab. . I put my own new sheets on the beds and took them off when we left the room. The same wrinkled ones were put back on the beds when the room was 'cleaned'. Trash wasn't emptied first day. We wouldn't stay there again. We usually enjoy a clean room for the value at Choice Hotels but we were totally disappointed in this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>It isn't in a pleasing location to begin with. Driveway seems to be washing out. Although we had a confirmed reservation, desk clerk was fairly intent on changing that reservation to a different kind of room. The elevator was really slow and when the door opened, the tile was broken and cracked. Elevator inspection certificate displayed was more than one year old. Beds were made but sheets very very wrinkled.  Closet door wouldn't slide as one side was totally off the track. We notified the front desk but this was on Friday and no one had come to look at it by check out on Sunday. We wore socks in the room but when I got in shower, my feet initially left very dirty footprints on tub bottom. We started watching for this and realized carpeting was unclean in our room. We didn't eat breakfast at the hotel as there were several youth basketball teams staying at the hotel. The breakfast room was very disorganized and we heard parents refusing children to eat the ripe fruit. I did not see the fruit, but could hear more than one person talking about it. The room was spacious, but drab. . I put my own new sheets on the beds and took them off when we left the room. The same wrinkled ones were put back on the beds when the room was 'cleaned'. Trash wasn't emptied first day. We wouldn't stay...It isn't in a pleasing location to begin with. Driveway seems to be washing out. Although we had a confirmed reservation, desk clerk was fairly intent on changing that reservation to a different kind of room. The elevator was really slow and when the door opened, the tile was broken and cracked. Elevator inspection certificate displayed was more than one year old. Beds were made but sheets very very wrinkled.  Closet door wouldn't slide as one side was totally off the track. We notified the front desk but this was on Friday and no one had come to look at it by check out on Sunday. We wore socks in the room but when I got in shower, my feet initially left very dirty footprints on tub bottom. We started watching for this and realized carpeting was unclean in our room. We didn't eat breakfast at the hotel as there were several youth basketball teams staying at the hotel. The breakfast room was very disorganized and we heard parents refusing children to eat the ripe fruit. I did not see the fruit, but could hear more than one person talking about it. The room was spacious, but drab. . I put my own new sheets on the beds and took them off when we left the room. The same wrinkled ones were put back on the beds when the room was 'cleaned'. Trash wasn't emptied first day. We wouldn't stay there again. We usually enjoy a clean room for the value at Choice Hotels but we were totally disappointed in this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r116905242-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>116905242</t>
+  </si>
+  <si>
+    <t>08/18/2011</t>
+  </si>
+  <si>
+    <t>Simple and Clean</t>
+  </si>
+  <si>
+    <t>As I checked in to this hotel, I was welcomed by a young lady that was very kind and helpful. The service was superb. I work for a major oil in gas company that has been doing frequent business in the area. I did not spend much time at the hotel as I was out on business. Although the hotel is tricky to get to, I had my GPS handy. The rooms were clean and comfortable just what I expect every time I stay at a hotel. The morning breakfast was your typical breakfast with eggs, bacon, bread and juices. The area where the hotel is located was quiet. I enjoyed this hotel and would recommend this hotel to all readers.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>As I checked in to this hotel, I was welcomed by a young lady that was very kind and helpful. The service was superb. I work for a major oil in gas company that has been doing frequent business in the area. I did not spend much time at the hotel as I was out on business. Although the hotel is tricky to get to, I had my GPS handy. The rooms were clean and comfortable just what I expect every time I stay at a hotel. The morning breakfast was your typical breakfast with eggs, bacon, bread and juices. The area where the hotel is located was quiet. I enjoyed this hotel and would recommend this hotel to all readers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r113767975-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>113767975</t>
+  </si>
+  <si>
+    <t>06/15/2011</t>
+  </si>
+  <si>
+    <t>Where to start with the complaints?</t>
+  </si>
+  <si>
+    <t>This is not a bad hotel, but there were many reasons to choose to stay elsewhere.  My sofa has a large stain on the seat - not sure what it is, and not sure I want to know,  The vending machines were out of all sodas, and the snack machine did not work.  The lady behind the desk seemed unconcerned and unapologetic, "I know, but we've made our shopping list!." she quipped.  Neither the information nor the indifferent attitude are really much help to me.  She offered me a diet Coke from behind the desk, then charged me for it (I thought she was giving it to me to make up for my inconvenience).  Next door is a Mexican restaurant that turns into a kareoke bar at night.  It's 10:30 PM, and I can still here the noise from this establishment from inside my room.  Not sure how long this is going to go on.  After visiting with family (I'm here to attend a funeral) I went back to my room and turned on the TV.  The cable service keeps fading in and out, making it impossible to watch anything.  That was the last straw that caused me to write a review, as this is something i never do.  Save yourself some trouble, and stay up the road.  There are lots of choices one exit to the north.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>This is not a bad hotel, but there were many reasons to choose to stay elsewhere.  My sofa has a large stain on the seat - not sure what it is, and not sure I want to know,  The vending machines were out of all sodas, and the snack machine did not work.  The lady behind the desk seemed unconcerned and unapologetic, "I know, but we've made our shopping list!." she quipped.  Neither the information nor the indifferent attitude are really much help to me.  She offered me a diet Coke from behind the desk, then charged me for it (I thought she was giving it to me to make up for my inconvenience).  Next door is a Mexican restaurant that turns into a kareoke bar at night.  It's 10:30 PM, and I can still here the noise from this establishment from inside my room.  Not sure how long this is going to go on.  After visiting with family (I'm here to attend a funeral) I went back to my room and turned on the TV.  The cable service keeps fading in and out, making it impossible to watch anything.  That was the last straw that caused me to write a review, as this is something i never do.  Save yourself some trouble, and stay up the road.  There are lots of choices one exit to the north.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r106495893-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>106495893</t>
+  </si>
+  <si>
+    <t>05/02/2011</t>
+  </si>
+  <si>
+    <t>Best staff</t>
+  </si>
+  <si>
+    <t>I stayed there due to job site. Normally dont write reviews but I have to say comfort suites is very enjoyable to stay not only they have very clean comfortable rooms but the staff is very friendly Alo the front desk clerk is great she made sure my stay went very well her smile just made my day everyday! Not leaving behind the great cookies they welcome you with. Great place have a restaurant next door that is very good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r102298588-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>102298588</t>
+  </si>
+  <si>
+    <t>03/31/2011</t>
+  </si>
+  <si>
+    <t>Friendly staff. Inaccessible location.</t>
+  </si>
+  <si>
+    <t>Staff beyond helpful. Quiet hotel. Had the pool all to ourselves. Room was clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r100752303-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>100752303</t>
+  </si>
+  <si>
+    <t>03/19/2011</t>
+  </si>
+  <si>
+    <t>BED BUGS</t>
+  </si>
+  <si>
+    <t>My family and I choose this hotel bc of the indoor swimming pool. We had made plans to do several activities in the Ft. Worth area during spring break. The first thing we noticed we went to swim was the pook was very dirty..the next night the smell of chlorine was overwhelming and the hot tub didnt work. The last day we were there I started getting a rash I didnt htink anything of it Untill I got home and went to the doc...I had gotten Bed Bugs. The doc said they came from the hotel...I WOULD NEVER RECOMMEND THIS HOTEL</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r96778243-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>96778243</t>
+  </si>
+  <si>
+    <t>02/15/2011</t>
+  </si>
+  <si>
+    <t>Had a Wonderful Valentines Weekend Getaway</t>
+  </si>
+  <si>
+    <t>My wife booked a hot tub room at the last minute for a romantic valentines get away, the room was very clean and great looking. Soft bed, big TV etc. Big bathroom, with just the basics of what you need in there, however since it was a handicap accessible room the shower was a roll in. That is perfectly fine and was rather nice,expect that the little attempt of making a lip to keep the water in the shower area didn't work, it ended up going all over the bathroom floor. That is the only down side to the whole visit, the staff was friendly and the stay very enjoyable. We will definitely be staying there againMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>My wife booked a hot tub room at the last minute for a romantic valentines get away, the room was very clean and great looking. Soft bed, big TV etc. Big bathroom, with just the basics of what you need in there, however since it was a handicap accessible room the shower was a roll in. That is perfectly fine and was rather nice,expect that the little attempt of making a lip to keep the water in the shower area didn't work, it ended up going all over the bathroom floor. That is the only down side to the whole visit, the staff was friendly and the stay very enjoyable. We will definitely be staying there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r81245263-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>81245263</t>
+  </si>
+  <si>
+    <t>09/27/2010</t>
+  </si>
+  <si>
+    <t>Recently renovated, friendly staff</t>
+  </si>
+  <si>
+    <t>Nice welcome.  Property was fully booked, but was relatively quiet on the top floor.  Pool well maintained.  Breakfast had very good selections.  Most of our room was updated.  Wish there was a fan in the bathroom.  Love those fluffy pillows frequently found in the Choice chain of hotels.  Microwave and fridge handy.  Room a comfortable size.  Enjoyed our stay.  11:00 a.m. checkout time is too early.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r76375098-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>76375098</t>
+  </si>
+  <si>
+    <t>08/22/2010</t>
+  </si>
+  <si>
+    <t>I wouldn't stay here again</t>
+  </si>
+  <si>
+    <t>We checked into this hotel because when we travel, we always want a hot tub to get down in after a long day in the car.  We checked into this hotel and after one night, they took it out of service.  The first night, when we came back, our key cards didn't work and we stood at the front desk for 26 minutes waiting on someone to respond and fix the cards.  I also used the computer and one of the employees was sitting in there on a website that they shouldn't have been on while on-duty.  When I complained, I was told they couldn't do anything.  We found two cockroaches in our room and the sheets didn't ever look like they'd been laundered, even when I asked to have them changed.  They were disgusting and we slept on top of them with the blanket over us.  Not a place I would ever recommend....they DO NOT respond to customer complaints and their staff was very unfriendly and very unwilling to try and help with problems.  There is another hotel right next door that is much better than this location for Comfort Inn.  Terrible stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>We checked into this hotel because when we travel, we always want a hot tub to get down in after a long day in the car.  We checked into this hotel and after one night, they took it out of service.  The first night, when we came back, our key cards didn't work and we stood at the front desk for 26 minutes waiting on someone to respond and fix the cards.  I also used the computer and one of the employees was sitting in there on a website that they shouldn't have been on while on-duty.  When I complained, I was told they couldn't do anything.  We found two cockroaches in our room and the sheets didn't ever look like they'd been laundered, even when I asked to have them changed.  They were disgusting and we slept on top of them with the blanket over us.  Not a place I would ever recommend....they DO NOT respond to customer complaints and their staff was very unfriendly and very unwilling to try and help with problems.  There is another hotel right next door that is much better than this location for Comfort Inn.  Terrible stay.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +3013,7454 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>146</v>
+      </c>
+      <c r="X14" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>170</v>
+      </c>
+      <c r="X17" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>170</v>
+      </c>
+      <c r="X18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>183</v>
+      </c>
+      <c r="X19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>191</v>
+      </c>
+      <c r="X20" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>169</v>
+      </c>
+      <c r="O21" t="s">
+        <v>199</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>200</v>
+      </c>
+      <c r="X21" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>208</v>
+      </c>
+      <c r="O22" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>209</v>
+      </c>
+      <c r="X22" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>209</v>
+      </c>
+      <c r="X23" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>220</v>
+      </c>
+      <c r="J24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" t="s">
+        <v>223</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>224</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>209</v>
+      </c>
+      <c r="X24" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>224</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>231</v>
+      </c>
+      <c r="X25" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>239</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>240</v>
+      </c>
+      <c r="X26" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>240</v>
+      </c>
+      <c r="X27" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" t="s">
+        <v>251</v>
+      </c>
+      <c r="K28" t="s">
+        <v>252</v>
+      </c>
+      <c r="L28" t="s">
+        <v>253</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>254</v>
+      </c>
+      <c r="O28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>240</v>
+      </c>
+      <c r="X28" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" t="s">
+        <v>259</v>
+      </c>
+      <c r="L29" t="s">
+        <v>260</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O29" t="s">
+        <v>102</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>240</v>
+      </c>
+      <c r="X29" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" t="s">
+        <v>265</v>
+      </c>
+      <c r="K30" t="s">
+        <v>266</v>
+      </c>
+      <c r="L30" t="s">
+        <v>267</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O30" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>240</v>
+      </c>
+      <c r="X30" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>269</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J31" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" t="s">
+        <v>271</v>
+      </c>
+      <c r="L31" t="s">
+        <v>272</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>240</v>
+      </c>
+      <c r="X31" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>274</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>275</v>
+      </c>
+      <c r="J32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K32" t="s">
+        <v>277</v>
+      </c>
+      <c r="L32" t="s">
+        <v>278</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>279</v>
+      </c>
+      <c r="O32" t="s">
+        <v>102</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>240</v>
+      </c>
+      <c r="X32" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>276</v>
+      </c>
+      <c r="K33" t="s">
+        <v>283</v>
+      </c>
+      <c r="L33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>279</v>
+      </c>
+      <c r="O33" t="s">
+        <v>102</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>240</v>
+      </c>
+      <c r="X33" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>287</v>
+      </c>
+      <c r="J34" t="s">
+        <v>288</v>
+      </c>
+      <c r="K34" t="s">
+        <v>289</v>
+      </c>
+      <c r="L34" t="s">
+        <v>290</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>279</v>
+      </c>
+      <c r="O34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>240</v>
+      </c>
+      <c r="X34" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>293</v>
+      </c>
+      <c r="J35" t="s">
+        <v>294</v>
+      </c>
+      <c r="K35" t="s">
+        <v>295</v>
+      </c>
+      <c r="L35" t="s">
+        <v>296</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>297</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>298</v>
+      </c>
+      <c r="X35" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>302</v>
+      </c>
+      <c r="J36" t="s">
+        <v>303</v>
+      </c>
+      <c r="K36" t="s">
+        <v>304</v>
+      </c>
+      <c r="L36" t="s">
+        <v>305</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>297</v>
+      </c>
+      <c r="O36" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>298</v>
+      </c>
+      <c r="X36" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>308</v>
+      </c>
+      <c r="J37" t="s">
+        <v>309</v>
+      </c>
+      <c r="K37" t="s">
+        <v>310</v>
+      </c>
+      <c r="L37" t="s">
+        <v>311</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>312</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>313</v>
+      </c>
+      <c r="X37" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>316</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>317</v>
+      </c>
+      <c r="J38" t="s">
+        <v>318</v>
+      </c>
+      <c r="K38" t="s">
+        <v>319</v>
+      </c>
+      <c r="L38" t="s">
+        <v>320</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>321</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>323</v>
+      </c>
+      <c r="J39" t="s">
+        <v>324</v>
+      </c>
+      <c r="K39" t="s">
+        <v>325</v>
+      </c>
+      <c r="L39" t="s">
+        <v>326</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>327</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>328</v>
+      </c>
+      <c r="J40" t="s">
+        <v>329</v>
+      </c>
+      <c r="K40" t="s">
+        <v>330</v>
+      </c>
+      <c r="L40" t="s">
+        <v>331</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>332</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>333</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>334</v>
+      </c>
+      <c r="J41" t="s">
+        <v>335</v>
+      </c>
+      <c r="K41" t="s">
+        <v>336</v>
+      </c>
+      <c r="L41" t="s">
+        <v>337</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>338</v>
+      </c>
+      <c r="O41" t="s">
+        <v>102</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>339</v>
+      </c>
+      <c r="X41" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>343</v>
+      </c>
+      <c r="J42" t="s">
+        <v>344</v>
+      </c>
+      <c r="K42" t="s">
+        <v>345</v>
+      </c>
+      <c r="L42" t="s">
+        <v>346</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>338</v>
+      </c>
+      <c r="O42" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>347</v>
+      </c>
+      <c r="X42" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>350</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>351</v>
+      </c>
+      <c r="J43" t="s">
+        <v>352</v>
+      </c>
+      <c r="K43" t="s">
+        <v>353</v>
+      </c>
+      <c r="L43" t="s">
+        <v>354</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>355</v>
+      </c>
+      <c r="O43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>347</v>
+      </c>
+      <c r="X43" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>357</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>358</v>
+      </c>
+      <c r="J44" t="s">
+        <v>359</v>
+      </c>
+      <c r="K44" t="s">
+        <v>360</v>
+      </c>
+      <c r="L44" t="s">
+        <v>361</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>355</v>
+      </c>
+      <c r="O44" t="s">
+        <v>77</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>362</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>363</v>
+      </c>
+      <c r="J45" t="s">
+        <v>364</v>
+      </c>
+      <c r="K45" t="s">
+        <v>365</v>
+      </c>
+      <c r="L45" t="s">
+        <v>366</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>355</v>
+      </c>
+      <c r="O45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>367</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>368</v>
+      </c>
+      <c r="J46" t="s">
+        <v>369</v>
+      </c>
+      <c r="K46" t="s">
+        <v>370</v>
+      </c>
+      <c r="L46" t="s">
+        <v>371</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>355</v>
+      </c>
+      <c r="O46" t="s">
+        <v>77</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>373</v>
+      </c>
+      <c r="J47" t="s">
+        <v>374</v>
+      </c>
+      <c r="K47" t="s">
+        <v>375</v>
+      </c>
+      <c r="L47" t="s">
+        <v>376</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>377</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>378</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>379</v>
+      </c>
+      <c r="J48" t="s">
+        <v>380</v>
+      </c>
+      <c r="K48" t="s">
+        <v>381</v>
+      </c>
+      <c r="L48" t="s">
+        <v>382</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>355</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>383</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>384</v>
+      </c>
+      <c r="J49" t="s">
+        <v>385</v>
+      </c>
+      <c r="K49" t="s">
+        <v>386</v>
+      </c>
+      <c r="L49" t="s">
+        <v>387</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>377</v>
+      </c>
+      <c r="O49" t="s">
+        <v>199</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>388</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>389</v>
+      </c>
+      <c r="J50" t="s">
+        <v>390</v>
+      </c>
+      <c r="K50" t="s">
+        <v>391</v>
+      </c>
+      <c r="L50" t="s">
+        <v>392</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>377</v>
+      </c>
+      <c r="O50" t="s">
+        <v>199</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>393</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>394</v>
+      </c>
+      <c r="J51" t="s">
+        <v>395</v>
+      </c>
+      <c r="K51" t="s">
+        <v>396</v>
+      </c>
+      <c r="L51" t="s">
+        <v>397</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>377</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>398</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>399</v>
+      </c>
+      <c r="J52" t="s">
+        <v>400</v>
+      </c>
+      <c r="K52" t="s">
+        <v>401</v>
+      </c>
+      <c r="L52" t="s">
+        <v>402</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>377</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>404</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>405</v>
+      </c>
+      <c r="J53" t="s">
+        <v>406</v>
+      </c>
+      <c r="K53" t="s">
+        <v>407</v>
+      </c>
+      <c r="L53" t="s">
+        <v>408</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>409</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>410</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>411</v>
+      </c>
+      <c r="J54" t="s">
+        <v>412</v>
+      </c>
+      <c r="K54" t="s">
+        <v>413</v>
+      </c>
+      <c r="L54" t="s">
+        <v>414</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>409</v>
+      </c>
+      <c r="O54" t="s">
+        <v>77</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>416</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>417</v>
+      </c>
+      <c r="J55" t="s">
+        <v>418</v>
+      </c>
+      <c r="K55" t="s">
+        <v>419</v>
+      </c>
+      <c r="L55" t="s">
+        <v>420</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>409</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>421</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>422</v>
+      </c>
+      <c r="J56" t="s">
+        <v>423</v>
+      </c>
+      <c r="K56" t="s">
+        <v>424</v>
+      </c>
+      <c r="L56" t="s">
+        <v>425</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>409</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>426</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>427</v>
+      </c>
+      <c r="J57" t="s">
+        <v>428</v>
+      </c>
+      <c r="K57" t="s">
+        <v>429</v>
+      </c>
+      <c r="L57" t="s">
+        <v>430</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>409</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>431</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>432</v>
+      </c>
+      <c r="J58" t="s">
+        <v>428</v>
+      </c>
+      <c r="K58" t="s">
+        <v>433</v>
+      </c>
+      <c r="L58" t="s">
+        <v>434</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>409</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>435</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>436</v>
+      </c>
+      <c r="J59" t="s">
+        <v>437</v>
+      </c>
+      <c r="K59" t="s">
+        <v>438</v>
+      </c>
+      <c r="L59" t="s">
+        <v>439</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>440</v>
+      </c>
+      <c r="O59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>441</v>
+      </c>
+      <c r="X59" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>444</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>445</v>
+      </c>
+      <c r="J60" t="s">
+        <v>446</v>
+      </c>
+      <c r="K60" t="s">
+        <v>447</v>
+      </c>
+      <c r="L60" t="s">
+        <v>448</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>312</v>
+      </c>
+      <c r="O60" t="s">
+        <v>77</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>441</v>
+      </c>
+      <c r="X60" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>450</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>451</v>
+      </c>
+      <c r="J61" t="s">
+        <v>446</v>
+      </c>
+      <c r="K61" t="s">
+        <v>452</v>
+      </c>
+      <c r="L61" t="s">
+        <v>453</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>440</v>
+      </c>
+      <c r="O61" t="s">
+        <v>199</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>441</v>
+      </c>
+      <c r="X61" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>455</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>456</v>
+      </c>
+      <c r="J62" t="s">
+        <v>457</v>
+      </c>
+      <c r="K62" t="s">
+        <v>458</v>
+      </c>
+      <c r="L62" t="s">
+        <v>459</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>440</v>
+      </c>
+      <c r="O62" t="s">
+        <v>67</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>441</v>
+      </c>
+      <c r="X62" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>461</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>462</v>
+      </c>
+      <c r="J63" t="s">
+        <v>463</v>
+      </c>
+      <c r="K63" t="s">
+        <v>464</v>
+      </c>
+      <c r="L63" t="s">
+        <v>465</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>440</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>441</v>
+      </c>
+      <c r="X63" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>467</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>468</v>
+      </c>
+      <c r="J64" t="s">
+        <v>469</v>
+      </c>
+      <c r="K64" t="s">
+        <v>470</v>
+      </c>
+      <c r="L64" t="s">
+        <v>471</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>312</v>
+      </c>
+      <c r="O64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>441</v>
+      </c>
+      <c r="X64" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>473</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>474</v>
+      </c>
+      <c r="J65" t="s">
+        <v>475</v>
+      </c>
+      <c r="K65" t="s">
+        <v>476</v>
+      </c>
+      <c r="L65" t="s">
+        <v>477</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>312</v>
+      </c>
+      <c r="O65" t="s">
+        <v>102</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>478</v>
+      </c>
+      <c r="X65" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>481</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>482</v>
+      </c>
+      <c r="J66" t="s">
+        <v>475</v>
+      </c>
+      <c r="K66" t="s">
+        <v>483</v>
+      </c>
+      <c r="L66" t="s">
+        <v>484</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>312</v>
+      </c>
+      <c r="O66" t="s">
+        <v>77</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>478</v>
+      </c>
+      <c r="X66" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>486</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>487</v>
+      </c>
+      <c r="J67" t="s">
+        <v>488</v>
+      </c>
+      <c r="K67" t="s">
+        <v>489</v>
+      </c>
+      <c r="L67" t="s">
+        <v>490</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>312</v>
+      </c>
+      <c r="O67" t="s">
+        <v>67</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>478</v>
+      </c>
+      <c r="X67" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>492</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>493</v>
+      </c>
+      <c r="J68" t="s">
+        <v>494</v>
+      </c>
+      <c r="K68" t="s">
+        <v>495</v>
+      </c>
+      <c r="L68" t="s">
+        <v>496</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>497</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>498</v>
+      </c>
+      <c r="X68" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>501</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>502</v>
+      </c>
+      <c r="J69" t="s">
+        <v>503</v>
+      </c>
+      <c r="K69" t="s">
+        <v>504</v>
+      </c>
+      <c r="L69" t="s">
+        <v>505</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>497</v>
+      </c>
+      <c r="O69" t="s">
+        <v>199</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>498</v>
+      </c>
+      <c r="X69" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>507</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>508</v>
+      </c>
+      <c r="J70" t="s">
+        <v>509</v>
+      </c>
+      <c r="K70" t="s">
+        <v>510</v>
+      </c>
+      <c r="L70" t="s">
+        <v>511</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>497</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>498</v>
+      </c>
+      <c r="X70" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>513</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>514</v>
+      </c>
+      <c r="J71" t="s">
+        <v>515</v>
+      </c>
+      <c r="K71" t="s">
+        <v>516</v>
+      </c>
+      <c r="L71" t="s">
+        <v>517</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>518</v>
+      </c>
+      <c r="O71" t="s">
+        <v>77</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>519</v>
+      </c>
+      <c r="X71" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>522</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>523</v>
+      </c>
+      <c r="J72" t="s">
+        <v>524</v>
+      </c>
+      <c r="K72" t="s">
+        <v>525</v>
+      </c>
+      <c r="L72" t="s">
+        <v>526</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>527</v>
+      </c>
+      <c r="O72" t="s">
+        <v>77</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>519</v>
+      </c>
+      <c r="X72" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>529</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>530</v>
+      </c>
+      <c r="J73" t="s">
+        <v>531</v>
+      </c>
+      <c r="K73" t="s">
+        <v>532</v>
+      </c>
+      <c r="L73" t="s">
+        <v>533</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>518</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>519</v>
+      </c>
+      <c r="X73" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>535</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>536</v>
+      </c>
+      <c r="J74" t="s">
+        <v>537</v>
+      </c>
+      <c r="K74" t="s">
+        <v>538</v>
+      </c>
+      <c r="L74" t="s">
+        <v>539</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>527</v>
+      </c>
+      <c r="O74" t="s">
+        <v>77</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>540</v>
+      </c>
+      <c r="X74" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>543</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>544</v>
+      </c>
+      <c r="J75" t="s">
+        <v>537</v>
+      </c>
+      <c r="K75" t="s">
+        <v>545</v>
+      </c>
+      <c r="L75" t="s">
+        <v>546</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>540</v>
+      </c>
+      <c r="X75" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>548</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>549</v>
+      </c>
+      <c r="J76" t="s">
+        <v>550</v>
+      </c>
+      <c r="K76" t="s">
+        <v>551</v>
+      </c>
+      <c r="L76" t="s">
+        <v>552</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>527</v>
+      </c>
+      <c r="O76" t="s">
+        <v>77</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>540</v>
+      </c>
+      <c r="X76" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>554</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>555</v>
+      </c>
+      <c r="J77" t="s">
+        <v>556</v>
+      </c>
+      <c r="K77" t="s">
+        <v>557</v>
+      </c>
+      <c r="L77" t="s">
+        <v>558</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>559</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>540</v>
+      </c>
+      <c r="X77" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>561</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>562</v>
+      </c>
+      <c r="J78" t="s">
+        <v>556</v>
+      </c>
+      <c r="K78" t="s">
+        <v>563</v>
+      </c>
+      <c r="L78" t="s">
+        <v>564</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>559</v>
+      </c>
+      <c r="O78" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>540</v>
+      </c>
+      <c r="X78" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>566</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>567</v>
+      </c>
+      <c r="J79" t="s">
+        <v>556</v>
+      </c>
+      <c r="K79" t="s">
+        <v>568</v>
+      </c>
+      <c r="L79" t="s">
+        <v>569</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>559</v>
+      </c>
+      <c r="O79" t="s">
+        <v>67</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>540</v>
+      </c>
+      <c r="X79" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>571</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>572</v>
+      </c>
+      <c r="J80" t="s">
+        <v>573</v>
+      </c>
+      <c r="K80" t="s">
+        <v>574</v>
+      </c>
+      <c r="L80" t="s">
+        <v>575</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>576</v>
+      </c>
+      <c r="O80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>577</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>578</v>
+      </c>
+      <c r="J81" t="s">
+        <v>573</v>
+      </c>
+      <c r="K81" t="s">
+        <v>579</v>
+      </c>
+      <c r="L81" t="s">
+        <v>580</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>559</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>581</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>582</v>
+      </c>
+      <c r="J82" t="s">
+        <v>583</v>
+      </c>
+      <c r="K82" t="s">
+        <v>584</v>
+      </c>
+      <c r="L82" t="s">
+        <v>585</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>576</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>586</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>587</v>
+      </c>
+      <c r="J83" t="s">
+        <v>588</v>
+      </c>
+      <c r="K83" t="s">
+        <v>589</v>
+      </c>
+      <c r="L83" t="s">
+        <v>590</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>576</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>591</v>
+      </c>
+      <c r="X83" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>594</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>595</v>
+      </c>
+      <c r="J84" t="s">
+        <v>596</v>
+      </c>
+      <c r="K84" t="s">
+        <v>597</v>
+      </c>
+      <c r="L84" t="s">
+        <v>598</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>599</v>
+      </c>
+      <c r="O84" t="s">
+        <v>77</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>600</v>
+      </c>
+      <c r="X84" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>603</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>604</v>
+      </c>
+      <c r="J85" t="s">
+        <v>605</v>
+      </c>
+      <c r="K85" t="s">
+        <v>606</v>
+      </c>
+      <c r="L85" t="s">
+        <v>607</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>599</v>
+      </c>
+      <c r="O85" t="s">
+        <v>77</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>600</v>
+      </c>
+      <c r="X85" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>609</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>610</v>
+      </c>
+      <c r="J86" t="s">
+        <v>611</v>
+      </c>
+      <c r="K86" t="s">
+        <v>304</v>
+      </c>
+      <c r="L86" t="s">
+        <v>612</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>613</v>
+      </c>
+      <c r="O86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>614</v>
+      </c>
+      <c r="X86" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>617</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>618</v>
+      </c>
+      <c r="J87" t="s">
+        <v>619</v>
+      </c>
+      <c r="K87" t="s">
+        <v>620</v>
+      </c>
+      <c r="L87" t="s">
+        <v>621</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>622</v>
+      </c>
+      <c r="O87" t="s">
+        <v>77</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>623</v>
+      </c>
+      <c r="X87" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>626</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>627</v>
+      </c>
+      <c r="J88" t="s">
+        <v>628</v>
+      </c>
+      <c r="K88" t="s">
+        <v>629</v>
+      </c>
+      <c r="L88" t="s">
+        <v>630</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>631</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>632</v>
+      </c>
+      <c r="X88" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>635</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>636</v>
+      </c>
+      <c r="J89" t="s">
+        <v>637</v>
+      </c>
+      <c r="K89" t="s">
+        <v>638</v>
+      </c>
+      <c r="L89" t="s">
+        <v>639</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>640</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>2</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>632</v>
+      </c>
+      <c r="X89" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>642</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>643</v>
+      </c>
+      <c r="J90" t="s">
+        <v>644</v>
+      </c>
+      <c r="K90" t="s">
+        <v>645</v>
+      </c>
+      <c r="L90" t="s">
+        <v>646</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>647</v>
+      </c>
+      <c r="O90" t="s">
+        <v>60</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>632</v>
+      </c>
+      <c r="X90" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>649</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>650</v>
+      </c>
+      <c r="J91" t="s">
+        <v>651</v>
+      </c>
+      <c r="K91" t="s">
+        <v>652</v>
+      </c>
+      <c r="L91" t="s">
+        <v>653</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>632</v>
+      </c>
+      <c r="X91" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>655</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>656</v>
+      </c>
+      <c r="J92" t="s">
+        <v>657</v>
+      </c>
+      <c r="K92" t="s">
+        <v>658</v>
+      </c>
+      <c r="L92" t="s">
+        <v>659</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>660</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>661</v>
+      </c>
+      <c r="J93" t="s">
+        <v>662</v>
+      </c>
+      <c r="K93" t="s">
+        <v>663</v>
+      </c>
+      <c r="L93" t="s">
+        <v>664</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>665</v>
+      </c>
+      <c r="O93" t="s">
+        <v>102</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>632</v>
+      </c>
+      <c r="X93" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>667</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>668</v>
+      </c>
+      <c r="J94" t="s">
+        <v>669</v>
+      </c>
+      <c r="K94" t="s">
+        <v>670</v>
+      </c>
+      <c r="L94" t="s">
+        <v>671</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>665</v>
+      </c>
+      <c r="O94" t="s">
+        <v>77</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>673</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>674</v>
+      </c>
+      <c r="J95" t="s">
+        <v>675</v>
+      </c>
+      <c r="K95" t="s">
+        <v>676</v>
+      </c>
+      <c r="L95" t="s">
+        <v>677</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>678</v>
+      </c>
+      <c r="O95" t="s">
+        <v>67</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>679</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>680</v>
+      </c>
+      <c r="J96" t="s">
+        <v>681</v>
+      </c>
+      <c r="K96" t="s">
+        <v>682</v>
+      </c>
+      <c r="L96" t="s">
+        <v>683</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>684</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>685</v>
+      </c>
+      <c r="J97" t="s">
+        <v>686</v>
+      </c>
+      <c r="K97" t="s">
+        <v>687</v>
+      </c>
+      <c r="L97" t="s">
+        <v>688</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>689</v>
+      </c>
+      <c r="O97" t="s">
+        <v>199</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>690</v>
+      </c>
+      <c r="X97" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>693</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>694</v>
+      </c>
+      <c r="J98" t="s">
+        <v>695</v>
+      </c>
+      <c r="K98" t="s">
+        <v>696</v>
+      </c>
+      <c r="L98" t="s">
+        <v>697</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>698</v>
+      </c>
+      <c r="O98" t="s">
+        <v>77</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>699</v>
+      </c>
+      <c r="X98" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>702</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>703</v>
+      </c>
+      <c r="J99" t="s">
+        <v>704</v>
+      </c>
+      <c r="K99" t="s">
+        <v>705</v>
+      </c>
+      <c r="L99" t="s">
+        <v>706</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>707</v>
+      </c>
+      <c r="O99" t="s">
+        <v>67</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>690</v>
+      </c>
+      <c r="X99" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>709</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>710</v>
+      </c>
+      <c r="J100" t="s">
+        <v>711</v>
+      </c>
+      <c r="K100" t="s">
+        <v>712</v>
+      </c>
+      <c r="L100" t="s">
+        <v>713</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>707</v>
+      </c>
+      <c r="O100" t="s">
+        <v>67</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>690</v>
+      </c>
+      <c r="X100" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>715</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>716</v>
+      </c>
+      <c r="J101" t="s">
+        <v>717</v>
+      </c>
+      <c r="K101" t="s">
+        <v>718</v>
+      </c>
+      <c r="L101" t="s">
+        <v>719</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>720</v>
+      </c>
+      <c r="O101" t="s">
+        <v>199</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>721</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>722</v>
+      </c>
+      <c r="J102" t="s">
+        <v>723</v>
+      </c>
+      <c r="K102" t="s">
+        <v>724</v>
+      </c>
+      <c r="L102" t="s">
+        <v>725</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>726</v>
+      </c>
+      <c r="O102" t="s">
+        <v>60</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>727</v>
+      </c>
+      <c r="X102" t="s">
+        <v>728</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>730</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>731</v>
+      </c>
+      <c r="J103" t="s">
+        <v>732</v>
+      </c>
+      <c r="K103" t="s">
+        <v>733</v>
+      </c>
+      <c r="L103" t="s">
+        <v>734</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>726</v>
+      </c>
+      <c r="O103" t="s">
+        <v>60</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>727</v>
+      </c>
+      <c r="X103" t="s">
+        <v>728</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s">
+        <v>736</v>
+      </c>
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>737</v>
+      </c>
+      <c r="J104" t="s">
+        <v>738</v>
+      </c>
+      <c r="K104" t="s">
+        <v>739</v>
+      </c>
+      <c r="L104" t="s">
+        <v>740</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>741</v>
+      </c>
+      <c r="O104" t="s">
+        <v>60</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>742</v>
+      </c>
+      <c r="X104" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
+        <v>745</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>746</v>
+      </c>
+      <c r="J105" t="s">
+        <v>747</v>
+      </c>
+      <c r="K105" t="s">
+        <v>748</v>
+      </c>
+      <c r="L105" t="s">
+        <v>749</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>750</v>
+      </c>
+      <c r="O105" t="s">
+        <v>60</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>751</v>
+      </c>
+      <c r="X105" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" t="s">
+        <v>754</v>
+      </c>
+      <c r="G106" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s">
+        <v>46</v>
+      </c>
+      <c r="I106" t="s">
+        <v>755</v>
+      </c>
+      <c r="J106" t="s">
+        <v>756</v>
+      </c>
+      <c r="K106" t="s">
+        <v>757</v>
+      </c>
+      <c r="L106" t="s">
+        <v>758</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>759</v>
+      </c>
+      <c r="O106" t="s">
+        <v>199</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>727</v>
+      </c>
+      <c r="X106" t="s">
+        <v>728</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s">
+        <v>761</v>
+      </c>
+      <c r="G107" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" t="s">
+        <v>762</v>
+      </c>
+      <c r="J107" t="s">
+        <v>763</v>
+      </c>
+      <c r="K107" t="s">
+        <v>764</v>
+      </c>
+      <c r="L107" t="s">
+        <v>765</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>766</v>
+      </c>
+      <c r="O107" t="s">
+        <v>60</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>727</v>
+      </c>
+      <c r="X107" t="s">
+        <v>728</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s">
+        <v>768</v>
+      </c>
+      <c r="G108" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" t="s">
+        <v>769</v>
+      </c>
+      <c r="J108" t="s">
+        <v>770</v>
+      </c>
+      <c r="K108" t="s">
+        <v>771</v>
+      </c>
+      <c r="L108" t="s">
+        <v>772</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>727</v>
+      </c>
+      <c r="X108" t="s">
+        <v>728</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" t="s">
+        <v>774</v>
+      </c>
+      <c r="G109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I109" t="s">
+        <v>775</v>
+      </c>
+      <c r="J109" t="s">
+        <v>776</v>
+      </c>
+      <c r="K109" t="s">
+        <v>777</v>
+      </c>
+      <c r="L109" t="s">
+        <v>778</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="s">
+        <v>779</v>
+      </c>
+      <c r="O109" t="s">
+        <v>60</v>
+      </c>
+      <c r="P109" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="n">
+        <v>1</v>
+      </c>
+      <c r="S109" t="n">
+        <v>2</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" t="s">
+        <v>781</v>
+      </c>
+      <c r="G110" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" t="s">
+        <v>782</v>
+      </c>
+      <c r="J110" t="s">
+        <v>783</v>
+      </c>
+      <c r="K110" t="s">
+        <v>784</v>
+      </c>
+      <c r="L110" t="s">
+        <v>785</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>786</v>
+      </c>
+      <c r="O110" t="s">
+        <v>77</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" t="s">
+        <v>788</v>
+      </c>
+      <c r="G111" t="s">
+        <v>45</v>
+      </c>
+      <c r="H111" t="s">
+        <v>46</v>
+      </c>
+      <c r="I111" t="s">
+        <v>789</v>
+      </c>
+      <c r="J111" t="s">
+        <v>790</v>
+      </c>
+      <c r="K111" t="s">
+        <v>791</v>
+      </c>
+      <c r="L111" t="s">
+        <v>792</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" t="s">
+        <v>793</v>
+      </c>
+      <c r="O111" t="s">
+        <v>60</v>
+      </c>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="s"/>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" t="s">
+        <v>795</v>
+      </c>
+      <c r="G112" t="s">
+        <v>45</v>
+      </c>
+      <c r="H112" t="s">
+        <v>46</v>
+      </c>
+      <c r="I112" t="s">
+        <v>796</v>
+      </c>
+      <c r="J112" t="s">
+        <v>797</v>
+      </c>
+      <c r="K112" t="s">
+        <v>798</v>
+      </c>
+      <c r="L112" t="s">
+        <v>799</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>43</v>
+      </c>
+      <c r="F113" t="s">
+        <v>800</v>
+      </c>
+      <c r="G113" t="s">
+        <v>45</v>
+      </c>
+      <c r="H113" t="s">
+        <v>46</v>
+      </c>
+      <c r="I113" t="s">
+        <v>801</v>
+      </c>
+      <c r="J113" t="s">
+        <v>802</v>
+      </c>
+      <c r="K113" t="s">
+        <v>803</v>
+      </c>
+      <c r="L113" t="s">
+        <v>804</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4</v>
+      </c>
+      <c r="N113" t="s"/>
+      <c r="O113" t="s"/>
+      <c r="P113" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>3</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2</v>
+      </c>
+      <c r="S113" t="n">
+        <v>4</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" t="s">
+        <v>805</v>
+      </c>
+      <c r="G114" t="s">
+        <v>45</v>
+      </c>
+      <c r="H114" t="s">
+        <v>46</v>
+      </c>
+      <c r="I114" t="s">
+        <v>806</v>
+      </c>
+      <c r="J114" t="s">
+        <v>807</v>
+      </c>
+      <c r="K114" t="s">
+        <v>808</v>
+      </c>
+      <c r="L114" t="s">
+        <v>809</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
+        <v>810</v>
+      </c>
+      <c r="O114" t="s">
+        <v>60</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>1</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>43</v>
+      </c>
+      <c r="F115" t="s">
+        <v>811</v>
+      </c>
+      <c r="G115" t="s">
+        <v>45</v>
+      </c>
+      <c r="H115" t="s">
+        <v>46</v>
+      </c>
+      <c r="I115" t="s">
+        <v>812</v>
+      </c>
+      <c r="J115" t="s">
+        <v>813</v>
+      </c>
+      <c r="K115" t="s">
+        <v>814</v>
+      </c>
+      <c r="L115" t="s">
+        <v>815</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>816</v>
+      </c>
+      <c r="O115" t="s">
+        <v>67</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>4</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>4</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>43</v>
+      </c>
+      <c r="F116" t="s">
+        <v>818</v>
+      </c>
+      <c r="G116" t="s">
+        <v>45</v>
+      </c>
+      <c r="H116" t="s">
+        <v>46</v>
+      </c>
+      <c r="I116" t="s">
+        <v>819</v>
+      </c>
+      <c r="J116" t="s">
+        <v>820</v>
+      </c>
+      <c r="K116" t="s">
+        <v>821</v>
+      </c>
+      <c r="L116" t="s">
+        <v>822</v>
+      </c>
+      <c r="M116" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" t="s">
+        <v>823</v>
+      </c>
+      <c r="O116" t="s">
+        <v>67</v>
+      </c>
+      <c r="P116" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>3</v>
+      </c>
+      <c r="R116" t="n">
+        <v>3</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>36756</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" t="s">
+        <v>824</v>
+      </c>
+      <c r="G117" t="s">
+        <v>45</v>
+      </c>
+      <c r="H117" t="s">
+        <v>46</v>
+      </c>
+      <c r="I117" t="s">
+        <v>825</v>
+      </c>
+      <c r="J117" t="s">
+        <v>826</v>
+      </c>
+      <c r="K117" t="s">
+        <v>827</v>
+      </c>
+      <c r="L117" t="s">
+        <v>828</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2</v>
+      </c>
+      <c r="N117" t="s">
+        <v>829</v>
+      </c>
+      <c r="O117" t="s">
+        <v>67</v>
+      </c>
+      <c r="P117" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>3</v>
+      </c>
+      <c r="R117" t="n">
+        <v>3</v>
+      </c>
+      <c r="S117" t="n">
+        <v>2</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>2</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>830</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_625.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_625.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="944">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>MooseMikeNY</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>Stayed four nights; accommodations were good, rooms were comfortable and clean.  Maids were fast and efficient; Front Desk Staff was very good, addressing a simple need that I had very quickly.  The breakfast is your standard fare but it was tasty and there were several options.  Great job.   More</t>
   </si>
   <si>
+    <t>665ilav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r579946372-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>customer service was really good and attentive ! Room was huge and clean with comfortable beds with pillows. Morning complimentary breakfast was very good and hotwe love this place and will be back againMore</t>
   </si>
   <si>
+    <t>sixmac1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r578559743-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>Do not stay at this hotel! There are ripped curtains in the front of the hotel, cigarette butts and weeds in the area in front, the carpet is filthy, there was dirty toilet paper on the roll in our bathroom, there was a pair of undies or a tag on top of the curtains, a plastic bag over the smoke detector, terrible Wi-Fi, etc.  This was our first stay in a "Quality" Suites and it was our last!!!  Oh, and there was a crowded loud beer drinking rock party until 11 pm at a business next door too!More</t>
   </si>
   <si>
+    <t>abigail b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r575735284-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>Janet has been the best front desk receptionist by far. With travelling for work, i have been to many hotels and she has stood out drastically. She's extremely kind and has a heart of gold! She treats all her guests as her family which is very comforting when travelling away from home.More</t>
   </si>
   <si>
+    <t>wildvineas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r574827651-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
     <t>I had made a reservation at another area motel.  When I tried to check-in they would  not allow my 3 dogs.  I had called this other motel a week prior clearly asking to be sure my 3 dogs would be allowed.Long story short...here I was 10 hours from home...not place to stay &amp; started calling any motel in the area.  I called both LaQuinta's was told they would call me back which they never did.Called this motel &amp; Janet was so wonderful.  She was so understanding of my problem,   She called her manager &amp; he allowed us to stay.  Great room...great breakfast both days of my stay.  This motel saved my trip after my 10 hour drive.  Thanks so muchMore</t>
   </si>
   <si>
+    <t>Angela W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r567570480-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -306,6 +324,9 @@
     <t>I was last week with my family during spring break. I must say It was one of the best stay I have ever enjoyed with my family. My kinds loved indoor pool and spa. Rooms were spacious and clean. last but not least we enjoyed delicious breakfast before leave. Definitely we will be back..More</t>
   </si>
   <si>
+    <t>marilyn e</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r549974244-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -330,6 +351,9 @@
     <t>Very disappointing. 4th visit in a year.  Each time was worse. Room dirtier each time and last visit there was a dirty towel hung in the bathroom and hair in the shower. No one around at breakfast and we had to heat the,sausage &amp; eggs. Very poor breakfast. Told girl to behind desk but she either didn't care or couldn't comprehend. Will never stay there again since it has new owners. More</t>
   </si>
   <si>
+    <t>Jeeper0715</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r549732336-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -348,6 +372,9 @@
     <t>Most Disgusting hotel I have ever stayed in . I used points while traveling for the Holiday. This was the first and only time I will stay there. At check in I stood outside for several minutes because the front doors would not open. After a while I looked in a side window to the office and saw the front desk agent watching a movie. When I banged on the window and told him I could not get in he let me know both front doors were broken and you had to slide them open.  After check in we went to the room and had to bring towels and sheets several times to the front desk due to them being dirty. Not stained from use but actually dirty. I then took my son to the "heated" pool. It was clearly not heated as it was too cold to swim in and was filthy. The hot tub was warm but was a horrible yellow color. I used the pool test kit that was in the unlocked pool room and there was no chlorine in the pool at all.  Back in the room the a/c was moldy, there were bugs in the room, the fridge was dirty, 3 out of 4 of the coffee  cups were unwrapped and dirty, there was paint falling from the ceiling in the bathroom from the exhaust not working, the toilet had mildew around the rim, Mildew...Most Disgusting hotel I have ever stayed in . I used points while traveling for the Holiday. This was the first and only time I will stay there. At check in I stood outside for several minutes because the front doors would not open. After a while I looked in a side window to the office and saw the front desk agent watching a movie. When I banged on the window and told him I could not get in he let me know both front doors were broken and you had to slide them open.  After check in we went to the room and had to bring towels and sheets several times to the front desk due to them being dirty. Not stained from use but actually dirty. I then took my son to the "heated" pool. It was clearly not heated as it was too cold to swim in and was filthy. The hot tub was warm but was a horrible yellow color. I used the pool test kit that was in the unlocked pool room and there was no chlorine in the pool at all.  Back in the room the a/c was moldy, there were bugs in the room, the fridge was dirty, 3 out of 4 of the coffee  cups were unwrapped and dirty, there was paint falling from the ceiling in the bathroom from the exhaust not working, the toilet had mildew around the rim, Mildew around the soap holder and the drain stop for the shower was in the bathroom floor broken when we checked in. After several attempts to get clean sheets I purchased two queen sets so we could use the beds. In the morning we went to the lobby to get breakfast. It would have been nice if there was actually food there. We sat for 15 minutes to see if staff would come and put out more food but no one came. The fridge only had packets of butter and the eggs were all gone. We were literally the only people in the breakfast area or lobby. Guess the staff was too busy watching movies in the back. On the way out there were two gentlemen in leather jackets behind the front desk. I assumed they worked there as they were behind the front desk. None of the staff members were dressed in uniforms or anything that would identify them as staff. They all looked like they just rolled out of bed and put on clothes that were laying in the floor. When I explained the issues to the guys in the leather jackets at the front desk it was obvious they just didn't care.  It was also obvious that the condition of this hotel is acceptable to them. After check out I contacted choice hotels to be reimbursed reward points since I stayed on a free night I had earned from my frequent travels. Choice hotels contacted the hotel to see if they would refund the points but the hotel declined and said the hotel should be acceptable in this condition. From speaking to another guest I was told that the hotel was a Comfort but had changed to a quality. He said that when it changed to a Quality inn it almost immediately became dirtier and dirtier and he would no longer use that hotel. It is really sad that the owner find this acceptable. Let this be a warning to anyone looking to book here. It is filthy and the staff doesn't car.More</t>
   </si>
   <si>
+    <t>vaghani p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r547415642-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -366,6 +393,9 @@
     <t>Bed was so comfortable. Breakfast had very good meals. Staff were helpful and friendly. Cheapest rate and worth to stay there. Everything was awesome. I would definitely go there again and suggest to all to go there and take experience!!More</t>
   </si>
   <si>
+    <t>Rosalind B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r539983713-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -393,6 +423,9 @@
     <t>People at the front desk is amazing. but the maid service is not so good. They put the bath towel that's on the floor back on the side of the tub, claim that they couldn't make the bed cause something was on it. No toilet paper, no face towels in the room. More</t>
   </si>
   <si>
+    <t>Dr Tim T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r537722218-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -420,6 +453,9 @@
     <t>We arrived and were greeted by a friendly staff member!!  We arrived a little early but was accommodated by our requested ground floor room!!Room was clean but bathroom fixtures including shower was needing replaced!!  Shower sprayed everywhere but down!!TV didn’t work but was fixed by maintenance!!  He told us the setting had been changed by the previous guests??????Turned on heat because temperature was in 30’s  — terrible smell — filter needed cleaned!!Breakfast was mediocre — we chose not to eat there the second morning!!  When leaving at 5:50 am — was told coffee wouldn’t be available until 6.  I have not ever stayed at a Choice Property that didn’t have coffee available around the clock!!Waffle machine always a hit.Staff member that checked us out was having difficulty with the process!! Seemed angry about something!!More</t>
   </si>
   <si>
+    <t>scalemaster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r531498943-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -438,6 +474,9 @@
     <t>I wasn't sure whether to book a room here or not based on reviews, but did. Doesn't look bad from the outside, nor in the lobby when you walk in. I had requested ground floor but was told there wasn't a room available, no big deal since the elevator works. Front desk told me he was putting me on the third floor and that the rooms are a bit nicer since they don't get used as much. Room seems nice, bed comfortable with decent pillows and good carpet. I don't know if the carpet on the ground floor is wore out of the way it is made, makes it look that way. I walked past the breakfast area when I was returning the luggage cart. They serve a hot breakfast here. This is at 2pm, I noticed that the cover was open on the steam table. There were scrambled eggs and sausage still in it. I would like to think it will be tossed, but think I will stay with cereal in the morning. Also noticed that bread and muffins were still out in their serving container, in bulk, and not individually wrapped. I don't know that this Inn is necessarily up to Choice Hotel standards, and not sure I would stay again due to what I saw in the dining area.More</t>
   </si>
   <si>
+    <t>azroxx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r523140860-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -465,6 +504,9 @@
     <t>I stayed here 2 separate times over 2 weeks and I will look elsewhere next time I am in town for business.The first stay, my room on the first floor had no electricity on the outlet side of the room.No TV, ref, lamps, outlets. I used the outlet in the far corner to charge my phone. The bathroom had several patches on the walls and ceiling, same with the room.My second stay was on 3rd floor, better condition but still not what I would expect for paying 80.00 a night!!!!The elevator (Otis) needs calibrating, it was a jerky, noisy, clunky mess. The elevator is one of my phobias and this one sets my teeth on edge every time I had to use it. The breakfast buffet was run by 2 ladies, I thought the food was barely adequate, the ladies did not ever find OJ as I requested, so I just grabbed some poor quality scrambled eggs, puffy fake sausage links. For 80 bux, I think someone is cutting corners on food and service and hotel upkeep.More</t>
   </si>
   <si>
+    <t>Mary-Lou S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r517694319-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -489,6 +531,9 @@
     <t>The hotel is conveniently located right off 35. The rooms were quiet but the hotel Is in need of a major facelift. We found a live cricket in our bedroom on the second floor. They allow pets and it smells like it. Not impressed. More</t>
   </si>
   <si>
+    <t>Stump16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r516658988-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -510,6 +555,9 @@
     <t>Perry at Quality Suites in Burleson took great care of us, we felt bad that we didnt know exactly how long our stay would take, Perry was so understanding each day that we had to extend and program our keys. Perry even really went the extra mile one morning at 10 minutes before 9 am and fixed me some eggs even though breakfast was pretty much over. We will be back to stay again instead of looking for other hotels in the area.More</t>
   </si>
   <si>
+    <t>runnells7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r496241462-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -537,6 +585,9 @@
     <t>Very clean and inviting room.  The staff was very pleasant and service was good.  We will definitely be back when we are this way again. We had a good experience from start to finish.  From booking online, to check-in, to great room, to check-out.More</t>
   </si>
   <si>
+    <t>888yancyp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r496152024-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -552,6 +603,9 @@
     <t>We made an unexpected trip to Cleburne, TX that turned in to and unexpected stay at the Quality Suites.  We made reservations via Trip Advisor.  As soon as I received our confirmation email we headed on over, which was about a 8-12 min drive from the restaurant were we had dinner.  Upon our arrival we headed to the front desk, give the clerk our confirmation number and verification of id, only for him to say that we don't have reservations.  I looked at the email, double, triple and quadruple checked our information and says "I'm sorry, but we don't have your reservation.  Then I ask well, can we just get a room, with a deer in headlights look, he says, I don't know.  WTH... You don't know.  At this point my husband and I are very upset.  It was a full blown thunderstorm taking place and all of a sudden we see water pouring down the wall in the lobby of the hotel. GEESH Louise, really... There's no way we could leave because of the weather, so we are stuck and at the mercy of this incompetent clerk.  Anyway, the clerk then tells me you need to call trip advisor, I told him, "you are kidding, right?"  I then asked why would I need to call them and it clearly states in the email, if any questions with this reservations contact Quality Suites with your hotel's phone number listed. Clerk,...We made an unexpected trip to Cleburne, TX that turned in to and unexpected stay at the Quality Suites.  We made reservations via Trip Advisor.  As soon as I received our confirmation email we headed on over, which was about a 8-12 min drive from the restaurant were we had dinner.  Upon our arrival we headed to the front desk, give the clerk our confirmation number and verification of id, only for him to say that we don't have reservations.  I looked at the email, double, triple and quadruple checked our information and says "I'm sorry, but we don't have your reservation.  Then I ask well, can we just get a room, with a deer in headlights look, he says, I don't know.  WTH... You don't know.  At this point my husband and I are very upset.  It was a full blown thunderstorm taking place and all of a sudden we see water pouring down the wall in the lobby of the hotel. GEESH Louise, really... There's no way we could leave because of the weather, so we are stuck and at the mercy of this incompetent clerk.  Anyway, the clerk then tells me you need to call trip advisor, I told him, "you are kidding, right?"  I then asked why would I need to call them and it clearly states in the email, if any questions with this reservations contact Quality Suites with your hotel's phone number listed. Clerk, "ma'am I don't know,  but all I can tell you is to call trip advisor".  We are waiting, waiting, waiting... then he tells me "oh your confirmation is validated sorry for the inconvenience".More</t>
   </si>
   <si>
+    <t>LouisianaChristian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r494917500-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -576,6 +630,9 @@
     <t>Upon arrival, bathroom smelled like smoke.  Smell eventually went away.  Tub had rust in the botton and bath mat was glued down but one end was peeling off.  It is as if they were trying to cover up rust.  Shower curtain had mildew on it. Both bed comforters had stains. Couch outdated and had a hole in it. Mattress of couch was severely stained.  Upon returning to hotel after dinner and shopping at 10:30 pm, bathroom smelled like someone was smoking week in it.  Filled the whole room.  Went to complain, but there was a long line and it was taking forever.  Finally shut the bathroom door to help keep smell out of room.  Got up the next day, the iron didn't work! Ugh! I like ironed clothes.  Breakfast was minimal.  Front desk lady had to cook it, so she was back and forth frantically.  Not good for families with small children.  People walking up and down hall with beer in their hand. Will never stay here.  Best Western next door is nice.  Stayed there once and will stay there next time in town.More</t>
   </si>
   <si>
+    <t>Bhautik04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r492288780-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -600,6 +657,9 @@
     <t>I usually stay here at Quality suits twice a month for a business purpose and I will keep staying here coz I feel satisfied being here and decent location, facility and of course great breakfast with decent staff here. They treat me well so I enjoy my stay here than going to other unknown place. Thank you JD and Sam for great service.More</t>
   </si>
   <si>
+    <t>Aaron G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r490227284-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -627,6 +687,9 @@
     <t>Was a great place.  JD at the front desk was very cordial, polite, friendly, and hospitable.  He went out of his way to make sure we were taken care of.  Room was spacious, lobby clean and nice indoor swimming pool.  JD is awesome everywhere I turned JD was there.  From providing towels for pool to prepping for breakfast. His commitment to service is amazing.  If Quality hotel employees are all like JD, this is a brand I will visit again.  Also breakfast was great.More</t>
   </si>
   <si>
+    <t>Jessica H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r489582636-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -654,6 +717,9 @@
     <t>We couldn't have picked a better place to be. We sold our home 12 hrs after putting it on the market. It all happened so fast we hadn't​ had time to find a new home. We checked in to quality suites in burleson tx and felt like home from day one. Everyone is AMAZING here. My kids love it. They always make sure you are comfortable and have everything you need. I love how they pull together and help all around. The counter staff is not afraid of helping the house keepers when the hotel is so full of families. Im so glad we stopped in and are able to call this place home til we find our own home. We have been here for almost 20 days and it's been an awesome experience. I don't know what we will do when we find a home and lose our keys.. we won't be able to go ask for new ones  lol they laugh with us when we lose the keys or leave them in the room or when I still place it by my phone and it deactivates the key Thank you Quality suites. You have become part of our family  We  Y'allThe Hurd FamilyMore</t>
   </si>
   <si>
+    <t>Bill A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r430402571-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -675,6 +741,9 @@
     <t>The Quality Suites have a nice but small living area to go along with the comfortable bed.  Rooms are clean but not many amenities.  Bathrooms are small and the shower had plenty of hot water.  This is a good place with no frills.More</t>
   </si>
   <si>
+    <t>TriciaA97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r423972472-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -696,6 +765,9 @@
     <t>I have stayed in many hotels through the years, but none can compare to the hospitality at this hotel.  As soon as you walk in the door you feel like your at home.  Levita at the front desk made our stay great.  We go to Burleson every August, and after this past trip, with the hospitality of Levita, we will be staying at the same place again. No more hotel searching.More</t>
   </si>
   <si>
+    <t>seas0nedtraveler16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r405726372-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -720,6 +792,9 @@
     <t>I don't think I can recall a time where I felt so welcomed at a hotel. From the time I walked in to check-in, until I walked out after checking out, I was certain the front desk personnel made me feel like they appreciated my business. I arrived several hours early before checkin time. I was checking in for 4 rooms, and not one time did Rachel mention that I was there before checkin time. She got my rooms checked in and explained everything throughly and happily completed the checkin process. My last morning during my stay, I had the pleasure of being serviced be Levita, who was not only running the breakfast room, but also the front desk. She went out of her way to provide us with a request we had during breakfast, and at checkout, she made the process seamless. I cannot say enough what good hospitality means today. I can deal with a lot things, but unpleasant staff that doesn't make me feel appreciated is not one of them. I was a little upset that the exercise room was closed. I liked the spacious rooms and the queen size beds were one of the reasons I chose this hotel. One of the phones in the room wasn't working, but after advising Levita, she said they would get that taken care of asap. The location was spot on for the 2 events I attended while we were...I don't think I can recall a time where I felt so welcomed at a hotel. From the time I walked in to check-in, until I walked out after checking out, I was certain the front desk personnel made me feel like they appreciated my business. I arrived several hours early before checkin time. I was checking in for 4 rooms, and not one time did Rachel mention that I was there before checkin time. She got my rooms checked in and explained everything throughly and happily completed the checkin process. My last morning during my stay, I had the pleasure of being serviced be Levita, who was not only running the breakfast room, but also the front desk. She went out of her way to provide us with a request we had during breakfast, and at checkout, she made the process seamless. I cannot say enough what good hospitality means today. I can deal with a lot things, but unpleasant staff that doesn't make me feel appreciated is not one of them. I was a little upset that the exercise room was closed. I liked the spacious rooms and the queen size beds were one of the reasons I chose this hotel. One of the phones in the room wasn't working, but after advising Levita, she said they would get that taken care of asap. The location was spot on for the 2 events I attended while we were there. Whenever I'm back in the area, I'd definitely rebook at this location.More</t>
   </si>
   <si>
+    <t>tlou71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r397568637-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -747,6 +822,9 @@
     <t>My daughter and I stayed there for one night while in town for a funeral.  We were so emotional drained all we wanted was a comfortable space and stay. Upon checking in it was fair. The clerk was less than enthused. The room was warm and a/c wouldn't go any lower.  The bath needs to be redone.  The bath tub had some sort of bath mat inside. So it was gunky and completely unsanitary.  Needless to say we weren't able to have a warm bath as you couldn't sit in the tub it was nasty.  My daughter didn't even want to shower.  When we returned from dinner and visitation we both needed a hot run soak.  It was 10 after 10 pm on a Sunday and the pool was closed.  So disappointed.  Breakfast the next morning was very poor.  The eggs were cold and rubber like.  Bacon cold and soggy.  I'm a choice privilege member so I have to say I was very disappointed.  I've stayed at many locations.  I requested a late check out while waiting to go to the funeral.  That was OK and hassle free.  I was shocked to see upon check out the hotel name changed to Quality Inn. So weird. The hotel definitely needs an overhaul.  Nasty bathroom.  Gross breakfast. Couldn't use pool area. Again I'm a choice member and was very disappointed considering this was a comfort suites at booking. More</t>
   </si>
   <si>
+    <t>Charles B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r395792138-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -765,6 +843,9 @@
     <t>We stayed here for one night and this hotel was ok. There was still food in the mini fridge from the previous occupant, also the workout room was closed for no reason. The breakfast was decent but no fruit. Overall, ok place to stay. More</t>
   </si>
   <si>
+    <t>mr j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r382579310-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -786,6 +867,9 @@
     <t>I paid with cash and the hit my card not once but twice(once was done by auditor-:(). I had to close my card and go to the bank and get a new one. Spent countless hours on the phone with the bank,hotel, and Choice corporate. The general manager lied and said he would credit back my account including the cash for the experience this didn't happen. The a/c didn't work neither did the phone I had to ask for the maids to clean the room. Customer service was terrible. Plus roaches everywhere!More</t>
   </si>
   <si>
+    <t>Brenda G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r369985296-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -807,6 +891,9 @@
     <t>The staff was very nice and cordial. The only things that I was not too happy about was that there was a whitish stain on one of the cushions of the sofa in the suite part and when the toilet was flushed, it was loud enough to scare the average person, not to mention it lasted so long; almost continuous. Other than those couple things, all was good.More</t>
   </si>
   <si>
+    <t>Denial G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r368200914-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -825,6 +912,9 @@
     <t>Excellent hotel of this class...newly renovated property and kept extremely clean. Front desk staff is very friendly and welcoming. Breakfast area is spacious and one of the best I have experienced. Fresh fruit (apples, and bananas)in addition to all the other items. This stay was during a event in town. Parking facility was well maintained. I actually stayed here for 4 nights and it was one of the best experience I had. The rooms were very nice and spacious with microwave and refreshing fragrance. I'll be back to this place and highly recommend to others!More</t>
   </si>
   <si>
+    <t>KenHon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r368131713-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -840,6 +930,9 @@
     <t>Stay here spring and fall travelling from Canada to south Texas l. Never been disappointed. Staff is  helpful. Breakfast is very good. excellent access to Interstate. Lots of eating establishments in the immediate area. All in all, good value for your dollar.More</t>
   </si>
   <si>
+    <t>Stephanie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r357437237-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -861,6 +954,9 @@
     <t>Nice rooms with a good standard, and perfect if you bring your pet. Nice breakfast, fast wi-fi and cable tv.Only bad thing to say, is that the place is kind of noisy (thin walls), and the bathroom could use some maintenance. It is clean though.The service is good, from both receptionist and House keeping.We asked if we could keep the room till 2pm on our Day of departue, because of a late flight (normally check out is 11am) and it was not a problem - nor did they charge us for it.I would defintely go again, especially if i had my dog with me.More</t>
   </si>
   <si>
+    <t>Vickie  C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r357388280-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -876,6 +972,9 @@
     <t>The walls in the rooms must be pretty thin because I could hear the people need to me talking. The bed was too hard and uncomfortable that it caused me to wake up each morning with a backache. The sofa in the room was hard and uncomfortable as well. Couldn't get Internet access in my room at all. Cut my stay short by two days because of all the problems I encountered. Will not stay at this hotel ever again!More</t>
   </si>
   <si>
+    <t>OJGood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r354646697-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -894,6 +993,9 @@
     <t>Car problems in south Texas made for a long and stressful drive for me as I was heading to Oklahoma.  When it started to get dark I looked for the closest Comfort Suites and found the Burleson location.  They were accommodating and friendly even gave me directions to the restaurant I was looking for after I checked in. This Comfort Suites stay was a bright spot in a tough day and I appreciated their hospitality.More</t>
   </si>
   <si>
+    <t>michellec222016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r345140199-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -921,6 +1023,9 @@
     <t>The staff was great willing to answer any question very professinal . The hotel and rooms very clean and the kids enjoyed the pool .The breakfast was very good enjoyed the omelets . We will diffenly be back when my son has another gymnastic meet up in the Fort Worth areaMore</t>
   </si>
   <si>
+    <t>Steve H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r339598050-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -939,6 +1044,9 @@
     <t>after 5 nights, the room was large and clean. they have all the standard amenities, like frig and microwave. the bed I did find to be on the firm side.  I did like their breakfast 4 mornings that had omelets and bacon. the waffle maker is in the shape of TX.  The staff was friendly and helpful.I did not care for the hotel being on a one way street.More</t>
   </si>
   <si>
+    <t>Shawn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r336394133-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -966,6 +1074,9 @@
     <t>Keep in mind that you're in Burleson not Beverly Hills.  Other than that, this hotel is clean,  comfortable, and definitely affordable. The rooms are huge, the beds are comfortable and the breakfast is included... other than that what can you ask for?!Across the parking lot is an amazing Mexican restaurant that has great margaritas. Its a pity their hours are quite limited in the evenings. We typically stay at this hotel or the other one on the same property.  Neither one are better than the other and amenities are nearly identical. We choose one or the other based on price. Check online for good pricing deals.More</t>
   </si>
   <si>
+    <t>harleytxone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r330313625-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1095,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Siobhan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r325975076-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1113,9 @@
     <t>My daughter and I went to the wine festival last weekend and stayed here. Your housekeeping staff is amazing- the room was spotless. Beds were comfortable, sheets very soft. Lobby was inviting and your front desk staff really nice. Thank you for such a lovely stay!</t>
   </si>
   <si>
+    <t>A8598AOjamesd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r322608225-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1134,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Brenna W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r312635475-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1164,9 @@
     <t>I stayed here one night and was happy to find a non smoking suite was available with no reservation. The price was reasonable for the room size and accommodations. The room was clean and it was a quiet hotel. I liked the different pillow options and that the towels were large and plentiful. My only complaint was breakfast was a little scarce, not too many options out and the dining area was very crowded. More</t>
   </si>
   <si>
+    <t>Dave M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r311157021-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1191,9 @@
     <t>Clean room, great breakfest, good sites to see, Julie and Levita very friendly, and helpful. Great rates, lots to do in town. Easy to get to very clean, nice people to deal with. Will stay there again when in town.More</t>
   </si>
   <si>
+    <t>William B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r310344076-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1089,6 +1215,9 @@
     <t>The hotel is very nice, and well furnished.  The whole staff was very friendly and nice.  I got a room with a spa, and I was a little disappointed with it, maybe it was just me.  The room was great, and it was very quite.  Easy to get to, right off I35W.More</t>
   </si>
   <si>
+    <t>Datboi80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r307640128-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1104,6 +1233,9 @@
     <t>You can tell the people at this job #LOVE they job,.. from the time i walked in Julie &amp; Levita was beyond helpful with my business stay as was helpful with giving me great recommendations on where to go around the area. You can tell they love they city, and the people that visit they city,... I will definitely will continue to stay in comfort suites whenever I have business around the area....</t>
   </si>
   <si>
+    <t>Jason A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r306729295-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1251,9 @@
     <t>Got what I expected - no surprises!  Easy to find, plenty of parking, friendly staff, FREE breakfast, FREE Wi-Fi, comfy bed, nice flat-panel television and it was quiet.The staff even went out of their way to tell me about good, nearby restaurants.  That's what I call service!!!</t>
   </si>
   <si>
+    <t>Nancy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r303046157-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1269,9 @@
     <t>The hotel staff was very nice, the rooms were clean, beds very comfortable, nicely decorated with mini fridge. Coffee maker very small and the Television did not have any channels you could only order movies. That is the only reason I did not give it 5 stars.</t>
   </si>
   <si>
+    <t>Victoria P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r297874006-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1290,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>laurie p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r296023891-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1167,6 +1308,9 @@
     <t>We enjoyed our stay. We stayed here for a youth baseball tournament. Kids enjoyed the pool and breakfast was great.Staff was friendly and rooms were clean! Air was cold and beds were comfortable! I would definitely come back if we were playing in this area again! I highly recommend this place!!</t>
   </si>
   <si>
+    <t>Robert V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r295321364-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1182,6 +1326,9 @@
     <t>Need to have cleaning staff to maybe open there eyes when cleaning, there was dog poop left on the floor??? When I was leaving to the Course, door would not lock? That went on for a couple of days? They would change lock it would work, come back it would not work??   Took a very long time for water to get hot in shower, don't be in a hurry!!!</t>
   </si>
   <si>
+    <t>bus1d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r293012455-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1344,9 @@
     <t>Room was comfortable. No smoking room so that was a plus since there were no cigarette smells. The staff were so nice. Loved the shower but had to run water for awhile so it would get hot. Breakfast was good. Would gladly stay here again.</t>
   </si>
   <si>
+    <t>SingCincy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r292202165-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1362,9 @@
     <t>Great place to stay. Awesome room. Great breakfast. Great staff. Only problem, elevator was broken and hot tub had no water. I would stay there again and look forward to returning to a repaired property.</t>
   </si>
   <si>
+    <t>Jessica A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r290154165-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1230,6 +1383,9 @@
     <t>We stayed at this hotel June 30-July 5th for a track meet.  The floors in our. Room were dirty, after showering and olacing a towel.i. the floor the get the water up the towel was black.  The light in the bathroom kept.flickering even though it was turned off all.night long.  The biggest disappointment was when we took our son to the pool to rest his legs jn the hot tub on July 4th, when we thought most other guests would be out enjoying fireworks, to have the pool filled with 15-20 family members and their kids of a employee.  The pool area was so loud and crowded we could not get jn the hot tub or enjoy the pool.without getting our 1 year old splashed around.More</t>
   </si>
   <si>
+    <t>Amy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r282881928-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1248,6 +1404,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Angela L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r282375411-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1266,6 +1425,9 @@
     <t>I am staying here for a week while husband does some training and after 3 days, can say this place is really awesome.  Came in on a Saturday night and staff (Danira, sp?) was very helpful getting us settled in.  We like cold rooms and ours is perfect.  Breakfast available, pool/hot tub, morning paper, room fridge/microwave, ....everything we could need is available.  Staff knows where the nearest ANYTHING is and actually take the time to visit/small talk when they aren't busy working.  Rooms, lobby, lobby bathroom, dining area are all very clean.  Have to come back in a few months for additional training and will be staying here. Note: The only place to eat within walking distance is a Tex-Mex style restuarant called Miranda's, and it's closed on Mondays.  Highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>jamrat0719</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r282246407-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1281,6 +1443,9 @@
     <t>My two daughters and I aged 18 and 21 stayed at this hotel in order to attend my sister's wedding. We really enjoyed the hotel, the indoor swimming pool, and the fact that they allow pets. The room was very clean and well kept. The free breakfast was also very good: waffles, eggs, bacon along with various cereals, muffins, and danishes! We would  definately stay here again!</t>
   </si>
   <si>
+    <t>John E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r279708303-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1296,6 +1461,9 @@
     <t>I have never had a more pleasurable stay at any hotel other than Comfort Suites than the one in Burleson, TX. Miss Levita went out of her way to help us find places we needed to be without second thought and help us with our stay to make us want to come back and hopefully we shall and we sincerely hope she will be still there when and if we do decide to in the near future.</t>
   </si>
   <si>
+    <t>Nedchem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r278761974-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1311,6 +1479,9 @@
     <t>Stayed 4 nights for a family wedding with my wife and daughter.  The room was clean, spacious and comfortable.  The staff were all very helpful and friendly.  The hot breakfasts were delicious.  Highly recommend.</t>
   </si>
   <si>
+    <t>Michael P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r278708891-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1323,6 +1494,9 @@
     <t>I was very disappointed with this hotel.  You can tell it's an older hotel but even with the age, there were problems that should have been addressed.  The room has bugs in it. The bed was uncomfortable and the AC unit was very loud and couldn't hold a set temperature.</t>
   </si>
   <si>
+    <t>juliusz2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r273296964-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1350,6 +1524,9 @@
     <t>Front desk was very helpful, the lady in the dinning area made sure we had everything we needed. As soon as we entered the hotel lobby, the smell of clean freshness hit your nose! Would definitely stay again, the price was more than great for the cleanness of this place.More</t>
   </si>
   <si>
+    <t>RWinLA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r273233269-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1368,6 +1545,9 @@
     <t>I have been a little disappointed by the Comfort brand lately but was totally surprised with my two day stay here. The accommodations are roomy, comfortable and well-kept. There isn't much public space but I found myself happy with my room.More</t>
   </si>
   <si>
+    <t>KTH208</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r273205868-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1383,6 +1563,9 @@
     <t>I arrived late, after midnight, and left at 11am.  The female that worked at checkout on Mother's Day was a very positive person and was extremely easy to talk to.  I thoroughly enjoyed having a conversation with her and sharing stories.More</t>
   </si>
   <si>
+    <t>bhag86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r271456628-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1401,6 +1584,9 @@
     <t>We came all the way from Australia to visit a friend, we stayed 2 nights the room was very nice! And the help from the front desk was outstanding! Thanks Levita For all your help! we definitely would recommend the Burleson comfort suites to anyone.More</t>
   </si>
   <si>
+    <t>Monica M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r269820670-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1419,6 +1605,9 @@
     <t>We received excellent check in service from the clerk, Levita, and the breakfast staff. The hotel was exceptionally clean. I'm usually a little uncomfortable in hotels because of cleanliness issues, but this hotel looked, smelled, and felt clean from the linens to the tub. It's a little dated and could use minor repairs (broken tile and slow tub drain). There isn't much in the surrounding area but it was a perfect spot off the highway on the way to Ft Worth. Breakfast was limited but good. We were just there for a quick overnight but we would stay again.More</t>
   </si>
   <si>
+    <t>Mobea A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r268416760-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1437,6 +1626,9 @@
     <t>The best guest service I ever received in my entire life. I am an ex-US Marine and have traveled the entire world. The service provided by Ms. Levita cannot be compared to any one I have come across in my career for over 39 years. I know great service when I experienced one.I will tell the world about you!As a Marine, I will recommend the place to marines and be Semper fi.More</t>
   </si>
   <si>
+    <t>Lak34243</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r266710350-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1461,6 +1653,9 @@
     <t>Everything was perfect.  Staff pleasant, room clean and quiet, lovely breakfast. I was traveling from out of state for a wedding and found this the perfect place to stay. I didn't utilize the workout area or pool, so I can't speak about them...More</t>
   </si>
   <si>
+    <t>texasro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r266590444-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1476,6 +1671,9 @@
     <t>The room was very spacious and comfortable along with the friendly front desk clerk,I have to say this although the stay the breakfast was Excellent.The Front desk guy had the hotel under due to heavy severe weather.He was very concerned about our safety. So kudos to the front desk guy great job!More</t>
   </si>
   <si>
+    <t>Tempaussie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r264462487-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1494,6 +1692,9 @@
     <t>It is a joy to experience a lodging place that exceeds your expectations.  This particular Comfort Suite is spotless, friendly and provides excellent amenities.  Good breakfast, fast internet and everything is clean, clean, clean.  Would heartily recommend to others who travel through the Dallas/Ft. Worth area.More</t>
   </si>
   <si>
+    <t>PaulaJane_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r261321269-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1521,6 +1722,9 @@
     <t>Stayed there on Sunday March 15 on our way to San Antonio. The beds were comfortable the staff was very friendly and the hotel was very clean. The breakfast that was served the next morning was outstanding. On the way home from San Antonio we stayed there again due to a thunderstorm and enjoyed being greeted with a smile and the staff chatted with us in the hotel lobby.More</t>
   </si>
   <si>
+    <t>fabiola g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r261158051-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1539,6 +1743,9 @@
     <t>The hotel room was great more than I expected. Hotel services was awesome. The staff was more than willing to assist in whatever we needed. The indoor pool was a plus. The complimentary breakfast was actually good. Plenty of staff making sure that the food bar had plenty of food. More</t>
   </si>
   <si>
+    <t>Moises O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r260179160-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1555,6 +1762,9 @@
   </si>
   <si>
     <t>Despite of its appearance and seclusion, all that is overshadowed by Denira's leadership and customer service. She went far and beyond to meet my family's needs during our stay. The cleaning staff was courteous and helpful as well. At one time, an annoying and unreasonable client complained about unrealistic needs, and we witnessed her in action putting all of her efforts to meet their expectations. She deserves a praise. Thanks again.More</t>
+  </si>
+  <si>
+    <t>FrugalMomOf4</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r256779758-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
@@ -1609,6 +1819,9 @@
     <t>Comfort Suites was a very nice place, Julie, Danira, and Levita are all very helpful, and super nice people. Will stay there again. They have a great breakfest, pool, work out room. You can do your laundry too.More</t>
   </si>
   <si>
+    <t>Jonathan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r255490881-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1627,6 +1840,9 @@
     <t>This was a wonderful place to stay for our family. We got the jacuzzi suite, and it was clean and very comfortable. Our five year old and us loved the jacuzzi as our own personal hot tub. The partial wall divider made a great division for the "boys room" and the parents' room. The breakfast area was nice and the breakfast was a good start for the morning. If we ever have to stay in Burleson again, we will definitely consider Comfort Suites!More</t>
   </si>
   <si>
+    <t>Ricky C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r252146191-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1651,6 +1867,9 @@
     <t>Checked in quickly. Was accommodated by staff. Very comfortable. All rooms were clean and neat. The breakfast was worth the stay. All breakfast items werefresh and the quality was terrific. None of those powdered eggs. :-)More</t>
   </si>
   <si>
+    <t>Ksem23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r252129602-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1666,6 +1885,9 @@
     <t>Even with 3 whole basketball teams in the building the hotel was very quite. Hot tub was excellent. Indoor pool is nice. Will return. Will recommend to anyone needing to stay in ft.worth /burleson area.   More</t>
   </si>
   <si>
+    <t>True C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r250809243-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1684,6 +1906,9 @@
     <t>Rooms are very clean and comfortable, very close to lots a good restaurants and fun things to do in the area. We enjoyed the free hot breakfast, the staff is very friendly and we enjoyed the pool and hot tub!More</t>
   </si>
   <si>
+    <t>juana g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r246453999-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1705,6 +1930,9 @@
     <t>The female staff member went above and beyond on her customer service skills on the evening of Dec. 26, 2014. My room was clean and comfortable. The breakfast was hot and plenty- my kids enjoyed the variety of choices (different each day of our stay).More</t>
   </si>
   <si>
+    <t>Phyllis D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r246417686-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1735,6 +1963,9 @@
     <t>Stopped here on our way from Minnesota to Corpus Christi for the winter.  Lovely property, very friendly and helpful service people.  Good breakfast.  Property is very well maintained.  My wife and I would recommend this hotel to our best friends.More</t>
   </si>
   <si>
+    <t>DOD333</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r243584751-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1753,6 +1984,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>beicker1984</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r243519479-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1765,6 +1999,9 @@
     <t>My family and I stayed at comfort Suites 12/7/2014. We were able to meet the night shift employee Levita. I must say from management expierence that comfort suites has a rock star for a employee. She was the most helpful front desk employee and very sweet. Took excellent care of my family and I with any questions or concerns we had during our stay. I can honestly say that this employee goes ABOVE &amp; BEYOND her job duties! YOU ROCK LEVITA!!!</t>
   </si>
   <si>
+    <t>cwmcbrayer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r242092749-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1780,6 +2017,9 @@
     <t>We got into DFW late and didn't want to drive all the way to San Antonio. Saw the sign for Comfort Suites and pulled in. Got a good rate - made better with a AAA card - and an excellent quiet room, with a good breakfast the next morning.</t>
   </si>
   <si>
+    <t>Geary M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r239577407-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1804,6 +2044,9 @@
     <t>Front desk very helpful. Breakfast was average. Get room on back of building. Front side very noisy traffic. Building needs some maintenance. On the low end of what you would expect for a Comfort Suites.More</t>
   </si>
   <si>
+    <t>Bob A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r235341424-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1831,6 +2074,9 @@
     <t>Good hotel for the price. Plenty of room for work in the king suite. Very quiet with interstate frontage. Internal noise tolerable. Friendly staff. Arrived late but was taken care of promptly. Did not have breakfast there so I can not comment on that.More</t>
   </si>
   <si>
+    <t>Tbpinson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r233510787-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1849,6 +2095,9 @@
     <t>Good 3-star hotel for excellent price. Plenty of room for work in the king suite. Very quiet with interstate frontage. Internal noise tolerable. Good fitness equipment. Pool a bit small. Very friendly staff. Very good Mexican restaurant right next door.More</t>
   </si>
   <si>
+    <t>RachelL452</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r229277591-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1873,6 +2122,9 @@
     <t>Front desk was very helpful with my issues with my rewards program.  Very nice.  Easy check-in.    Room was clean.  A/C worked great.  Very comfortable rooms and we all slept great!  Breakfast was pretty standard but the lady working in there was very nice.More</t>
   </si>
   <si>
+    <t>RoyDon1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r225748660-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1900,6 +2152,9 @@
     <t>Front desk was very friendly. Room was clean and smelled fresh. A/C was cold. Good nights sleep in a comfortable king bed. Best lighting in bath area I have seen in a while. Breakfast was good and service was great even though they had a lot of guests.More</t>
   </si>
   <si>
+    <t>Christy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r218320397-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1927,6 +2182,9 @@
     <t>We stayed here with our family. We were in town for a family reunion. Honestly we were skeptical on this hotel when we booked. We chose this hotel because our whole group chose this hotel considering we wanted to be close to family and friends. Rooms were better than I expected, clean, beds were comfortable. The staff was always smiling! Breakfast attendant was very friendly. We will be returning to this hotel next year for our next family reunion in Burleson.More</t>
   </si>
   <si>
+    <t>Connie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r209636535-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1948,6 +2206,9 @@
     <t>This property is old and in need of updating.  The biggest problem I had with my room was the bathtub.  A non-slip mat was used to replace the existing one and the adhesive did not adhere to the tub.  When taking a shower the mat floated around my feet because the tub didn't drain properly.  Under the mat were particles of dirt, hair etc.  There was no possible way the staff could have adequately cleaned that tub.  The staff was nice enough and bed comfortable but just couldn't get past the gross tub.More</t>
   </si>
   <si>
+    <t>Niki H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r207362599-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1969,6 +2230,9 @@
     <t>Overall it was a great stay &amp; value as most all of the Comfort Inn &amp; Suites have been.  Very nice and helpful staff and the room was very clean and appeared to be more updated more so than the hallways.  Breakfast was included and wonderful as always.  We were traveling as just 2 ladies and I felt safe in both the well lit parking lot and my room!  The hotel is right on the highway...easy to find.  Only drawback is the hotel is supposed to be NO SMOKING but the hallways smelled of it as we were coming and going to our rooms.More</t>
   </si>
   <si>
+    <t>APark123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r205009086-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1987,6 +2251,9 @@
     <t>Stayed here for my son's wedding weekend. Everyone working here was friendly and eager to help. Rooms were clean and large sized. Breakfast was basic but good. Would stay here again if I was in the area. More</t>
   </si>
   <si>
+    <t>winflack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r198847624-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2002,6 +2269,9 @@
     <t>checked in late on our way to San Antonio. Wife and kids were ready for a comfortable bed. This hotel was off of the highway so we chose it. Didn't get to check out indoor pool since we arrived right at closing time but it looked very nice. The room was nice and the beds were very comfortable. A with most comfort suites, the room had lots of space.</t>
   </si>
   <si>
+    <t>Nathan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r197967362-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2023,6 +2293,9 @@
     <t>When I checked in, the desk clerk informed me that they had a new policy requiring that they charge a deposit on any reservations made through a 3rd Party website.  I called the site I booked through, and they called the desk clerk and convinced him to waive the deposit.  Otherwise, the hotel is fine.  There were kids wandering the halls at 10pm, apparently coming and going from the indoor pool.  The room was spacious and clean, and the breakfast was above average.More</t>
   </si>
   <si>
+    <t>Tom K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r197023479-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2041,6 +2314,9 @@
     <t>Where to start? We booked through Priceline and found this hotel. It looked to be an average priced hotel for the area. Have spent many nights in similar quality, inns and hotels, most of which were clean and comfortable. This one leaves much to be desired. The over all maintenance in the hotel is horrible. The window in my room was hanging out of the frame leaving an opening to the outside so the traffic on the interstate was very loud and the draft from the wind was very uncomfortable. This not only was annoying but the glass is dangerous if bumped could fall and critically injure someone. The smell of the room was poor. Maintenance placed cut up pieces of the aromatic rubber mats that are found at the bottom of a men's urinal in the output vent of the A/C unit of my room to cover the smell. Found cockroach fecal matter in various areas of my room. The door to my room has no striker plate on the locking mechanism so the use of any credit card will get you right into the room. The elevator has no inspection information posted in it. Morning breakfast was at least better than I expected the only thing I would suggest is that tongs be available to the guests. Children and adults reaching into the sweet roll and bagel area with unclean hands was just plain gross.More</t>
   </si>
   <si>
+    <t>Gina B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r187914699-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2059,6 +2335,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>piedmomof3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r180747297-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2074,6 +2353,9 @@
     <t>My family of 5 stayed here for 3 nights.  It is a pet friendly hotel which is great Room was nice but breakfast was a little lame.  Rubber eggs and undercooked bacon is not my thing.  Overall a nice place and great value.</t>
   </si>
   <si>
+    <t>Russell B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r178465762-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2101,6 +2383,9 @@
     <t>The United States Army Company I was with in Viet Nam had a reunion in Burleson Texas from September 11 through September 15 and we all stayed at the Comfort Suites in Burleson.  The rooms were very nice, extra clean and the beds were very comfortable.  The accommodations at this establishment are outstanding.   We used their meeting room and the staff seemed to go out of their way to make sure everything we needed was available.  Everyone seemed to enjoy the breakfasts and the food was very good.  Housekeeping kept our rooms clean and neat and the desk staff was always checking to see if we needed anything.  I would highly recommend this Comfort Suites and its staff to anyone traveling to Fort Worth Texas.More</t>
   </si>
   <si>
+    <t>travel4biz2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r170921315-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2128,6 +2413,9 @@
     <t>Disgusting, people eating and drinking while sitting against my room door !!!!   The entire 3rd floor hallway was blocked in all directions with about 50-60 people sitting down in the hallway, they even had a banquet table set up in the middle of the hallway and bowls of food set up on the floor.  Most of the room doors were propped open 24/7, I didn't feel safe walking to my room.  No sleep possible, no front clerk available to check in, waited 20 minutes with another guest at 6pm. Large spills on the first third stories that were wet for the 2 nights I was there, cockroaches were crawling on the walls of my room. The Best Western next door was $26 dollars cheaper with a higher star rating.More</t>
   </si>
   <si>
+    <t>TreviTurner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r165899084-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2149,6 +2437,9 @@
     <t>We had plans that fell through and needed a room around midnight - tried to book one through Expedia (won't make THAT mistake again), got to the hotel and the reservation was wrong.  The young man at the front desk was VERY cordial, patient, and helpful, he made everything right, and we thoroughly enjoyed our stay in our perfectly clean King Suite.  We thought breakfast was delicious, too - the waffles are great!!More</t>
   </si>
   <si>
+    <t>Fred W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r165243197-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2167,6 +2458,9 @@
     <t>Very please with the size, comfort and setup of the room.  We had two queen beds with a sofa sitting area.  There was a microwave and a fridge. Got a great rate online, breakfast was excellent..eggs,sausage,cereal, waffles, muffins...plenty of coffee. Also near some great eateries..that are reasonably priced if you are traveling with kids. This is a good choice.More</t>
   </si>
   <si>
+    <t>Frances R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r156967250-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2212,6 +2506,9 @@
     <t>We had stayed there on a couple of other occasions. This time the hot tub was down{one thing we really were looking forward to and spring breakers were very noisy.} I spoke w/manager who offered us a discount on our next visit which was nice.  Overall a nice clean place to stay and  very  convenient to meet our kids half way.....More</t>
   </si>
   <si>
+    <t>thunderguppy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r154630167-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2230,6 +2527,9 @@
     <t>Spent a couple of nights here with family. Good things: Price seemed reasonable for what you get. Rooms are big and in good condition. Free movies as well as pay-per-view on TV. Indoor pool with jacuzzi. Good (Not great!) breakfast. Close to Fort Worth.So-so things: Found previous occupant's dirty socks by bed. Juices in breakfast bar tasted watered down. Swimming pool was too deep for younger kids(4+ feet in shallows).800-pound gorilla bad things: A/C would not run in manual mode. Seemed to have its own mind and would not let you change it.  Parking was problem because some company was staying here and their vehicles, big trucks included, took up most the parking lot. One side benefit of staying in area we found out was in Burleson itself, gas prices were about 10-15 cents cheaper than in DFW area once you got away from I-35.More</t>
   </si>
   <si>
+    <t>vicki g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r140617254-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2257,6 +2557,9 @@
     <t>The receptionist was very friendly and helpful. The room clean the beds comfortable. Breakfast was better than some other chains it was edible and filling. There hotel area is quiet, we felt safe and left refreshed. We would use this hotel again.More</t>
   </si>
   <si>
+    <t>Kathryn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r133320681-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2284,6 +2587,9 @@
     <t>The rooms are spacious and clean.  I usually get a King suite, it has a pull out couch that sleeps two that meets the needs of our family.  The staff is WONDERFUL, they go above and beyond to make sure you have a fabulous stay.  Anytime that I've run into problems (and there were only a few times I did) they were fixed immediately. My only complaint (and oh, so minor) is the indoor pool is kind of cold although they advertise it as heated.  Breakfast is ok, unless we are in a huge hurry, we usually hit the IHOP down the road.More</t>
   </si>
   <si>
+    <t>SebrenaE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r130363925-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2305,6 +2611,9 @@
     <t>The standard 2 queen room was spacious, clean, and comfortable.  The staff was warm and friendly.  Management was extremely intelligent, helpful, and genuinely courteous.  The room price was very reasonable.  The location was convenient to many attractions.  This was a great experience.More</t>
   </si>
   <si>
+    <t>salinafred</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r126658284-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2326,6 +2635,9 @@
     <t>The room was very comfortable and the staff was very friendly and accomodating.  The price was very reasonable. The breakfast was very nice try the blueberry or sometimes strawberry waffles in the shape of texas  We stayed 2 different nights on the way to Port A and back.  The pool had very strong chlorine which burned our eyes but kids still liked to swim in it.  I would definitely stay again If you are heading south on 35 kind of a pain to get to have to do a turnaround but that is the way it is in texas. There is a great mexican restaurant next door cant remember name of it but worth going there.More</t>
   </si>
   <si>
+    <t>Janda1701</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r125898309-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2344,6 +2656,9 @@
     <t>Its not a four star hotel but if you are looking for clean comfortable and inexpensive this is the place for youMore</t>
   </si>
   <si>
+    <t>Bingo47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r124223261-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2365,6 +2680,9 @@
     <t>It isn't in a pleasing location to begin with. Driveway seems to be washing out. Although we had a confirmed reservation, desk clerk was fairly intent on changing that reservation to a different kind of room. The elevator was really slow and when the door opened, the tile was broken and cracked. Elevator inspection certificate displayed was more than one year old. Beds were made but sheets very very wrinkled.  Closet door wouldn't slide as one side was totally off the track. We notified the front desk but this was on Friday and no one had come to look at it by check out on Sunday. We wore socks in the room but when I got in shower, my feet initially left very dirty footprints on tub bottom. We started watching for this and realized carpeting was unclean in our room. We didn't eat breakfast at the hotel as there were several youth basketball teams staying at the hotel. The breakfast room was very disorganized and we heard parents refusing children to eat the ripe fruit. I did not see the fruit, but could hear more than one person talking about it. The room was spacious, but drab. . I put my own new sheets on the beds and took them off when we left the room. The same wrinkled ones were put back on the beds when the room was 'cleaned'. Trash wasn't emptied first day. We wouldn't stay...It isn't in a pleasing location to begin with. Driveway seems to be washing out. Although we had a confirmed reservation, desk clerk was fairly intent on changing that reservation to a different kind of room. The elevator was really slow and when the door opened, the tile was broken and cracked. Elevator inspection certificate displayed was more than one year old. Beds were made but sheets very very wrinkled.  Closet door wouldn't slide as one side was totally off the track. We notified the front desk but this was on Friday and no one had come to look at it by check out on Sunday. We wore socks in the room but when I got in shower, my feet initially left very dirty footprints on tub bottom. We started watching for this and realized carpeting was unclean in our room. We didn't eat breakfast at the hotel as there were several youth basketball teams staying at the hotel. The breakfast room was very disorganized and we heard parents refusing children to eat the ripe fruit. I did not see the fruit, but could hear more than one person talking about it. The room was spacious, but drab. . I put my own new sheets on the beds and took them off when we left the room. The same wrinkled ones were put back on the beds when the room was 'cleaned'. Trash wasn't emptied first day. We wouldn't stay there again. We usually enjoy a clean room for the value at Choice Hotels but we were totally disappointed in this property.More</t>
   </si>
   <si>
+    <t>David M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r116905242-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2386,6 +2704,9 @@
     <t>As I checked in to this hotel, I was welcomed by a young lady that was very kind and helpful. The service was superb. I work for a major oil in gas company that has been doing frequent business in the area. I did not spend much time at the hotel as I was out on business. Although the hotel is tricky to get to, I had my GPS handy. The rooms were clean and comfortable just what I expect every time I stay at a hotel. The morning breakfast was your typical breakfast with eggs, bacon, bread and juices. The area where the hotel is located was quiet. I enjoyed this hotel and would recommend this hotel to all readers.More</t>
   </si>
   <si>
+    <t>Jayhawk_Nick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r113767975-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2407,6 +2728,9 @@
     <t>This is not a bad hotel, but there were many reasons to choose to stay elsewhere.  My sofa has a large stain on the seat - not sure what it is, and not sure I want to know,  The vending machines were out of all sodas, and the snack machine did not work.  The lady behind the desk seemed unconcerned and unapologetic, "I know, but we've made our shopping list!." she quipped.  Neither the information nor the indifferent attitude are really much help to me.  She offered me a diet Coke from behind the desk, then charged me for it (I thought she was giving it to me to make up for my inconvenience).  Next door is a Mexican restaurant that turns into a kareoke bar at night.  It's 10:30 PM, and I can still here the noise from this establishment from inside my room.  Not sure how long this is going to go on.  After visiting with family (I'm here to attend a funeral) I went back to my room and turned on the TV.  The cable service keeps fading in and out, making it impossible to watch anything.  That was the last straw that caused me to write a review, as this is something i never do.  Save yourself some trouble, and stay up the road.  There are lots of choices one exit to the north.More</t>
   </si>
   <si>
+    <t>willgob10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r106495893-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2422,6 +2746,9 @@
     <t>I stayed there due to job site. Normally dont write reviews but I have to say comfort suites is very enjoyable to stay not only they have very clean comfortable rooms but the staff is very friendly Alo the front desk clerk is great she made sure my stay went very well her smile just made my day everyday! Not leaving behind the great cookies they welcome you with. Great place have a restaurant next door that is very good.</t>
   </si>
   <si>
+    <t>Drhroe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r102298588-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2437,6 +2764,9 @@
     <t>Staff beyond helpful. Quiet hotel. Had the pool all to ourselves. Room was clean.</t>
   </si>
   <si>
+    <t>SWEETCHIK0124</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r100752303-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2455,6 +2785,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>Rhtejas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r96778243-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2476,6 +2809,9 @@
     <t>My wife booked a hot tub room at the last minute for a romantic valentines get away, the room was very clean and great looking. Soft bed, big TV etc. Big bathroom, with just the basics of what you need in there, however since it was a handicap accessible room the shower was a roll in. That is perfectly fine and was rather nice,expect that the little attempt of making a lip to keep the water in the shower area didn't work, it ended up going all over the bathroom floor. That is the only down side to the whole visit, the staff was friendly and the stay very enjoyable. We will definitely be staying there againMore</t>
   </si>
   <si>
+    <t>travelsalotaplaces</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r81245263-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -2492,6 +2828,9 @@
   </si>
   <si>
     <t>September 2010</t>
+  </si>
+  <si>
+    <t>crazylady1234</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107310-r76375098-Quality_Suites_Burleson_Ft_Worth-Burleson_Texas.html</t>
@@ -3017,34 +3356,38 @@
       <c r="A2" t="n">
         <v>36756</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>174108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
@@ -3061,56 +3404,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36756</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>174109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3126,56 +3473,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36756</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>174110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3187,56 +3538,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36756</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>174111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -3252,56 +3607,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36756</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>174112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
         <v>81</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" t="s">
-        <v>77</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -3317,56 +3676,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36756</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>4166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3382,56 +3745,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36756</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>174113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3443,56 +3810,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36756</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>174114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -3510,56 +3881,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36756</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>174115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3571,56 +3946,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36756</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>86382</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3632,56 +4011,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36756</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>174116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3693,56 +4076,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36756</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>174117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3758,56 +4145,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36756</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>174118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -3825,47 +4216,51 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36756</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>174119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
@@ -3882,56 +4277,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36756</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>174120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3943,56 +4342,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="X16" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36756</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>174121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -4010,56 +4413,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="X17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36756</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>174122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4075,56 +4482,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36756</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>174123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4142,56 +4553,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="X19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="Y19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36756</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>174124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>204</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="J20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4203,56 +4618,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="X20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36756</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>5471</v>
+      </c>
+      <c r="C21" t="s">
+        <v>213</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4264,56 +4683,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="X21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="Y21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36756</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>4146</v>
+      </c>
+      <c r="C22" t="s">
+        <v>223</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="J22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4325,56 +4748,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="X22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Y22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36756</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>44167</v>
+      </c>
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="O23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4390,56 +4817,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="X23" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Y23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36756</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>174125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4457,56 +4888,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="X24" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Y24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36756</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>174126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4522,56 +4957,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="X25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36756</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>174127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>258</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="K26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4583,56 +5022,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Y26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36756</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>1341</v>
+      </c>
+      <c r="C27" t="s">
+        <v>268</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4644,56 +5087,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X27" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Y27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36756</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>174128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="J28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="O28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -4709,56 +5156,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X28" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Y28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36756</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>17187</v>
+      </c>
+      <c r="C29" t="s">
+        <v>283</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="J29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="K29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="O29" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -4774,56 +5225,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X29" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Y29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36756</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>174129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>291</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="J30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="K30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="L30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4835,47 +5290,51 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X30" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Y30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36756</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>174130</v>
+      </c>
+      <c r="C31" t="s">
+        <v>298</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="J31" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
@@ -4892,56 +5351,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X31" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Y31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36756</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>8224</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="J32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="K32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="O32" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4953,56 +5416,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X32" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Y32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36756</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>174131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>312</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="J33" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="K33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="L33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="O33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5014,56 +5481,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X33" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Y33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36756</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>174132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>318</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="J34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="K34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="O34" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -5081,56 +5552,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X34" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Y34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36756</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>174133</v>
+      </c>
+      <c r="C35" t="s">
+        <v>325</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="J35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5148,56 +5623,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="X35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="Y35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36756</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C36" t="s">
+        <v>335</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="J36" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="K36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="O36" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5215,56 +5694,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="X36" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="Y36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36756</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>17460</v>
+      </c>
+      <c r="C37" t="s">
+        <v>342</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="J37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="K37" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="L37" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5280,56 +5763,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="X37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="Y37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36756</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>174134</v>
+      </c>
+      <c r="C38" t="s">
+        <v>352</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="J38" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="K38" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="L38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5349,50 +5836,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36756</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>174135</v>
+      </c>
+      <c r="C39" t="s">
+        <v>359</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="J39" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="K39" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5406,50 +5897,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36756</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>174136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>365</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="J40" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="K40" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="L40" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5467,50 +5962,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36756</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>174137</v>
+      </c>
+      <c r="C41" t="s">
+        <v>372</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="J41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="K41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="L41" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="O41" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5522,56 +6021,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="X41" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Y41" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36756</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>223</v>
+      </c>
+      <c r="C42" t="s">
+        <v>382</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="J42" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="K42" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="L42" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="O42" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5589,56 +6092,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="X42" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="Y42" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36756</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>7195</v>
+      </c>
+      <c r="C43" t="s">
+        <v>391</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="J43" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="K43" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="L43" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="O43" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5654,56 +6161,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="X43" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="Y43" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36756</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>174138</v>
+      </c>
+      <c r="C44" t="s">
+        <v>399</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="J44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="K44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="L44" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="O44" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5723,50 +6234,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36756</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>5576</v>
+      </c>
+      <c r="C45" t="s">
+        <v>405</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="J45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="K45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="L45" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="O45" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5786,50 +6301,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36756</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>605</v>
+      </c>
+      <c r="C46" t="s">
+        <v>411</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="J46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="K46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="L46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="O46" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5849,50 +6368,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36756</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>40457</v>
+      </c>
+      <c r="C47" t="s">
+        <v>417</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="J47" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="K47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="L47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5912,50 +6435,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36756</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>86593</v>
+      </c>
+      <c r="C48" t="s">
+        <v>424</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="J48" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="K48" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="L48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5969,50 +6496,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36756</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>3450</v>
+      </c>
+      <c r="C49" t="s">
+        <v>430</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="J49" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="K49" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="L49" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="O49" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -6032,50 +6563,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36756</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>174139</v>
+      </c>
+      <c r="C50" t="s">
+        <v>436</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="J50" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="K50" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="L50" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="O50" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -6095,50 +6630,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36756</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>174140</v>
+      </c>
+      <c r="C51" t="s">
+        <v>442</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="J51" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="K51" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="L51" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6158,50 +6697,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36756</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>18911</v>
+      </c>
+      <c r="C52" t="s">
+        <v>448</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="J52" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="K52" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="L52" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6215,50 +6758,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36756</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>16147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>455</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="J53" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="K53" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="L53" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6272,50 +6819,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36756</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>10872</v>
+      </c>
+      <c r="C54" t="s">
+        <v>462</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="J54" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="K54" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="L54" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="O54" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6335,50 +6886,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>36756</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>174141</v>
+      </c>
+      <c r="C55" t="s">
+        <v>469</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="J55" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="K55" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="L55" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6392,50 +6947,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36756</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>22651</v>
+      </c>
+      <c r="C56" t="s">
+        <v>475</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="J56" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="K56" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="L56" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6453,50 +7012,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36756</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>174142</v>
+      </c>
+      <c r="C57" t="s">
+        <v>481</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="J57" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="K57" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="L57" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6516,50 +7079,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>36756</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>9065</v>
+      </c>
+      <c r="C58" t="s">
+        <v>487</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="J58" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="K58" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="L58" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6577,50 +7144,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36756</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>174143</v>
+      </c>
+      <c r="C59" t="s">
+        <v>492</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>435</v>
+        <v>493</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>436</v>
+        <v>494</v>
       </c>
       <c r="J59" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="K59" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="L59" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="O59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6638,56 +7209,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="X59" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="Y59" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36756</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>17050</v>
+      </c>
+      <c r="C60" t="s">
+        <v>502</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="J60" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="K60" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="L60" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="O60" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6705,56 +7280,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="X60" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="Y60" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36756</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>174144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>509</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>451</v>
+        <v>511</v>
       </c>
       <c r="J61" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="K61" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
       <c r="L61" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="O61" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6770,56 +7349,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="X61" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="Y61" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>36756</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>174145</v>
+      </c>
+      <c r="C62" t="s">
+        <v>515</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="J62" t="s">
-        <v>457</v>
+        <v>518</v>
       </c>
       <c r="K62" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="L62" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="O62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6831,56 +7414,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="X62" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="Y62" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>36756</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>15596</v>
+      </c>
+      <c r="C63" t="s">
+        <v>522</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>461</v>
+        <v>523</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>462</v>
+        <v>524</v>
       </c>
       <c r="J63" t="s">
-        <v>463</v>
+        <v>525</v>
       </c>
       <c r="K63" t="s">
-        <v>464</v>
+        <v>526</v>
       </c>
       <c r="L63" t="s">
-        <v>465</v>
+        <v>527</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6892,56 +7479,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="X63" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="Y63" t="s">
-        <v>466</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>36756</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>174146</v>
+      </c>
+      <c r="C64" t="s">
+        <v>529</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>467</v>
+        <v>530</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="J64" t="s">
-        <v>469</v>
+        <v>532</v>
       </c>
       <c r="K64" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="L64" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="O64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="n">
@@ -6959,56 +7550,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="X64" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="Y64" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>36756</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>174147</v>
+      </c>
+      <c r="C65" t="s">
+        <v>536</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>473</v>
+        <v>537</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="J65" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="K65" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
       <c r="L65" t="s">
-        <v>477</v>
+        <v>541</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="O65" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7020,56 +7615,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="X65" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="Y65" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>36756</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>174148</v>
+      </c>
+      <c r="C66" t="s">
+        <v>545</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>481</v>
+        <v>546</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>482</v>
+        <v>547</v>
       </c>
       <c r="J66" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="K66" t="s">
-        <v>483</v>
+        <v>548</v>
       </c>
       <c r="L66" t="s">
-        <v>484</v>
+        <v>549</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="O66" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7081,56 +7680,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="X66" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="Y66" t="s">
-        <v>485</v>
+        <v>550</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>36756</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>174149</v>
+      </c>
+      <c r="C67" t="s">
+        <v>551</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>486</v>
+        <v>552</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="J67" t="s">
-        <v>488</v>
+        <v>554</v>
       </c>
       <c r="K67" t="s">
-        <v>489</v>
+        <v>555</v>
       </c>
       <c r="L67" t="s">
-        <v>490</v>
+        <v>556</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="O67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="n">
@@ -7148,56 +7751,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="X67" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="Y67" t="s">
-        <v>491</v>
+        <v>557</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>36756</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>174150</v>
+      </c>
+      <c r="C68" t="s">
+        <v>558</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>492</v>
+        <v>559</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>493</v>
+        <v>560</v>
       </c>
       <c r="J68" t="s">
-        <v>494</v>
+        <v>561</v>
       </c>
       <c r="K68" t="s">
-        <v>495</v>
+        <v>562</v>
       </c>
       <c r="L68" t="s">
-        <v>496</v>
+        <v>563</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>497</v>
+        <v>564</v>
       </c>
       <c r="O68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7215,56 +7822,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>498</v>
+        <v>565</v>
       </c>
       <c r="X68" t="s">
-        <v>499</v>
+        <v>566</v>
       </c>
       <c r="Y68" t="s">
-        <v>500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>36756</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>174151</v>
+      </c>
+      <c r="C69" t="s">
+        <v>568</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>501</v>
+        <v>569</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="J69" t="s">
-        <v>503</v>
+        <v>571</v>
       </c>
       <c r="K69" t="s">
-        <v>504</v>
+        <v>572</v>
       </c>
       <c r="L69" t="s">
-        <v>505</v>
+        <v>573</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>497</v>
+        <v>564</v>
       </c>
       <c r="O69" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7276,56 +7887,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>498</v>
+        <v>565</v>
       </c>
       <c r="X69" t="s">
-        <v>499</v>
+        <v>566</v>
       </c>
       <c r="Y69" t="s">
-        <v>506</v>
+        <v>574</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>36756</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>174152</v>
+      </c>
+      <c r="C70" t="s">
+        <v>575</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>507</v>
+        <v>576</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
       <c r="J70" t="s">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="K70" t="s">
-        <v>510</v>
+        <v>579</v>
       </c>
       <c r="L70" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>497</v>
+        <v>564</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7337,56 +7952,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>498</v>
+        <v>565</v>
       </c>
       <c r="X70" t="s">
-        <v>499</v>
+        <v>566</v>
       </c>
       <c r="Y70" t="s">
-        <v>512</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>36756</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>174153</v>
+      </c>
+      <c r="C71" t="s">
+        <v>582</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>514</v>
+        <v>584</v>
       </c>
       <c r="J71" t="s">
-        <v>515</v>
+        <v>585</v>
       </c>
       <c r="K71" t="s">
-        <v>516</v>
+        <v>586</v>
       </c>
       <c r="L71" t="s">
-        <v>517</v>
+        <v>587</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>518</v>
+        <v>588</v>
       </c>
       <c r="O71" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7398,56 +8017,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>519</v>
+        <v>589</v>
       </c>
       <c r="X71" t="s">
-        <v>520</v>
+        <v>590</v>
       </c>
       <c r="Y71" t="s">
-        <v>521</v>
+        <v>591</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>36756</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>223</v>
+      </c>
+      <c r="C72" t="s">
+        <v>382</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>522</v>
+        <v>592</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>523</v>
+        <v>593</v>
       </c>
       <c r="J72" t="s">
-        <v>524</v>
+        <v>594</v>
       </c>
       <c r="K72" t="s">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="L72" t="s">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
       <c r="O72" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7463,56 +8086,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>519</v>
+        <v>589</v>
       </c>
       <c r="X72" t="s">
-        <v>520</v>
+        <v>590</v>
       </c>
       <c r="Y72" t="s">
-        <v>528</v>
+        <v>598</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>36756</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>4084</v>
+      </c>
+      <c r="C73" t="s">
+        <v>599</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>529</v>
+        <v>600</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>530</v>
+        <v>601</v>
       </c>
       <c r="J73" t="s">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="K73" t="s">
-        <v>532</v>
+        <v>603</v>
       </c>
       <c r="L73" t="s">
-        <v>533</v>
+        <v>604</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>518</v>
+        <v>588</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7528,56 +8155,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>519</v>
+        <v>589</v>
       </c>
       <c r="X73" t="s">
-        <v>520</v>
+        <v>590</v>
       </c>
       <c r="Y73" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>36756</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>24537</v>
+      </c>
+      <c r="C74" t="s">
+        <v>606</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>535</v>
+        <v>607</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>536</v>
+        <v>608</v>
       </c>
       <c r="J74" t="s">
-        <v>537</v>
+        <v>609</v>
       </c>
       <c r="K74" t="s">
-        <v>538</v>
+        <v>610</v>
       </c>
       <c r="L74" t="s">
-        <v>539</v>
+        <v>611</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
       <c r="O74" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7593,47 +8224,51 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="X74" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="Y74" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>36756</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>174154</v>
+      </c>
+      <c r="C75" t="s">
+        <v>615</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>543</v>
+        <v>616</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>544</v>
+        <v>617</v>
       </c>
       <c r="J75" t="s">
-        <v>537</v>
+        <v>609</v>
       </c>
       <c r="K75" t="s">
-        <v>545</v>
+        <v>618</v>
       </c>
       <c r="L75" t="s">
-        <v>546</v>
+        <v>619</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
@@ -7660,56 +8295,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="X75" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="Y75" t="s">
-        <v>547</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>36756</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>174155</v>
+      </c>
+      <c r="C76" t="s">
+        <v>621</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>548</v>
+        <v>622</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>549</v>
+        <v>623</v>
       </c>
       <c r="J76" t="s">
-        <v>550</v>
+        <v>624</v>
       </c>
       <c r="K76" t="s">
-        <v>551</v>
+        <v>625</v>
       </c>
       <c r="L76" t="s">
-        <v>552</v>
+        <v>626</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
       <c r="O76" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="n">
@@ -7725,56 +8364,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="X76" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="Y76" t="s">
-        <v>553</v>
+        <v>627</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>36756</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>174156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>628</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>554</v>
+        <v>629</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>555</v>
+        <v>630</v>
       </c>
       <c r="J77" t="s">
-        <v>556</v>
+        <v>631</v>
       </c>
       <c r="K77" t="s">
-        <v>557</v>
+        <v>632</v>
       </c>
       <c r="L77" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>559</v>
+        <v>634</v>
       </c>
       <c r="O77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="n">
@@ -7790,56 +8433,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="X77" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="Y77" t="s">
-        <v>560</v>
+        <v>635</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>36756</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>85900</v>
+      </c>
+      <c r="C78" t="s">
+        <v>636</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>561</v>
+        <v>637</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>562</v>
+        <v>638</v>
       </c>
       <c r="J78" t="s">
-        <v>556</v>
+        <v>631</v>
       </c>
       <c r="K78" t="s">
-        <v>563</v>
+        <v>639</v>
       </c>
       <c r="L78" t="s">
-        <v>564</v>
+        <v>640</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>559</v>
+        <v>634</v>
       </c>
       <c r="O78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7855,56 +8502,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="X78" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="Y78" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>36756</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>174148</v>
+      </c>
+      <c r="C79" t="s">
+        <v>551</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>566</v>
+        <v>642</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>567</v>
+        <v>643</v>
       </c>
       <c r="J79" t="s">
-        <v>556</v>
+        <v>631</v>
       </c>
       <c r="K79" t="s">
-        <v>568</v>
+        <v>644</v>
       </c>
       <c r="L79" t="s">
-        <v>569</v>
+        <v>645</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>559</v>
+        <v>634</v>
       </c>
       <c r="O79" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="n">
@@ -7922,56 +8573,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="X79" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="Y79" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>36756</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>174157</v>
+      </c>
+      <c r="C80" t="s">
+        <v>647</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>571</v>
+        <v>648</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>572</v>
+        <v>649</v>
       </c>
       <c r="J80" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="K80" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="L80" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="O80" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
@@ -7985,50 +8640,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>36756</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>174158</v>
+      </c>
+      <c r="C81" t="s">
+        <v>654</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>577</v>
+        <v>655</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>578</v>
+        <v>656</v>
       </c>
       <c r="J81" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="K81" t="s">
-        <v>579</v>
+        <v>657</v>
       </c>
       <c r="L81" t="s">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>559</v>
+        <v>634</v>
       </c>
       <c r="O81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -8048,50 +8707,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>580</v>
+        <v>658</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>36756</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>174159</v>
+      </c>
+      <c r="C82" t="s">
+        <v>659</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>581</v>
+        <v>660</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>582</v>
+        <v>661</v>
       </c>
       <c r="J82" t="s">
-        <v>583</v>
+        <v>662</v>
       </c>
       <c r="K82" t="s">
-        <v>584</v>
+        <v>663</v>
       </c>
       <c r="L82" t="s">
-        <v>585</v>
+        <v>664</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="O82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="n">
@@ -8111,50 +8774,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>585</v>
+        <v>664</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>36756</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>174160</v>
+      </c>
+      <c r="C83" t="s">
+        <v>665</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>586</v>
+        <v>666</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>587</v>
+        <v>667</v>
       </c>
       <c r="J83" t="s">
-        <v>588</v>
+        <v>668</v>
       </c>
       <c r="K83" t="s">
-        <v>589</v>
+        <v>669</v>
       </c>
       <c r="L83" t="s">
-        <v>590</v>
+        <v>670</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="O83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -8170,56 +8837,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>591</v>
+        <v>671</v>
       </c>
       <c r="X83" t="s">
-        <v>592</v>
+        <v>672</v>
       </c>
       <c r="Y83" t="s">
-        <v>593</v>
+        <v>673</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>36756</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>27883</v>
+      </c>
+      <c r="C84" t="s">
+        <v>674</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>594</v>
+        <v>675</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>595</v>
+        <v>676</v>
       </c>
       <c r="J84" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="K84" t="s">
-        <v>597</v>
+        <v>678</v>
       </c>
       <c r="L84" t="s">
-        <v>598</v>
+        <v>679</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>599</v>
+        <v>680</v>
       </c>
       <c r="O84" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="n">
@@ -8237,56 +8908,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>600</v>
+        <v>681</v>
       </c>
       <c r="X84" t="s">
-        <v>601</v>
+        <v>682</v>
       </c>
       <c r="Y84" t="s">
-        <v>602</v>
+        <v>683</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>36756</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>174161</v>
+      </c>
+      <c r="C85" t="s">
+        <v>684</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>603</v>
+        <v>685</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>604</v>
+        <v>686</v>
       </c>
       <c r="J85" t="s">
-        <v>605</v>
+        <v>687</v>
       </c>
       <c r="K85" t="s">
-        <v>606</v>
+        <v>688</v>
       </c>
       <c r="L85" t="s">
-        <v>607</v>
+        <v>689</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>599</v>
+        <v>680</v>
       </c>
       <c r="O85" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8302,56 +8977,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>600</v>
+        <v>681</v>
       </c>
       <c r="X85" t="s">
-        <v>601</v>
+        <v>682</v>
       </c>
       <c r="Y85" t="s">
-        <v>608</v>
+        <v>690</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>36756</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>174162</v>
+      </c>
+      <c r="C86" t="s">
+        <v>691</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>609</v>
+        <v>692</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>610</v>
+        <v>693</v>
       </c>
       <c r="J86" t="s">
-        <v>611</v>
+        <v>694</v>
       </c>
       <c r="K86" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="L86" t="s">
-        <v>612</v>
+        <v>695</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>613</v>
+        <v>696</v>
       </c>
       <c r="O86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="n">
@@ -8367,56 +9046,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>614</v>
+        <v>697</v>
       </c>
       <c r="X86" t="s">
-        <v>615</v>
+        <v>698</v>
       </c>
       <c r="Y86" t="s">
-        <v>616</v>
+        <v>699</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>36756</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>17343</v>
+      </c>
+      <c r="C87" t="s">
+        <v>700</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>617</v>
+        <v>701</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>618</v>
+        <v>702</v>
       </c>
       <c r="J87" t="s">
-        <v>619</v>
+        <v>703</v>
       </c>
       <c r="K87" t="s">
-        <v>620</v>
+        <v>704</v>
       </c>
       <c r="L87" t="s">
-        <v>621</v>
+        <v>705</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
       <c r="O87" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="n">
@@ -8432,56 +9115,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="X87" t="s">
-        <v>624</v>
+        <v>708</v>
       </c>
       <c r="Y87" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>36756</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>7940</v>
+      </c>
+      <c r="C88" t="s">
+        <v>710</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>626</v>
+        <v>711</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>627</v>
+        <v>712</v>
       </c>
       <c r="J88" t="s">
-        <v>628</v>
+        <v>713</v>
       </c>
       <c r="K88" t="s">
-        <v>629</v>
+        <v>714</v>
       </c>
       <c r="L88" t="s">
-        <v>630</v>
+        <v>715</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>631</v>
+        <v>716</v>
       </c>
       <c r="O88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8499,56 +9186,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
       <c r="X88" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="Y88" t="s">
-        <v>634</v>
+        <v>719</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>36756</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>26304</v>
+      </c>
+      <c r="C89" t="s">
+        <v>720</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>635</v>
+        <v>721</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>636</v>
+        <v>722</v>
       </c>
       <c r="J89" t="s">
-        <v>637</v>
+        <v>723</v>
       </c>
       <c r="K89" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
       <c r="L89" t="s">
-        <v>639</v>
+        <v>725</v>
       </c>
       <c r="M89" t="n">
         <v>2</v>
       </c>
       <c r="N89" t="s">
-        <v>640</v>
+        <v>726</v>
       </c>
       <c r="O89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8570,56 +9261,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
       <c r="X89" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="Y89" t="s">
-        <v>641</v>
+        <v>727</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>36756</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>174163</v>
+      </c>
+      <c r="C90" t="s">
+        <v>728</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>642</v>
+        <v>729</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>643</v>
+        <v>730</v>
       </c>
       <c r="J90" t="s">
-        <v>644</v>
+        <v>731</v>
       </c>
       <c r="K90" t="s">
-        <v>645</v>
+        <v>732</v>
       </c>
       <c r="L90" t="s">
-        <v>646</v>
+        <v>733</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>647</v>
+        <v>734</v>
       </c>
       <c r="O90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8641,47 +9336,51 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
       <c r="X90" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="Y90" t="s">
-        <v>648</v>
+        <v>735</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>36756</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>174164</v>
+      </c>
+      <c r="C91" t="s">
+        <v>736</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>649</v>
+        <v>737</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>650</v>
+        <v>738</v>
       </c>
       <c r="J91" t="s">
-        <v>651</v>
+        <v>739</v>
       </c>
       <c r="K91" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="L91" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
@@ -8708,47 +9407,51 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
       <c r="X91" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="Y91" t="s">
-        <v>654</v>
+        <v>742</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>36756</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>174165</v>
+      </c>
+      <c r="C92" t="s">
+        <v>743</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>655</v>
+        <v>744</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>656</v>
+        <v>745</v>
       </c>
       <c r="J92" t="s">
-        <v>657</v>
+        <v>746</v>
       </c>
       <c r="K92" t="s">
-        <v>658</v>
+        <v>747</v>
       </c>
       <c r="L92" t="s">
-        <v>659</v>
+        <v>748</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
@@ -8777,50 +9480,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>659</v>
+        <v>748</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>36756</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>58405</v>
+      </c>
+      <c r="C93" t="s">
+        <v>749</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>661</v>
+        <v>751</v>
       </c>
       <c r="J93" t="s">
-        <v>662</v>
+        <v>752</v>
       </c>
       <c r="K93" t="s">
-        <v>663</v>
+        <v>753</v>
       </c>
       <c r="L93" t="s">
-        <v>664</v>
+        <v>754</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>665</v>
+        <v>755</v>
       </c>
       <c r="O93" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -8842,56 +9549,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
       <c r="X93" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="Y93" t="s">
-        <v>666</v>
+        <v>756</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>36756</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>63184</v>
+      </c>
+      <c r="C94" t="s">
+        <v>757</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>667</v>
+        <v>758</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>668</v>
+        <v>759</v>
       </c>
       <c r="J94" t="s">
-        <v>669</v>
+        <v>760</v>
       </c>
       <c r="K94" t="s">
-        <v>670</v>
+        <v>761</v>
       </c>
       <c r="L94" t="s">
-        <v>671</v>
+        <v>762</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>665</v>
+        <v>755</v>
       </c>
       <c r="O94" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -8915,50 +9626,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>672</v>
+        <v>763</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>36756</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>2872</v>
+      </c>
+      <c r="C95" t="s">
+        <v>764</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>673</v>
+        <v>765</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>674</v>
+        <v>766</v>
       </c>
       <c r="J95" t="s">
-        <v>675</v>
+        <v>767</v>
       </c>
       <c r="K95" t="s">
-        <v>676</v>
+        <v>768</v>
       </c>
       <c r="L95" t="s">
-        <v>677</v>
+        <v>769</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>678</v>
+        <v>770</v>
       </c>
       <c r="O95" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8982,41 +9697,45 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>677</v>
+        <v>769</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>36756</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>174166</v>
+      </c>
+      <c r="C96" t="s">
+        <v>771</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>679</v>
+        <v>772</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>680</v>
+        <v>773</v>
       </c>
       <c r="J96" t="s">
-        <v>681</v>
+        <v>774</v>
       </c>
       <c r="K96" t="s">
-        <v>682</v>
+        <v>775</v>
       </c>
       <c r="L96" t="s">
-        <v>683</v>
+        <v>776</v>
       </c>
       <c r="M96" t="n">
         <v>3</v>
@@ -9045,50 +9764,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>683</v>
+        <v>776</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>36756</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>39230</v>
+      </c>
+      <c r="C97" t="s">
+        <v>777</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>684</v>
+        <v>778</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>685</v>
+        <v>779</v>
       </c>
       <c r="J97" t="s">
-        <v>686</v>
+        <v>780</v>
       </c>
       <c r="K97" t="s">
-        <v>687</v>
+        <v>781</v>
       </c>
       <c r="L97" t="s">
-        <v>688</v>
+        <v>782</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>689</v>
+        <v>783</v>
       </c>
       <c r="O97" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9110,56 +9833,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>690</v>
+        <v>784</v>
       </c>
       <c r="X97" t="s">
-        <v>691</v>
+        <v>785</v>
       </c>
       <c r="Y97" t="s">
-        <v>692</v>
+        <v>786</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>36756</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>174167</v>
+      </c>
+      <c r="C98" t="s">
+        <v>787</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>693</v>
+        <v>788</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>694</v>
+        <v>789</v>
       </c>
       <c r="J98" t="s">
-        <v>695</v>
+        <v>790</v>
       </c>
       <c r="K98" t="s">
-        <v>696</v>
+        <v>791</v>
       </c>
       <c r="L98" t="s">
-        <v>697</v>
+        <v>792</v>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>698</v>
+        <v>793</v>
       </c>
       <c r="O98" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P98" t="n">
         <v>1</v>
@@ -9179,56 +9906,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>699</v>
+        <v>794</v>
       </c>
       <c r="X98" t="s">
-        <v>700</v>
+        <v>795</v>
       </c>
       <c r="Y98" t="s">
-        <v>701</v>
+        <v>796</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>36756</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>174168</v>
+      </c>
+      <c r="C99" t="s">
+        <v>797</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>702</v>
+        <v>798</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>703</v>
+        <v>799</v>
       </c>
       <c r="J99" t="s">
-        <v>704</v>
+        <v>800</v>
       </c>
       <c r="K99" t="s">
-        <v>705</v>
+        <v>801</v>
       </c>
       <c r="L99" t="s">
-        <v>706</v>
+        <v>802</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>707</v>
+        <v>803</v>
       </c>
       <c r="O99" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9250,56 +9981,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>690</v>
+        <v>784</v>
       </c>
       <c r="X99" t="s">
-        <v>691</v>
+        <v>785</v>
       </c>
       <c r="Y99" t="s">
-        <v>708</v>
+        <v>804</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>36756</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>3747</v>
+      </c>
+      <c r="C100" t="s">
+        <v>805</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>709</v>
+        <v>806</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>710</v>
+        <v>807</v>
       </c>
       <c r="J100" t="s">
-        <v>711</v>
+        <v>808</v>
       </c>
       <c r="K100" t="s">
-        <v>712</v>
+        <v>809</v>
       </c>
       <c r="L100" t="s">
-        <v>713</v>
+        <v>810</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>707</v>
+        <v>803</v>
       </c>
       <c r="O100" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9321,56 +10056,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>690</v>
+        <v>784</v>
       </c>
       <c r="X100" t="s">
-        <v>691</v>
+        <v>785</v>
       </c>
       <c r="Y100" t="s">
-        <v>714</v>
+        <v>811</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>36756</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>174169</v>
+      </c>
+      <c r="C101" t="s">
+        <v>812</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>715</v>
+        <v>813</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>716</v>
+        <v>814</v>
       </c>
       <c r="J101" t="s">
-        <v>717</v>
+        <v>815</v>
       </c>
       <c r="K101" t="s">
-        <v>718</v>
+        <v>816</v>
       </c>
       <c r="L101" t="s">
-        <v>719</v>
+        <v>817</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>720</v>
+        <v>818</v>
       </c>
       <c r="O101" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9394,50 +10133,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>719</v>
+        <v>817</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>36756</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>85900</v>
+      </c>
+      <c r="C102" t="s">
+        <v>636</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>721</v>
+        <v>819</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>722</v>
+        <v>820</v>
       </c>
       <c r="J102" t="s">
-        <v>723</v>
+        <v>821</v>
       </c>
       <c r="K102" t="s">
-        <v>724</v>
+        <v>822</v>
       </c>
       <c r="L102" t="s">
-        <v>725</v>
+        <v>823</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>726</v>
+        <v>824</v>
       </c>
       <c r="O102" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -9459,56 +10202,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>727</v>
+        <v>825</v>
       </c>
       <c r="X102" t="s">
-        <v>728</v>
+        <v>826</v>
       </c>
       <c r="Y102" t="s">
-        <v>729</v>
+        <v>827</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>36756</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>174170</v>
+      </c>
+      <c r="C103" t="s">
+        <v>828</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>730</v>
+        <v>829</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>731</v>
+        <v>830</v>
       </c>
       <c r="J103" t="s">
-        <v>732</v>
+        <v>831</v>
       </c>
       <c r="K103" t="s">
-        <v>733</v>
+        <v>832</v>
       </c>
       <c r="L103" t="s">
-        <v>734</v>
+        <v>833</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>726</v>
+        <v>824</v>
       </c>
       <c r="O103" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9530,56 +10277,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>727</v>
+        <v>825</v>
       </c>
       <c r="X103" t="s">
-        <v>728</v>
+        <v>826</v>
       </c>
       <c r="Y103" t="s">
-        <v>735</v>
+        <v>834</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>36756</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>101489</v>
+      </c>
+      <c r="C104" t="s">
+        <v>835</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>736</v>
+        <v>836</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>737</v>
+        <v>837</v>
       </c>
       <c r="J104" t="s">
-        <v>738</v>
+        <v>838</v>
       </c>
       <c r="K104" t="s">
-        <v>739</v>
+        <v>839</v>
       </c>
       <c r="L104" t="s">
-        <v>740</v>
+        <v>840</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>741</v>
+        <v>841</v>
       </c>
       <c r="O104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P104" t="s"/>
       <c r="Q104" t="s"/>
@@ -9591,56 +10342,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>742</v>
+        <v>842</v>
       </c>
       <c r="X104" t="s">
-        <v>743</v>
+        <v>843</v>
       </c>
       <c r="Y104" t="s">
-        <v>744</v>
+        <v>844</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>36756</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>17644</v>
+      </c>
+      <c r="C105" t="s">
+        <v>845</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>745</v>
+        <v>846</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>746</v>
+        <v>847</v>
       </c>
       <c r="J105" t="s">
-        <v>747</v>
+        <v>848</v>
       </c>
       <c r="K105" t="s">
-        <v>748</v>
+        <v>849</v>
       </c>
       <c r="L105" t="s">
-        <v>749</v>
+        <v>850</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>750</v>
+        <v>851</v>
       </c>
       <c r="O105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9662,56 +10417,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>751</v>
+        <v>852</v>
       </c>
       <c r="X105" t="s">
-        <v>752</v>
+        <v>853</v>
       </c>
       <c r="Y105" t="s">
-        <v>753</v>
+        <v>854</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>36756</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>174171</v>
+      </c>
+      <c r="C106" t="s">
+        <v>855</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>754</v>
+        <v>856</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>755</v>
+        <v>857</v>
       </c>
       <c r="J106" t="s">
-        <v>756</v>
+        <v>858</v>
       </c>
       <c r="K106" t="s">
-        <v>757</v>
+        <v>859</v>
       </c>
       <c r="L106" t="s">
-        <v>758</v>
+        <v>860</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>759</v>
+        <v>861</v>
       </c>
       <c r="O106" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9733,56 +10492,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>727</v>
+        <v>825</v>
       </c>
       <c r="X106" t="s">
-        <v>728</v>
+        <v>826</v>
       </c>
       <c r="Y106" t="s">
-        <v>760</v>
+        <v>862</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>36756</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>174172</v>
+      </c>
+      <c r="C107" t="s">
+        <v>863</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>761</v>
+        <v>864</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>762</v>
+        <v>865</v>
       </c>
       <c r="J107" t="s">
-        <v>763</v>
+        <v>866</v>
       </c>
       <c r="K107" t="s">
-        <v>764</v>
+        <v>867</v>
       </c>
       <c r="L107" t="s">
-        <v>765</v>
+        <v>868</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>766</v>
+        <v>869</v>
       </c>
       <c r="O107" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9804,47 +10567,51 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>727</v>
+        <v>825</v>
       </c>
       <c r="X107" t="s">
-        <v>728</v>
+        <v>826</v>
       </c>
       <c r="Y107" t="s">
-        <v>767</v>
+        <v>870</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>36756</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>174173</v>
+      </c>
+      <c r="C108" t="s">
+        <v>871</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>768</v>
+        <v>872</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>769</v>
+        <v>873</v>
       </c>
       <c r="J108" t="s">
-        <v>770</v>
+        <v>874</v>
       </c>
       <c r="K108" t="s">
-        <v>771</v>
+        <v>875</v>
       </c>
       <c r="L108" t="s">
-        <v>772</v>
+        <v>876</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
@@ -9871,56 +10638,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>727</v>
+        <v>825</v>
       </c>
       <c r="X108" t="s">
-        <v>728</v>
+        <v>826</v>
       </c>
       <c r="Y108" t="s">
-        <v>773</v>
+        <v>877</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>36756</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>62002</v>
+      </c>
+      <c r="C109" t="s">
+        <v>878</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>774</v>
+        <v>879</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>775</v>
+        <v>880</v>
       </c>
       <c r="J109" t="s">
-        <v>776</v>
+        <v>881</v>
       </c>
       <c r="K109" t="s">
-        <v>777</v>
+        <v>882</v>
       </c>
       <c r="L109" t="s">
-        <v>778</v>
+        <v>883</v>
       </c>
       <c r="M109" t="n">
         <v>2</v>
       </c>
       <c r="N109" t="s">
-        <v>779</v>
+        <v>884</v>
       </c>
       <c r="O109" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P109" t="n">
         <v>3</v>
@@ -9944,50 +10715,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>780</v>
+        <v>885</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>36756</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>2192</v>
+      </c>
+      <c r="C110" t="s">
+        <v>886</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>781</v>
+        <v>887</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I110" t="s">
-        <v>782</v>
+        <v>888</v>
       </c>
       <c r="J110" t="s">
-        <v>783</v>
+        <v>889</v>
       </c>
       <c r="K110" t="s">
-        <v>784</v>
+        <v>890</v>
       </c>
       <c r="L110" t="s">
-        <v>785</v>
+        <v>891</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>786</v>
+        <v>892</v>
       </c>
       <c r="O110" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -10007,50 +10782,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>787</v>
+        <v>893</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>36756</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>174174</v>
+      </c>
+      <c r="C111" t="s">
+        <v>894</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>788</v>
+        <v>895</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I111" t="s">
-        <v>789</v>
+        <v>896</v>
       </c>
       <c r="J111" t="s">
-        <v>790</v>
+        <v>897</v>
       </c>
       <c r="K111" t="s">
-        <v>791</v>
+        <v>898</v>
       </c>
       <c r="L111" t="s">
-        <v>792</v>
+        <v>899</v>
       </c>
       <c r="M111" t="n">
         <v>2</v>
       </c>
       <c r="N111" t="s">
-        <v>793</v>
+        <v>900</v>
       </c>
       <c r="O111" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P111" t="s"/>
       <c r="Q111" t="s"/>
@@ -10064,41 +10843,45 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>794</v>
+        <v>901</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>36756</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>174175</v>
+      </c>
+      <c r="C112" t="s">
+        <v>902</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>795</v>
+        <v>903</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s">
-        <v>796</v>
+        <v>904</v>
       </c>
       <c r="J112" t="s">
-        <v>797</v>
+        <v>905</v>
       </c>
       <c r="K112" t="s">
-        <v>798</v>
+        <v>906</v>
       </c>
       <c r="L112" t="s">
-        <v>799</v>
+        <v>907</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
@@ -10127,41 +10910,45 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>799</v>
+        <v>907</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>36756</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>174176</v>
+      </c>
+      <c r="C113" t="s">
+        <v>908</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>800</v>
+        <v>909</v>
       </c>
       <c r="G113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I113" t="s">
-        <v>801</v>
+        <v>910</v>
       </c>
       <c r="J113" t="s">
-        <v>802</v>
+        <v>911</v>
       </c>
       <c r="K113" t="s">
-        <v>803</v>
+        <v>912</v>
       </c>
       <c r="L113" t="s">
-        <v>804</v>
+        <v>913</v>
       </c>
       <c r="M113" t="n">
         <v>4</v>
@@ -10190,50 +10977,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>804</v>
+        <v>913</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>36756</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>174177</v>
+      </c>
+      <c r="C114" t="s">
+        <v>914</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>805</v>
+        <v>915</v>
       </c>
       <c r="G114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I114" t="s">
-        <v>806</v>
+        <v>916</v>
       </c>
       <c r="J114" t="s">
-        <v>807</v>
+        <v>917</v>
       </c>
       <c r="K114" t="s">
-        <v>808</v>
+        <v>918</v>
       </c>
       <c r="L114" t="s">
-        <v>809</v>
+        <v>919</v>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
       <c r="N114" t="s">
-        <v>810</v>
+        <v>920</v>
       </c>
       <c r="O114" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P114" t="n">
         <v>1</v>
@@ -10257,50 +11048,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>809</v>
+        <v>919</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>36756</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>174178</v>
+      </c>
+      <c r="C115" t="s">
+        <v>921</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>811</v>
+        <v>922</v>
       </c>
       <c r="G115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I115" t="s">
-        <v>812</v>
+        <v>923</v>
       </c>
       <c r="J115" t="s">
-        <v>813</v>
+        <v>924</v>
       </c>
       <c r="K115" t="s">
-        <v>814</v>
+        <v>925</v>
       </c>
       <c r="L115" t="s">
-        <v>815</v>
+        <v>926</v>
       </c>
       <c r="M115" t="n">
         <v>5</v>
       </c>
       <c r="N115" t="s">
-        <v>816</v>
+        <v>927</v>
       </c>
       <c r="O115" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P115" t="n">
         <v>5</v>
@@ -10324,50 +11119,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>817</v>
+        <v>928</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>36756</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>174179</v>
+      </c>
+      <c r="C116" t="s">
+        <v>929</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>818</v>
+        <v>930</v>
       </c>
       <c r="G116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I116" t="s">
-        <v>819</v>
+        <v>931</v>
       </c>
       <c r="J116" t="s">
-        <v>820</v>
+        <v>932</v>
       </c>
       <c r="K116" t="s">
-        <v>821</v>
+        <v>933</v>
       </c>
       <c r="L116" t="s">
-        <v>822</v>
+        <v>934</v>
       </c>
       <c r="M116" t="n">
         <v>3</v>
       </c>
       <c r="N116" t="s">
-        <v>823</v>
+        <v>935</v>
       </c>
       <c r="O116" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P116" t="n">
         <v>3</v>
@@ -10391,50 +11190,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>822</v>
+        <v>934</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>36756</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>174180</v>
+      </c>
+      <c r="C117" t="s">
+        <v>936</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>824</v>
+        <v>937</v>
       </c>
       <c r="G117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I117" t="s">
-        <v>825</v>
+        <v>938</v>
       </c>
       <c r="J117" t="s">
-        <v>826</v>
+        <v>939</v>
       </c>
       <c r="K117" t="s">
-        <v>827</v>
+        <v>940</v>
       </c>
       <c r="L117" t="s">
-        <v>828</v>
+        <v>941</v>
       </c>
       <c r="M117" t="n">
         <v>2</v>
       </c>
       <c r="N117" t="s">
-        <v>829</v>
+        <v>942</v>
       </c>
       <c r="O117" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P117" t="n">
         <v>3</v>
@@ -10458,7 +11261,7 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>830</v>
+        <v>943</v>
       </c>
     </row>
   </sheetData>
